--- a/WIP/Users/QuyetTD/Function List/FunctionList.xlsx
+++ b/WIP/Users/QuyetTD/Function List/FunctionList.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="67">
   <si>
     <t>List function</t>
   </si>
@@ -223,6 +223,9 @@
   </si>
   <si>
     <t>Manage Price</t>
+  </si>
+  <si>
+    <t>Recharge for user</t>
   </si>
 </sst>
 </file>
@@ -270,12 +273,18 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="11">
@@ -404,7 +413,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -491,6 +500,18 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -500,18 +521,32 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2561,8 +2596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="F67" sqref="F67:I67"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="L63" sqref="L63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2624,7 +2659,7 @@
       <c r="C3" s="26"/>
       <c r="D3" s="25"/>
       <c r="E3" s="26"/>
-      <c r="F3" s="30" t="s">
+      <c r="F3" s="34" t="s">
         <v>15</v>
       </c>
       <c r="G3" s="18"/>
@@ -2830,9 +2865,9 @@
       <c r="F13" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="32"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="36"/>
       <c r="J13" s="7"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -2907,9 +2942,9 @@
       <c r="F17" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="G17" s="31"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="32"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="36"/>
       <c r="J17" s="7"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -3670,7 +3705,7 @@
       <c r="D54" s="25"/>
       <c r="E54" s="26"/>
       <c r="F54" s="19" t="s">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="G54" s="20"/>
       <c r="H54" s="20"/>
@@ -3685,13 +3720,15 @@
       <c r="C55" s="26"/>
       <c r="D55" s="25"/>
       <c r="E55" s="26"/>
-      <c r="F55" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="G55" s="20"/>
-      <c r="H55" s="20"/>
-      <c r="I55" s="21"/>
-      <c r="J55" s="7"/>
+      <c r="F55" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="G55" s="18"/>
+      <c r="H55" s="18"/>
+      <c r="I55" s="18"/>
+      <c r="J55" s="7">
+        <v>25</v>
+      </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
@@ -3699,16 +3736,16 @@
       </c>
       <c r="B56" s="25"/>
       <c r="C56" s="26"/>
-      <c r="D56" s="25"/>
-      <c r="E56" s="26"/>
-      <c r="F56" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="G56" s="18"/>
-      <c r="H56" s="18"/>
-      <c r="I56" s="18"/>
+      <c r="D56" s="27"/>
+      <c r="E56" s="28"/>
+      <c r="F56" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="G56" s="20"/>
+      <c r="H56" s="20"/>
+      <c r="I56" s="21"/>
       <c r="J56" s="7">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
@@ -3717,16 +3754,18 @@
       </c>
       <c r="B57" s="25"/>
       <c r="C57" s="26"/>
-      <c r="D57" s="27"/>
-      <c r="E57" s="28"/>
-      <c r="F57" s="29" t="s">
-        <v>59</v>
+      <c r="D57" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E57" s="5"/>
+      <c r="F57" s="19" t="s">
+        <v>32</v>
       </c>
       <c r="G57" s="20"/>
       <c r="H57" s="20"/>
       <c r="I57" s="21"/>
       <c r="J57" s="7">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
@@ -3735,46 +3774,42 @@
       </c>
       <c r="B58" s="25"/>
       <c r="C58" s="26"/>
-      <c r="D58" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E58" s="5"/>
+      <c r="D58" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="E58" s="38"/>
       <c r="F58" s="19" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="G58" s="20"/>
       <c r="H58" s="20"/>
       <c r="I58" s="21"/>
       <c r="J58" s="7">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A59" s="1">
-        <v>59</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="K58" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="39"/>
       <c r="B59" s="25"/>
       <c r="C59" s="26"/>
-      <c r="D59" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E59" s="6"/>
-      <c r="F59" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="G59" s="20"/>
-      <c r="H59" s="20"/>
-      <c r="I59" s="21"/>
-      <c r="J59" s="7">
-        <v>16</v>
-      </c>
-      <c r="K59" t="s">
-        <v>55</v>
-      </c>
+      <c r="D59" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="E59" s="41"/>
+      <c r="F59" s="42" t="s">
+        <v>66</v>
+      </c>
+      <c r="G59" s="43"/>
+      <c r="H59" s="43"/>
+      <c r="I59" s="44"/>
+      <c r="J59" s="45"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B60" s="25"/>
       <c r="C60" s="26"/>
@@ -3797,7 +3832,7 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B61" s="25"/>
       <c r="C61" s="26"/>
@@ -3820,7 +3855,7 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B62" s="25"/>
       <c r="C62" s="26"/>
@@ -3841,7 +3876,7 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B63" s="25"/>
       <c r="C63" s="26"/>
@@ -3862,7 +3897,7 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B64" s="25"/>
       <c r="C64" s="26"/>
@@ -3885,7 +3920,7 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B65" s="25"/>
       <c r="C65" s="26"/>
@@ -3906,7 +3941,7 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B66" s="25"/>
       <c r="C66" s="26"/>
@@ -3924,7 +3959,7 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B67" s="27"/>
       <c r="C67" s="28"/>
@@ -3942,7 +3977,7 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B68" s="25"/>
       <c r="C68" s="26"/>
@@ -3962,7 +3997,7 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B69" s="25"/>
       <c r="C69" s="26"/>
@@ -3980,14 +4015,14 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B70" s="25"/>
       <c r="C70" s="26"/>
-      <c r="D70" s="33" t="s">
+      <c r="D70" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="E70" s="34"/>
+      <c r="E70" s="31"/>
       <c r="F70" s="16" t="s">
         <v>3</v>
       </c>
@@ -3998,12 +4033,12 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B71" s="25"/>
       <c r="C71" s="26"/>
-      <c r="D71" s="35"/>
-      <c r="E71" s="36"/>
+      <c r="D71" s="32"/>
+      <c r="E71" s="33"/>
       <c r="F71" s="18" t="s">
         <v>15</v>
       </c>
@@ -4019,7 +4054,7 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B72" s="27"/>
       <c r="C72" s="28"/>
@@ -4027,12 +4062,12 @@
         <v>30</v>
       </c>
       <c r="E72" s="5"/>
-      <c r="F72" s="18" t="s">
+      <c r="F72" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="G72" s="18"/>
-      <c r="H72" s="18"/>
-      <c r="I72" s="18"/>
+      <c r="G72" s="20"/>
+      <c r="H72" s="20"/>
+      <c r="I72" s="21"/>
       <c r="J72" s="7">
         <v>28</v>
       </c>
@@ -4041,13 +4076,16 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="88">
-    <mergeCell ref="F40:I40"/>
+  <mergeCells count="89">
+    <mergeCell ref="F35:I35"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="D58:E58"/>
     <mergeCell ref="F23:I23"/>
     <mergeCell ref="F13:I13"/>
     <mergeCell ref="F5:I5"/>
     <mergeCell ref="F17:I17"/>
     <mergeCell ref="F20:I20"/>
+    <mergeCell ref="F14:I14"/>
     <mergeCell ref="B1:C21"/>
     <mergeCell ref="D1:E7"/>
     <mergeCell ref="F1:I1"/>
@@ -4064,7 +4102,6 @@
     <mergeCell ref="F11:I11"/>
     <mergeCell ref="D12:E14"/>
     <mergeCell ref="F12:I12"/>
-    <mergeCell ref="F14:I14"/>
     <mergeCell ref="D15:E16"/>
     <mergeCell ref="F15:I15"/>
     <mergeCell ref="F16:I16"/>
@@ -4086,12 +4123,20 @@
     <mergeCell ref="F32:I32"/>
     <mergeCell ref="D33:E35"/>
     <mergeCell ref="F33:I33"/>
-    <mergeCell ref="F35:I35"/>
+    <mergeCell ref="F52:I52"/>
+    <mergeCell ref="D53:E56"/>
+    <mergeCell ref="F53:I53"/>
+    <mergeCell ref="F55:I55"/>
     <mergeCell ref="D36:E37"/>
     <mergeCell ref="F36:I36"/>
     <mergeCell ref="F37:I37"/>
     <mergeCell ref="F38:I38"/>
     <mergeCell ref="F39:I39"/>
+    <mergeCell ref="F40:I40"/>
+    <mergeCell ref="F56:I56"/>
+    <mergeCell ref="F57:I57"/>
+    <mergeCell ref="F58:I58"/>
+    <mergeCell ref="F54:I54"/>
     <mergeCell ref="B42:C67"/>
     <mergeCell ref="D42:E47"/>
     <mergeCell ref="F42:I42"/>
@@ -4104,15 +4149,6 @@
     <mergeCell ref="F49:I49"/>
     <mergeCell ref="F50:I50"/>
     <mergeCell ref="F51:I51"/>
-    <mergeCell ref="F52:I52"/>
-    <mergeCell ref="D53:E57"/>
-    <mergeCell ref="F53:I53"/>
-    <mergeCell ref="F56:I56"/>
-    <mergeCell ref="F57:I57"/>
-    <mergeCell ref="F58:I58"/>
-    <mergeCell ref="F59:I59"/>
-    <mergeCell ref="F55:I55"/>
-    <mergeCell ref="F54:I54"/>
     <mergeCell ref="F60:I60"/>
     <mergeCell ref="D61:E63"/>
     <mergeCell ref="F61:I61"/>

--- a/WIP/Users/QuyetTD/Function List/FunctionList.xlsx
+++ b/WIP/Users/QuyetTD/Function List/FunctionList.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="68">
   <si>
     <t>List function</t>
   </si>
@@ -226,13 +226,16 @@
   </si>
   <si>
     <t>Recharge for user</t>
+  </si>
+  <si>
+    <t>View price table history</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -269,6 +272,26 @@
       <b/>
       <sz val="11"/>
       <color theme="4"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -413,7 +436,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -461,45 +484,75 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -512,41 +565,26 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -909,1005 +947,1005 @@
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="17"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
+      <c r="A3" s="33"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
       <c r="K3" s="1">
         <v>1</v>
       </c>
-      <c r="L3" s="23" t="s">
+      <c r="L3" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="24"/>
-      <c r="N3" s="23" t="s">
+      <c r="M3" s="23"/>
+      <c r="N3" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="O3" s="24"/>
-      <c r="P3" s="18" t="s">
+      <c r="O3" s="23"/>
+      <c r="P3" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="18"/>
-      <c r="S3" s="18"/>
+      <c r="Q3" s="29"/>
+      <c r="R3" s="29"/>
+      <c r="S3" s="29"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="17"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
+      <c r="A4" s="33"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
       <c r="K4" s="1">
         <v>2</v>
       </c>
-      <c r="L4" s="25"/>
-      <c r="M4" s="26"/>
-      <c r="N4" s="25"/>
-      <c r="O4" s="26"/>
-      <c r="P4" s="18" t="s">
+      <c r="L4" s="30"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="30"/>
+      <c r="O4" s="31"/>
+      <c r="P4" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="Q4" s="18"/>
-      <c r="R4" s="18"/>
-      <c r="S4" s="18"/>
+      <c r="Q4" s="29"/>
+      <c r="R4" s="29"/>
+      <c r="S4" s="29"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="17"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
+      <c r="A5" s="33"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
       <c r="K5" s="1">
         <v>3</v>
       </c>
-      <c r="L5" s="25"/>
-      <c r="M5" s="26"/>
-      <c r="N5" s="25"/>
-      <c r="O5" s="26"/>
-      <c r="P5" s="18" t="s">
+      <c r="L5" s="30"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="30"/>
+      <c r="O5" s="31"/>
+      <c r="P5" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="Q5" s="18"/>
-      <c r="R5" s="18"/>
-      <c r="S5" s="18"/>
+      <c r="Q5" s="29"/>
+      <c r="R5" s="29"/>
+      <c r="S5" s="29"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="17"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
+      <c r="A6" s="33"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="33"/>
       <c r="K6" s="1">
         <v>4</v>
       </c>
-      <c r="L6" s="25"/>
-      <c r="M6" s="26"/>
-      <c r="N6" s="25"/>
-      <c r="O6" s="26"/>
-      <c r="P6" s="19" t="s">
+      <c r="L6" s="30"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="31"/>
+      <c r="P6" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="Q6" s="20"/>
-      <c r="R6" s="20"/>
-      <c r="S6" s="21"/>
+      <c r="Q6" s="27"/>
+      <c r="R6" s="27"/>
+      <c r="S6" s="28"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="17"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
+      <c r="A7" s="33"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="33"/>
       <c r="K7" s="1">
         <v>5</v>
       </c>
-      <c r="L7" s="25"/>
-      <c r="M7" s="26"/>
-      <c r="N7" s="25"/>
-      <c r="O7" s="26"/>
-      <c r="P7" s="19" t="s">
+      <c r="L7" s="30"/>
+      <c r="M7" s="31"/>
+      <c r="N7" s="30"/>
+      <c r="O7" s="31"/>
+      <c r="P7" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="Q7" s="20"/>
-      <c r="R7" s="20"/>
-      <c r="S7" s="21"/>
+      <c r="Q7" s="27"/>
+      <c r="R7" s="27"/>
+      <c r="S7" s="28"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="17"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
+      <c r="A8" s="33"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
       <c r="K8" s="1">
         <v>6</v>
       </c>
-      <c r="L8" s="25"/>
-      <c r="M8" s="26"/>
-      <c r="N8" s="27"/>
-      <c r="O8" s="28"/>
-      <c r="P8" s="19" t="s">
+      <c r="L8" s="30"/>
+      <c r="M8" s="31"/>
+      <c r="N8" s="24"/>
+      <c r="O8" s="25"/>
+      <c r="P8" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="Q8" s="20"/>
-      <c r="R8" s="20"/>
-      <c r="S8" s="21"/>
+      <c r="Q8" s="27"/>
+      <c r="R8" s="27"/>
+      <c r="S8" s="28"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="17"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
+      <c r="A9" s="33"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="33"/>
       <c r="K9" s="1">
         <v>7</v>
       </c>
-      <c r="L9" s="25"/>
-      <c r="M9" s="26"/>
-      <c r="N9" s="23" t="s">
+      <c r="L9" s="30"/>
+      <c r="M9" s="31"/>
+      <c r="N9" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="O9" s="24"/>
-      <c r="P9" s="19" t="s">
+      <c r="O9" s="23"/>
+      <c r="P9" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="Q9" s="20"/>
-      <c r="R9" s="20"/>
-      <c r="S9" s="21"/>
+      <c r="Q9" s="27"/>
+      <c r="R9" s="27"/>
+      <c r="S9" s="28"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="17"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
+      <c r="A10" s="33"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="33"/>
       <c r="K10" s="1">
         <v>8</v>
       </c>
-      <c r="L10" s="25"/>
-      <c r="M10" s="26"/>
-      <c r="N10" s="25"/>
-      <c r="O10" s="26"/>
-      <c r="P10" s="19" t="s">
+      <c r="L10" s="30"/>
+      <c r="M10" s="31"/>
+      <c r="N10" s="30"/>
+      <c r="O10" s="31"/>
+      <c r="P10" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="Q10" s="20"/>
-      <c r="R10" s="20"/>
-      <c r="S10" s="21"/>
+      <c r="Q10" s="27"/>
+      <c r="R10" s="27"/>
+      <c r="S10" s="28"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="17"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
+      <c r="A11" s="33"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="33"/>
       <c r="K11" s="1">
         <v>9</v>
       </c>
-      <c r="L11" s="25"/>
-      <c r="M11" s="26"/>
-      <c r="N11" s="25"/>
-      <c r="O11" s="26"/>
-      <c r="P11" s="19" t="s">
+      <c r="L11" s="30"/>
+      <c r="M11" s="31"/>
+      <c r="N11" s="30"/>
+      <c r="O11" s="31"/>
+      <c r="P11" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="Q11" s="20"/>
-      <c r="R11" s="20"/>
-      <c r="S11" s="21"/>
+      <c r="Q11" s="27"/>
+      <c r="R11" s="27"/>
+      <c r="S11" s="28"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="17"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
+      <c r="A12" s="33"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="33"/>
       <c r="K12" s="1">
         <v>10</v>
       </c>
-      <c r="L12" s="25"/>
-      <c r="M12" s="26"/>
-      <c r="N12" s="27"/>
-      <c r="O12" s="28"/>
-      <c r="P12" s="19" t="s">
+      <c r="L12" s="30"/>
+      <c r="M12" s="31"/>
+      <c r="N12" s="24"/>
+      <c r="O12" s="25"/>
+      <c r="P12" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="Q12" s="20"/>
-      <c r="R12" s="20"/>
-      <c r="S12" s="21"/>
+      <c r="Q12" s="27"/>
+      <c r="R12" s="27"/>
+      <c r="S12" s="28"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="17"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
+      <c r="A13" s="33"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
       <c r="K13" s="1">
         <v>11</v>
       </c>
-      <c r="L13" s="25"/>
-      <c r="M13" s="26"/>
-      <c r="N13" s="23" t="s">
+      <c r="L13" s="30"/>
+      <c r="M13" s="31"/>
+      <c r="N13" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="O13" s="24"/>
-      <c r="P13" s="18" t="s">
+      <c r="O13" s="23"/>
+      <c r="P13" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="Q13" s="18"/>
-      <c r="R13" s="18"/>
-      <c r="S13" s="18"/>
+      <c r="Q13" s="29"/>
+      <c r="R13" s="29"/>
+      <c r="S13" s="29"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="17"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
+      <c r="A14" s="33"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="33"/>
       <c r="K14" s="1">
         <v>12</v>
       </c>
-      <c r="L14" s="25"/>
-      <c r="M14" s="26"/>
-      <c r="N14" s="27"/>
-      <c r="O14" s="28"/>
-      <c r="P14" s="18" t="s">
+      <c r="L14" s="30"/>
+      <c r="M14" s="31"/>
+      <c r="N14" s="24"/>
+      <c r="O14" s="25"/>
+      <c r="P14" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="Q14" s="18"/>
-      <c r="R14" s="18"/>
-      <c r="S14" s="18"/>
+      <c r="Q14" s="29"/>
+      <c r="R14" s="29"/>
+      <c r="S14" s="29"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="17"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
+      <c r="A15" s="33"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="33"/>
       <c r="K15" s="1">
         <v>13</v>
       </c>
-      <c r="L15" s="25"/>
-      <c r="M15" s="26"/>
-      <c r="N15" s="23" t="s">
+      <c r="L15" s="30"/>
+      <c r="M15" s="31"/>
+      <c r="N15" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="O15" s="24"/>
-      <c r="P15" s="19" t="s">
+      <c r="O15" s="23"/>
+      <c r="P15" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="Q15" s="20"/>
-      <c r="R15" s="20"/>
-      <c r="S15" s="21"/>
+      <c r="Q15" s="27"/>
+      <c r="R15" s="27"/>
+      <c r="S15" s="28"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="17"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
+      <c r="A16" s="33"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="33"/>
       <c r="K16" s="1">
         <v>14</v>
       </c>
-      <c r="L16" s="25"/>
-      <c r="M16" s="26"/>
-      <c r="N16" s="27"/>
-      <c r="O16" s="28"/>
-      <c r="P16" s="18" t="s">
+      <c r="L16" s="30"/>
+      <c r="M16" s="31"/>
+      <c r="N16" s="24"/>
+      <c r="O16" s="25"/>
+      <c r="P16" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="Q16" s="18"/>
-      <c r="R16" s="18"/>
-      <c r="S16" s="18"/>
+      <c r="Q16" s="29"/>
+      <c r="R16" s="29"/>
+      <c r="S16" s="29"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="17"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
+      <c r="A17" s="33"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="33"/>
       <c r="K17" s="1">
         <v>15</v>
       </c>
-      <c r="L17" s="25"/>
-      <c r="M17" s="26"/>
+      <c r="L17" s="30"/>
+      <c r="M17" s="31"/>
       <c r="N17" s="3" t="s">
         <v>45</v>
       </c>
       <c r="O17" s="2"/>
-      <c r="P17" s="19" t="s">
+      <c r="P17" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="Q17" s="20"/>
-      <c r="R17" s="20"/>
-      <c r="S17" s="21"/>
+      <c r="Q17" s="27"/>
+      <c r="R17" s="27"/>
+      <c r="S17" s="28"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="17"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
+      <c r="A18" s="33"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="33"/>
       <c r="K18" s="1">
         <v>16</v>
       </c>
-      <c r="L18" s="25"/>
-      <c r="M18" s="26"/>
+      <c r="L18" s="30"/>
+      <c r="M18" s="31"/>
       <c r="N18" s="3" t="s">
         <v>46</v>
       </c>
       <c r="O18" s="3"/>
-      <c r="P18" s="19" t="s">
+      <c r="P18" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="Q18" s="20"/>
-      <c r="R18" s="20"/>
-      <c r="S18" s="21"/>
+      <c r="Q18" s="27"/>
+      <c r="R18" s="27"/>
+      <c r="S18" s="28"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="17"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
+      <c r="A19" s="33"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="33"/>
       <c r="K19" s="1">
         <v>17</v>
       </c>
-      <c r="L19" s="27"/>
-      <c r="M19" s="28"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="25"/>
       <c r="N19" s="3" t="s">
         <v>47</v>
       </c>
       <c r="O19" s="3"/>
-      <c r="P19" s="19" t="s">
+      <c r="P19" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="Q19" s="20"/>
-      <c r="R19" s="20"/>
-      <c r="S19" s="21"/>
+      <c r="Q19" s="27"/>
+      <c r="R19" s="27"/>
+      <c r="S19" s="28"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="17"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
+      <c r="A20" s="33"/>
+      <c r="B20" s="33"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="33"/>
       <c r="K20" s="1">
         <v>18</v>
       </c>
-      <c r="L20" s="23" t="s">
+      <c r="L20" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="M20" s="24"/>
-      <c r="N20" s="23" t="s">
+      <c r="M20" s="23"/>
+      <c r="N20" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="O20" s="24"/>
-      <c r="P20" s="18" t="s">
+      <c r="O20" s="23"/>
+      <c r="P20" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="Q20" s="18"/>
-      <c r="R20" s="18"/>
-      <c r="S20" s="18"/>
+      <c r="Q20" s="29"/>
+      <c r="R20" s="29"/>
+      <c r="S20" s="29"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="17"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
+      <c r="A21" s="33"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="33"/>
       <c r="K21" s="1">
         <v>19</v>
       </c>
-      <c r="L21" s="25"/>
-      <c r="M21" s="26"/>
-      <c r="N21" s="25"/>
-      <c r="O21" s="26"/>
-      <c r="P21" s="18" t="s">
+      <c r="L21" s="30"/>
+      <c r="M21" s="31"/>
+      <c r="N21" s="30"/>
+      <c r="O21" s="31"/>
+      <c r="P21" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="Q21" s="18"/>
-      <c r="R21" s="18"/>
-      <c r="S21" s="18"/>
+      <c r="Q21" s="29"/>
+      <c r="R21" s="29"/>
+      <c r="S21" s="29"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="17"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
+      <c r="A22" s="33"/>
+      <c r="B22" s="33"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="33"/>
       <c r="K22" s="1">
         <v>20</v>
       </c>
-      <c r="L22" s="25"/>
-      <c r="M22" s="26"/>
-      <c r="N22" s="25"/>
-      <c r="O22" s="26"/>
-      <c r="P22" s="18" t="s">
+      <c r="L22" s="30"/>
+      <c r="M22" s="31"/>
+      <c r="N22" s="30"/>
+      <c r="O22" s="31"/>
+      <c r="P22" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="Q22" s="18"/>
-      <c r="R22" s="18"/>
-      <c r="S22" s="18"/>
+      <c r="Q22" s="29"/>
+      <c r="R22" s="29"/>
+      <c r="S22" s="29"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="17"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
+      <c r="A23" s="33"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="33"/>
       <c r="K23" s="1">
         <v>21</v>
       </c>
-      <c r="L23" s="25"/>
-      <c r="M23" s="26"/>
-      <c r="N23" s="25"/>
-      <c r="O23" s="26"/>
-      <c r="P23" s="19" t="s">
+      <c r="L23" s="30"/>
+      <c r="M23" s="31"/>
+      <c r="N23" s="30"/>
+      <c r="O23" s="31"/>
+      <c r="P23" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="Q23" s="20"/>
-      <c r="R23" s="20"/>
-      <c r="S23" s="21"/>
+      <c r="Q23" s="27"/>
+      <c r="R23" s="27"/>
+      <c r="S23" s="28"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="17"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
+      <c r="A24" s="33"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="33"/>
+      <c r="I24" s="33"/>
       <c r="K24" s="1">
         <v>22</v>
       </c>
-      <c r="L24" s="25"/>
-      <c r="M24" s="26"/>
-      <c r="N24" s="25"/>
-      <c r="O24" s="26"/>
-      <c r="P24" s="19" t="s">
+      <c r="L24" s="30"/>
+      <c r="M24" s="31"/>
+      <c r="N24" s="30"/>
+      <c r="O24" s="31"/>
+      <c r="P24" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="Q24" s="20"/>
-      <c r="R24" s="20"/>
-      <c r="S24" s="21"/>
+      <c r="Q24" s="27"/>
+      <c r="R24" s="27"/>
+      <c r="S24" s="28"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25" s="17"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
+      <c r="A25" s="33"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="33"/>
+      <c r="I25" s="33"/>
       <c r="K25" s="1">
         <v>23</v>
       </c>
-      <c r="L25" s="25"/>
-      <c r="M25" s="26"/>
-      <c r="N25" s="27"/>
-      <c r="O25" s="28"/>
-      <c r="P25" s="18" t="s">
+      <c r="L25" s="30"/>
+      <c r="M25" s="31"/>
+      <c r="N25" s="24"/>
+      <c r="O25" s="25"/>
+      <c r="P25" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="Q25" s="18"/>
-      <c r="R25" s="18"/>
-      <c r="S25" s="18"/>
+      <c r="Q25" s="29"/>
+      <c r="R25" s="29"/>
+      <c r="S25" s="29"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26" s="17"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
+      <c r="A26" s="33"/>
+      <c r="B26" s="33"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="33"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="33"/>
+      <c r="I26" s="33"/>
       <c r="K26" s="1">
         <v>24</v>
       </c>
-      <c r="L26" s="25"/>
-      <c r="M26" s="26"/>
-      <c r="N26" s="23" t="s">
+      <c r="L26" s="30"/>
+      <c r="M26" s="31"/>
+      <c r="N26" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="O26" s="24"/>
-      <c r="P26" s="18" t="s">
+      <c r="O26" s="23"/>
+      <c r="P26" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="Q26" s="18"/>
-      <c r="R26" s="18"/>
-      <c r="S26" s="18"/>
+      <c r="Q26" s="29"/>
+      <c r="R26" s="29"/>
+      <c r="S26" s="29"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A27" s="17"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="17"/>
+      <c r="A27" s="33"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="33"/>
+      <c r="I27" s="33"/>
       <c r="K27" s="1">
         <v>25</v>
       </c>
-      <c r="L27" s="25"/>
-      <c r="M27" s="26"/>
-      <c r="N27" s="25"/>
-      <c r="O27" s="26"/>
-      <c r="P27" s="19" t="s">
+      <c r="L27" s="30"/>
+      <c r="M27" s="31"/>
+      <c r="N27" s="30"/>
+      <c r="O27" s="31"/>
+      <c r="P27" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="Q27" s="20"/>
-      <c r="R27" s="20"/>
-      <c r="S27" s="21"/>
+      <c r="Q27" s="27"/>
+      <c r="R27" s="27"/>
+      <c r="S27" s="28"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A28" s="17"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="17"/>
+      <c r="A28" s="33"/>
+      <c r="B28" s="33"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="33"/>
+      <c r="I28" s="33"/>
       <c r="K28" s="1">
         <v>26</v>
       </c>
-      <c r="L28" s="25"/>
-      <c r="M28" s="26"/>
-      <c r="N28" s="25"/>
-      <c r="O28" s="26"/>
-      <c r="P28" s="18" t="s">
+      <c r="L28" s="30"/>
+      <c r="M28" s="31"/>
+      <c r="N28" s="30"/>
+      <c r="O28" s="31"/>
+      <c r="P28" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="Q28" s="18"/>
-      <c r="R28" s="18"/>
-      <c r="S28" s="18"/>
+      <c r="Q28" s="29"/>
+      <c r="R28" s="29"/>
+      <c r="S28" s="29"/>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A29" s="17"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="17"/>
+      <c r="A29" s="33"/>
+      <c r="B29" s="33"/>
+      <c r="C29" s="33"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="33"/>
+      <c r="H29" s="33"/>
+      <c r="I29" s="33"/>
       <c r="K29" s="1">
         <v>27</v>
       </c>
-      <c r="L29" s="25"/>
-      <c r="M29" s="26"/>
-      <c r="N29" s="27"/>
-      <c r="O29" s="28"/>
-      <c r="P29" s="19" t="s">
+      <c r="L29" s="30"/>
+      <c r="M29" s="31"/>
+      <c r="N29" s="24"/>
+      <c r="O29" s="25"/>
+      <c r="P29" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="Q29" s="20"/>
-      <c r="R29" s="20"/>
-      <c r="S29" s="21"/>
+      <c r="Q29" s="27"/>
+      <c r="R29" s="27"/>
+      <c r="S29" s="28"/>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A30" s="17"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="17"/>
+      <c r="A30" s="33"/>
+      <c r="B30" s="33"/>
+      <c r="C30" s="33"/>
+      <c r="D30" s="33"/>
+      <c r="E30" s="33"/>
+      <c r="F30" s="33"/>
+      <c r="G30" s="33"/>
+      <c r="H30" s="33"/>
+      <c r="I30" s="33"/>
       <c r="K30" s="1">
         <v>28</v>
       </c>
-      <c r="L30" s="25"/>
-      <c r="M30" s="26"/>
-      <c r="N30" s="23" t="s">
+      <c r="L30" s="30"/>
+      <c r="M30" s="31"/>
+      <c r="N30" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="O30" s="24"/>
-      <c r="P30" s="19" t="s">
+      <c r="O30" s="23"/>
+      <c r="P30" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="Q30" s="20"/>
-      <c r="R30" s="20"/>
-      <c r="S30" s="21"/>
+      <c r="Q30" s="27"/>
+      <c r="R30" s="27"/>
+      <c r="S30" s="28"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A31" s="17"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="17"/>
+      <c r="A31" s="33"/>
+      <c r="B31" s="33"/>
+      <c r="C31" s="33"/>
+      <c r="D31" s="33"/>
+      <c r="E31" s="33"/>
+      <c r="F31" s="33"/>
+      <c r="G31" s="33"/>
+      <c r="H31" s="33"/>
+      <c r="I31" s="33"/>
       <c r="K31" s="1">
         <v>29</v>
       </c>
-      <c r="L31" s="25"/>
-      <c r="M31" s="26"/>
-      <c r="N31" s="27"/>
-      <c r="O31" s="28"/>
-      <c r="P31" s="19" t="s">
+      <c r="L31" s="30"/>
+      <c r="M31" s="31"/>
+      <c r="N31" s="24"/>
+      <c r="O31" s="25"/>
+      <c r="P31" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="Q31" s="20"/>
-      <c r="R31" s="20"/>
-      <c r="S31" s="21"/>
+      <c r="Q31" s="27"/>
+      <c r="R31" s="27"/>
+      <c r="S31" s="28"/>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A32" s="17"/>
-      <c r="B32" s="17"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="17"/>
+      <c r="A32" s="33"/>
+      <c r="B32" s="33"/>
+      <c r="C32" s="33"/>
+      <c r="D32" s="33"/>
+      <c r="E32" s="33"/>
+      <c r="F32" s="33"/>
+      <c r="G32" s="33"/>
+      <c r="H32" s="33"/>
+      <c r="I32" s="33"/>
       <c r="K32" s="1">
         <v>30</v>
       </c>
-      <c r="L32" s="25"/>
-      <c r="M32" s="26"/>
-      <c r="N32" s="23" t="s">
+      <c r="L32" s="30"/>
+      <c r="M32" s="31"/>
+      <c r="N32" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="O32" s="24"/>
-      <c r="P32" s="19" t="s">
+      <c r="O32" s="23"/>
+      <c r="P32" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="Q32" s="20"/>
-      <c r="R32" s="20"/>
-      <c r="S32" s="21"/>
+      <c r="Q32" s="27"/>
+      <c r="R32" s="27"/>
+      <c r="S32" s="28"/>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A33" s="17"/>
-      <c r="B33" s="17"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="17"/>
+      <c r="A33" s="33"/>
+      <c r="B33" s="33"/>
+      <c r="C33" s="33"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="33"/>
+      <c r="F33" s="33"/>
+      <c r="G33" s="33"/>
+      <c r="H33" s="33"/>
+      <c r="I33" s="33"/>
       <c r="K33" s="1">
         <v>31</v>
       </c>
-      <c r="L33" s="25"/>
-      <c r="M33" s="26"/>
-      <c r="N33" s="27"/>
-      <c r="O33" s="28"/>
-      <c r="P33" s="18" t="s">
+      <c r="L33" s="30"/>
+      <c r="M33" s="31"/>
+      <c r="N33" s="24"/>
+      <c r="O33" s="25"/>
+      <c r="P33" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="Q33" s="18"/>
-      <c r="R33" s="18"/>
-      <c r="S33" s="18"/>
+      <c r="Q33" s="29"/>
+      <c r="R33" s="29"/>
+      <c r="S33" s="29"/>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A34" s="17"/>
-      <c r="B34" s="17"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="17"/>
-      <c r="I34" s="17"/>
+      <c r="A34" s="33"/>
+      <c r="B34" s="33"/>
+      <c r="C34" s="33"/>
+      <c r="D34" s="33"/>
+      <c r="E34" s="33"/>
+      <c r="F34" s="33"/>
+      <c r="G34" s="33"/>
+      <c r="H34" s="33"/>
+      <c r="I34" s="33"/>
       <c r="K34" s="1">
         <v>32</v>
       </c>
-      <c r="L34" s="25"/>
-      <c r="M34" s="26"/>
+      <c r="L34" s="30"/>
+      <c r="M34" s="31"/>
       <c r="N34" s="3" t="s">
         <v>45</v>
       </c>
       <c r="O34" s="2"/>
-      <c r="P34" s="19" t="s">
+      <c r="P34" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="Q34" s="20"/>
-      <c r="R34" s="20"/>
-      <c r="S34" s="21"/>
+      <c r="Q34" s="27"/>
+      <c r="R34" s="27"/>
+      <c r="S34" s="28"/>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A35" s="17"/>
-      <c r="B35" s="17"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="17"/>
-      <c r="I35" s="17"/>
+      <c r="A35" s="33"/>
+      <c r="B35" s="33"/>
+      <c r="C35" s="33"/>
+      <c r="D35" s="33"/>
+      <c r="E35" s="33"/>
+      <c r="F35" s="33"/>
+      <c r="G35" s="33"/>
+      <c r="H35" s="33"/>
+      <c r="I35" s="33"/>
       <c r="K35" s="1">
         <v>33</v>
       </c>
-      <c r="L35" s="25"/>
-      <c r="M35" s="26"/>
+      <c r="L35" s="30"/>
+      <c r="M35" s="31"/>
       <c r="N35" s="3" t="s">
         <v>46</v>
       </c>
       <c r="O35" s="3"/>
-      <c r="P35" s="19" t="s">
+      <c r="P35" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="Q35" s="20"/>
-      <c r="R35" s="20"/>
-      <c r="S35" s="21"/>
+      <c r="Q35" s="27"/>
+      <c r="R35" s="27"/>
+      <c r="S35" s="28"/>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A36" s="17"/>
-      <c r="B36" s="17"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="17"/>
-      <c r="G36" s="17"/>
-      <c r="H36" s="17"/>
-      <c r="I36" s="17"/>
+      <c r="A36" s="33"/>
+      <c r="B36" s="33"/>
+      <c r="C36" s="33"/>
+      <c r="D36" s="33"/>
+      <c r="E36" s="33"/>
+      <c r="F36" s="33"/>
+      <c r="G36" s="33"/>
+      <c r="H36" s="33"/>
+      <c r="I36" s="33"/>
       <c r="K36" s="1">
         <v>34</v>
       </c>
-      <c r="L36" s="27"/>
-      <c r="M36" s="28"/>
+      <c r="L36" s="24"/>
+      <c r="M36" s="25"/>
       <c r="N36" s="3" t="s">
         <v>47</v>
       </c>
       <c r="O36" s="3"/>
-      <c r="P36" s="19" t="s">
+      <c r="P36" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="Q36" s="20"/>
-      <c r="R36" s="20"/>
-      <c r="S36" s="21"/>
+      <c r="Q36" s="27"/>
+      <c r="R36" s="27"/>
+      <c r="S36" s="28"/>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A37" s="17"/>
-      <c r="B37" s="17"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="17"/>
-      <c r="H37" s="17"/>
-      <c r="I37" s="17"/>
+      <c r="A37" s="33"/>
+      <c r="B37" s="33"/>
+      <c r="C37" s="33"/>
+      <c r="D37" s="33"/>
+      <c r="E37" s="33"/>
+      <c r="F37" s="33"/>
+      <c r="G37" s="33"/>
+      <c r="H37" s="33"/>
+      <c r="I37" s="33"/>
       <c r="K37" s="1">
         <v>35</v>
       </c>
-      <c r="L37" s="23" t="s">
+      <c r="L37" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="M37" s="24"/>
-      <c r="N37" s="23" t="s">
+      <c r="M37" s="23"/>
+      <c r="N37" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="O37" s="24"/>
-      <c r="P37" s="18" t="s">
+      <c r="O37" s="23"/>
+      <c r="P37" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="Q37" s="18"/>
-      <c r="R37" s="18"/>
-      <c r="S37" s="18"/>
+      <c r="Q37" s="29"/>
+      <c r="R37" s="29"/>
+      <c r="S37" s="29"/>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A38" s="17"/>
-      <c r="B38" s="17"/>
-      <c r="C38" s="17"/>
-      <c r="D38" s="17"/>
-      <c r="E38" s="17"/>
-      <c r="F38" s="17"/>
-      <c r="G38" s="17"/>
-      <c r="H38" s="17"/>
-      <c r="I38" s="17"/>
+      <c r="A38" s="33"/>
+      <c r="B38" s="33"/>
+      <c r="C38" s="33"/>
+      <c r="D38" s="33"/>
+      <c r="E38" s="33"/>
+      <c r="F38" s="33"/>
+      <c r="G38" s="33"/>
+      <c r="H38" s="33"/>
+      <c r="I38" s="33"/>
       <c r="K38" s="1">
         <v>36</v>
       </c>
-      <c r="L38" s="25"/>
-      <c r="M38" s="26"/>
-      <c r="N38" s="25"/>
-      <c r="O38" s="26"/>
-      <c r="P38" s="18" t="s">
+      <c r="L38" s="30"/>
+      <c r="M38" s="31"/>
+      <c r="N38" s="30"/>
+      <c r="O38" s="31"/>
+      <c r="P38" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="Q38" s="18"/>
-      <c r="R38" s="18"/>
-      <c r="S38" s="18"/>
+      <c r="Q38" s="29"/>
+      <c r="R38" s="29"/>
+      <c r="S38" s="29"/>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A39" s="17"/>
-      <c r="B39" s="17"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="17"/>
-      <c r="F39" s="17"/>
-      <c r="G39" s="17"/>
-      <c r="H39" s="17"/>
-      <c r="I39" s="17"/>
+      <c r="A39" s="33"/>
+      <c r="B39" s="33"/>
+      <c r="C39" s="33"/>
+      <c r="D39" s="33"/>
+      <c r="E39" s="33"/>
+      <c r="F39" s="33"/>
+      <c r="G39" s="33"/>
+      <c r="H39" s="33"/>
+      <c r="I39" s="33"/>
       <c r="K39" s="1">
         <v>37</v>
       </c>
-      <c r="L39" s="25"/>
-      <c r="M39" s="26"/>
-      <c r="N39" s="25"/>
-      <c r="O39" s="26"/>
-      <c r="P39" s="18" t="s">
+      <c r="L39" s="30"/>
+      <c r="M39" s="31"/>
+      <c r="N39" s="30"/>
+      <c r="O39" s="31"/>
+      <c r="P39" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="Q39" s="18"/>
-      <c r="R39" s="18"/>
-      <c r="S39" s="18"/>
+      <c r="Q39" s="29"/>
+      <c r="R39" s="29"/>
+      <c r="S39" s="29"/>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A40" s="17"/>
-      <c r="B40" s="17"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="17"/>
-      <c r="F40" s="17"/>
-      <c r="G40" s="17"/>
-      <c r="H40" s="17"/>
-      <c r="I40" s="17"/>
+      <c r="A40" s="33"/>
+      <c r="B40" s="33"/>
+      <c r="C40" s="33"/>
+      <c r="D40" s="33"/>
+      <c r="E40" s="33"/>
+      <c r="F40" s="33"/>
+      <c r="G40" s="33"/>
+      <c r="H40" s="33"/>
+      <c r="I40" s="33"/>
       <c r="K40" s="1">
         <v>38</v>
       </c>
-      <c r="L40" s="25"/>
-      <c r="M40" s="26"/>
-      <c r="N40" s="25"/>
-      <c r="O40" s="26"/>
-      <c r="P40" s="19" t="s">
+      <c r="L40" s="30"/>
+      <c r="M40" s="31"/>
+      <c r="N40" s="30"/>
+      <c r="O40" s="31"/>
+      <c r="P40" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="Q40" s="20"/>
-      <c r="R40" s="20"/>
-      <c r="S40" s="21"/>
+      <c r="Q40" s="27"/>
+      <c r="R40" s="27"/>
+      <c r="S40" s="28"/>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A41" s="17"/>
-      <c r="B41" s="17"/>
-      <c r="C41" s="17"/>
-      <c r="D41" s="17"/>
-      <c r="E41" s="17"/>
-      <c r="F41" s="17"/>
-      <c r="G41" s="17"/>
-      <c r="H41" s="17"/>
-      <c r="I41" s="17"/>
+      <c r="A41" s="33"/>
+      <c r="B41" s="33"/>
+      <c r="C41" s="33"/>
+      <c r="D41" s="33"/>
+      <c r="E41" s="33"/>
+      <c r="F41" s="33"/>
+      <c r="G41" s="33"/>
+      <c r="H41" s="33"/>
+      <c r="I41" s="33"/>
       <c r="K41" s="1">
         <v>39</v>
       </c>
-      <c r="L41" s="25"/>
-      <c r="M41" s="26"/>
-      <c r="N41" s="25"/>
-      <c r="O41" s="26"/>
-      <c r="P41" s="19" t="s">
+      <c r="L41" s="30"/>
+      <c r="M41" s="31"/>
+      <c r="N41" s="30"/>
+      <c r="O41" s="31"/>
+      <c r="P41" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="Q41" s="20"/>
-      <c r="R41" s="20"/>
-      <c r="S41" s="21"/>
+      <c r="Q41" s="27"/>
+      <c r="R41" s="27"/>
+      <c r="S41" s="28"/>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A42" s="17"/>
-      <c r="B42" s="17"/>
-      <c r="C42" s="17"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="17"/>
-      <c r="G42" s="17"/>
-      <c r="H42" s="17"/>
-      <c r="I42" s="17"/>
+      <c r="A42" s="33"/>
+      <c r="B42" s="33"/>
+      <c r="C42" s="33"/>
+      <c r="D42" s="33"/>
+      <c r="E42" s="33"/>
+      <c r="F42" s="33"/>
+      <c r="G42" s="33"/>
+      <c r="H42" s="33"/>
+      <c r="I42" s="33"/>
       <c r="K42" s="1">
         <v>40</v>
       </c>
-      <c r="L42" s="25"/>
-      <c r="M42" s="26"/>
-      <c r="N42" s="27"/>
-      <c r="O42" s="28"/>
+      <c r="L42" s="30"/>
+      <c r="M42" s="31"/>
+      <c r="N42" s="24"/>
+      <c r="O42" s="25"/>
       <c r="P42" s="2" t="s">
         <v>16</v>
       </c>
@@ -1916,628 +1954,627 @@
       <c r="S42" s="2"/>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A43" s="17"/>
-      <c r="B43" s="17"/>
-      <c r="C43" s="17"/>
-      <c r="D43" s="17"/>
-      <c r="E43" s="17"/>
-      <c r="F43" s="17"/>
-      <c r="G43" s="17"/>
-      <c r="H43" s="17"/>
-      <c r="I43" s="17"/>
+      <c r="A43" s="33"/>
+      <c r="B43" s="33"/>
+      <c r="C43" s="33"/>
+      <c r="D43" s="33"/>
+      <c r="E43" s="33"/>
+      <c r="F43" s="33"/>
+      <c r="G43" s="33"/>
+      <c r="H43" s="33"/>
+      <c r="I43" s="33"/>
       <c r="K43" s="1">
         <v>41</v>
       </c>
-      <c r="L43" s="25"/>
-      <c r="M43" s="26"/>
-      <c r="N43" s="23" t="s">
+      <c r="L43" s="30"/>
+      <c r="M43" s="31"/>
+      <c r="N43" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="O43" s="24"/>
-      <c r="P43" s="18" t="s">
+      <c r="O43" s="23"/>
+      <c r="P43" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="Q43" s="18"/>
-      <c r="R43" s="18"/>
-      <c r="S43" s="18"/>
+      <c r="Q43" s="29"/>
+      <c r="R43" s="29"/>
+      <c r="S43" s="29"/>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A44" s="17"/>
-      <c r="B44" s="17"/>
-      <c r="C44" s="17"/>
-      <c r="D44" s="17"/>
-      <c r="E44" s="17"/>
-      <c r="F44" s="17"/>
-      <c r="G44" s="17"/>
-      <c r="H44" s="17"/>
-      <c r="I44" s="17"/>
+      <c r="A44" s="33"/>
+      <c r="B44" s="33"/>
+      <c r="C44" s="33"/>
+      <c r="D44" s="33"/>
+      <c r="E44" s="33"/>
+      <c r="F44" s="33"/>
+      <c r="G44" s="33"/>
+      <c r="H44" s="33"/>
+      <c r="I44" s="33"/>
       <c r="K44" s="1">
         <v>42</v>
       </c>
-      <c r="L44" s="25"/>
-      <c r="M44" s="26"/>
-      <c r="N44" s="25"/>
-      <c r="O44" s="26"/>
-      <c r="P44" s="18" t="s">
+      <c r="L44" s="30"/>
+      <c r="M44" s="31"/>
+      <c r="N44" s="30"/>
+      <c r="O44" s="31"/>
+      <c r="P44" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="Q44" s="18"/>
-      <c r="R44" s="18"/>
-      <c r="S44" s="18"/>
+      <c r="Q44" s="29"/>
+      <c r="R44" s="29"/>
+      <c r="S44" s="29"/>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A45" s="17"/>
-      <c r="B45" s="17"/>
-      <c r="C45" s="17"/>
-      <c r="D45" s="17"/>
-      <c r="E45" s="17"/>
-      <c r="F45" s="17"/>
-      <c r="G45" s="17"/>
-      <c r="H45" s="17"/>
-      <c r="I45" s="17"/>
+      <c r="A45" s="33"/>
+      <c r="B45" s="33"/>
+      <c r="C45" s="33"/>
+      <c r="D45" s="33"/>
+      <c r="E45" s="33"/>
+      <c r="F45" s="33"/>
+      <c r="G45" s="33"/>
+      <c r="H45" s="33"/>
+      <c r="I45" s="33"/>
       <c r="K45" s="1">
         <v>43</v>
       </c>
-      <c r="L45" s="25"/>
-      <c r="M45" s="26"/>
-      <c r="N45" s="25"/>
-      <c r="O45" s="26"/>
-      <c r="P45" s="18" t="s">
+      <c r="L45" s="30"/>
+      <c r="M45" s="31"/>
+      <c r="N45" s="30"/>
+      <c r="O45" s="31"/>
+      <c r="P45" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="Q45" s="18"/>
-      <c r="R45" s="18"/>
-      <c r="S45" s="18"/>
+      <c r="Q45" s="29"/>
+      <c r="R45" s="29"/>
+      <c r="S45" s="29"/>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A46" s="17"/>
-      <c r="B46" s="17"/>
-      <c r="C46" s="17"/>
-      <c r="D46" s="17"/>
-      <c r="E46" s="17"/>
-      <c r="F46" s="17"/>
-      <c r="G46" s="17"/>
-      <c r="H46" s="17"/>
-      <c r="I46" s="17"/>
+      <c r="A46" s="33"/>
+      <c r="B46" s="33"/>
+      <c r="C46" s="33"/>
+      <c r="D46" s="33"/>
+      <c r="E46" s="33"/>
+      <c r="F46" s="33"/>
+      <c r="G46" s="33"/>
+      <c r="H46" s="33"/>
+      <c r="I46" s="33"/>
       <c r="K46" s="1">
         <v>44</v>
       </c>
-      <c r="L46" s="25"/>
-      <c r="M46" s="26"/>
-      <c r="N46" s="25"/>
-      <c r="O46" s="26"/>
-      <c r="P46" s="18" t="s">
+      <c r="L46" s="30"/>
+      <c r="M46" s="31"/>
+      <c r="N46" s="30"/>
+      <c r="O46" s="31"/>
+      <c r="P46" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="Q46" s="18"/>
-      <c r="R46" s="18"/>
-      <c r="S46" s="18"/>
+      <c r="Q46" s="29"/>
+      <c r="R46" s="29"/>
+      <c r="S46" s="29"/>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A47" s="17"/>
-      <c r="B47" s="17"/>
-      <c r="C47" s="17"/>
-      <c r="D47" s="17"/>
-      <c r="E47" s="17"/>
-      <c r="F47" s="17"/>
-      <c r="G47" s="17"/>
-      <c r="H47" s="17"/>
-      <c r="I47" s="17"/>
+      <c r="A47" s="33"/>
+      <c r="B47" s="33"/>
+      <c r="C47" s="33"/>
+      <c r="D47" s="33"/>
+      <c r="E47" s="33"/>
+      <c r="F47" s="33"/>
+      <c r="G47" s="33"/>
+      <c r="H47" s="33"/>
+      <c r="I47" s="33"/>
       <c r="K47" s="1">
         <v>45</v>
       </c>
-      <c r="L47" s="25"/>
-      <c r="M47" s="26"/>
-      <c r="N47" s="27"/>
-      <c r="O47" s="28"/>
-      <c r="P47" s="19" t="s">
+      <c r="L47" s="30"/>
+      <c r="M47" s="31"/>
+      <c r="N47" s="24"/>
+      <c r="O47" s="25"/>
+      <c r="P47" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="Q47" s="20"/>
-      <c r="R47" s="20"/>
-      <c r="S47" s="21"/>
+      <c r="Q47" s="27"/>
+      <c r="R47" s="27"/>
+      <c r="S47" s="28"/>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A48" s="17"/>
-      <c r="B48" s="17"/>
-      <c r="C48" s="17"/>
-      <c r="D48" s="17"/>
-      <c r="E48" s="17"/>
-      <c r="F48" s="17"/>
-      <c r="G48" s="17"/>
-      <c r="H48" s="17"/>
-      <c r="I48" s="17"/>
+      <c r="A48" s="33"/>
+      <c r="B48" s="33"/>
+      <c r="C48" s="33"/>
+      <c r="D48" s="33"/>
+      <c r="E48" s="33"/>
+      <c r="F48" s="33"/>
+      <c r="G48" s="33"/>
+      <c r="H48" s="33"/>
+      <c r="I48" s="33"/>
       <c r="K48" s="1">
         <v>46</v>
       </c>
-      <c r="L48" s="25"/>
-      <c r="M48" s="26"/>
-      <c r="N48" s="23" t="s">
+      <c r="L48" s="30"/>
+      <c r="M48" s="31"/>
+      <c r="N48" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="O48" s="24"/>
-      <c r="P48" s="18" t="s">
+      <c r="O48" s="23"/>
+      <c r="P48" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="Q48" s="18"/>
-      <c r="R48" s="18"/>
-      <c r="S48" s="18"/>
+      <c r="Q48" s="29"/>
+      <c r="R48" s="29"/>
+      <c r="S48" s="29"/>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A49" s="17"/>
-      <c r="B49" s="17"/>
-      <c r="C49" s="17"/>
-      <c r="D49" s="17"/>
-      <c r="E49" s="17"/>
-      <c r="F49" s="17"/>
-      <c r="G49" s="17"/>
-      <c r="H49" s="17"/>
-      <c r="I49" s="17"/>
+      <c r="A49" s="33"/>
+      <c r="B49" s="33"/>
+      <c r="C49" s="33"/>
+      <c r="D49" s="33"/>
+      <c r="E49" s="33"/>
+      <c r="F49" s="33"/>
+      <c r="G49" s="33"/>
+      <c r="H49" s="33"/>
+      <c r="I49" s="33"/>
       <c r="K49" s="1">
         <v>47</v>
       </c>
-      <c r="L49" s="25"/>
-      <c r="M49" s="26"/>
-      <c r="N49" s="25"/>
-      <c r="O49" s="26"/>
-      <c r="P49" s="18" t="s">
+      <c r="L49" s="30"/>
+      <c r="M49" s="31"/>
+      <c r="N49" s="30"/>
+      <c r="O49" s="31"/>
+      <c r="P49" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="Q49" s="18"/>
-      <c r="R49" s="18"/>
-      <c r="S49" s="18"/>
+      <c r="Q49" s="29"/>
+      <c r="R49" s="29"/>
+      <c r="S49" s="29"/>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A50" s="17"/>
-      <c r="B50" s="17"/>
-      <c r="C50" s="17"/>
-      <c r="D50" s="17"/>
-      <c r="E50" s="17"/>
-      <c r="F50" s="17"/>
-      <c r="G50" s="17"/>
-      <c r="H50" s="17"/>
-      <c r="I50" s="17"/>
+      <c r="A50" s="33"/>
+      <c r="B50" s="33"/>
+      <c r="C50" s="33"/>
+      <c r="D50" s="33"/>
+      <c r="E50" s="33"/>
+      <c r="F50" s="33"/>
+      <c r="G50" s="33"/>
+      <c r="H50" s="33"/>
+      <c r="I50" s="33"/>
       <c r="K50" s="1">
         <v>48</v>
       </c>
-      <c r="L50" s="25"/>
-      <c r="M50" s="26"/>
-      <c r="N50" s="27"/>
-      <c r="O50" s="28"/>
-      <c r="P50" s="18" t="s">
+      <c r="L50" s="30"/>
+      <c r="M50" s="31"/>
+      <c r="N50" s="24"/>
+      <c r="O50" s="25"/>
+      <c r="P50" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="Q50" s="18"/>
-      <c r="R50" s="18"/>
-      <c r="S50" s="18"/>
+      <c r="Q50" s="29"/>
+      <c r="R50" s="29"/>
+      <c r="S50" s="29"/>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A51" s="17"/>
-      <c r="B51" s="17"/>
-      <c r="C51" s="17"/>
-      <c r="D51" s="17"/>
-      <c r="E51" s="17"/>
-      <c r="F51" s="17"/>
-      <c r="G51" s="17"/>
-      <c r="H51" s="17"/>
-      <c r="I51" s="17"/>
+      <c r="A51" s="33"/>
+      <c r="B51" s="33"/>
+      <c r="C51" s="33"/>
+      <c r="D51" s="33"/>
+      <c r="E51" s="33"/>
+      <c r="F51" s="33"/>
+      <c r="G51" s="33"/>
+      <c r="H51" s="33"/>
+      <c r="I51" s="33"/>
       <c r="K51" s="1">
         <v>49</v>
       </c>
-      <c r="L51" s="25"/>
-      <c r="M51" s="26"/>
+      <c r="L51" s="30"/>
+      <c r="M51" s="31"/>
       <c r="N51" s="3" t="s">
         <v>45</v>
       </c>
       <c r="O51" s="2"/>
-      <c r="P51" s="19" t="s">
+      <c r="P51" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="Q51" s="20"/>
-      <c r="R51" s="20"/>
-      <c r="S51" s="21"/>
+      <c r="Q51" s="27"/>
+      <c r="R51" s="27"/>
+      <c r="S51" s="28"/>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A52" s="17"/>
-      <c r="B52" s="17"/>
-      <c r="C52" s="17"/>
-      <c r="D52" s="17"/>
-      <c r="E52" s="17"/>
-      <c r="F52" s="17"/>
-      <c r="G52" s="17"/>
-      <c r="H52" s="17"/>
-      <c r="I52" s="17"/>
+      <c r="A52" s="33"/>
+      <c r="B52" s="33"/>
+      <c r="C52" s="33"/>
+      <c r="D52" s="33"/>
+      <c r="E52" s="33"/>
+      <c r="F52" s="33"/>
+      <c r="G52" s="33"/>
+      <c r="H52" s="33"/>
+      <c r="I52" s="33"/>
       <c r="K52" s="1">
         <v>50</v>
       </c>
-      <c r="L52" s="25"/>
-      <c r="M52" s="26"/>
+      <c r="L52" s="30"/>
+      <c r="M52" s="31"/>
       <c r="N52" s="3" t="s">
         <v>46</v>
       </c>
       <c r="O52" s="3"/>
-      <c r="P52" s="19" t="s">
+      <c r="P52" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="Q52" s="20"/>
-      <c r="R52" s="20"/>
-      <c r="S52" s="21"/>
+      <c r="Q52" s="27"/>
+      <c r="R52" s="27"/>
+      <c r="S52" s="28"/>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A53" s="17"/>
-      <c r="B53" s="17"/>
-      <c r="C53" s="17"/>
-      <c r="D53" s="17"/>
-      <c r="E53" s="17"/>
-      <c r="F53" s="17"/>
-      <c r="G53" s="17"/>
-      <c r="H53" s="17"/>
-      <c r="I53" s="17"/>
+      <c r="A53" s="33"/>
+      <c r="B53" s="33"/>
+      <c r="C53" s="33"/>
+      <c r="D53" s="33"/>
+      <c r="E53" s="33"/>
+      <c r="F53" s="33"/>
+      <c r="G53" s="33"/>
+      <c r="H53" s="33"/>
+      <c r="I53" s="33"/>
       <c r="K53" s="1">
         <v>51</v>
       </c>
-      <c r="L53" s="25"/>
-      <c r="M53" s="26"/>
+      <c r="L53" s="30"/>
+      <c r="M53" s="31"/>
       <c r="N53" s="3" t="s">
         <v>47</v>
       </c>
       <c r="O53" s="3"/>
-      <c r="P53" s="19" t="s">
+      <c r="P53" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="Q53" s="20"/>
-      <c r="R53" s="20"/>
-      <c r="S53" s="21"/>
+      <c r="Q53" s="27"/>
+      <c r="R53" s="27"/>
+      <c r="S53" s="28"/>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A54" s="17"/>
-      <c r="B54" s="17"/>
-      <c r="C54" s="17"/>
-      <c r="D54" s="17"/>
-      <c r="E54" s="17"/>
-      <c r="F54" s="17"/>
-      <c r="G54" s="17"/>
-      <c r="H54" s="17"/>
-      <c r="I54" s="17"/>
+      <c r="A54" s="33"/>
+      <c r="B54" s="33"/>
+      <c r="C54" s="33"/>
+      <c r="D54" s="33"/>
+      <c r="E54" s="33"/>
+      <c r="F54" s="33"/>
+      <c r="G54" s="33"/>
+      <c r="H54" s="33"/>
+      <c r="I54" s="33"/>
       <c r="K54" s="1">
         <v>52</v>
       </c>
-      <c r="L54" s="25"/>
-      <c r="M54" s="26"/>
-      <c r="N54" s="23" t="s">
+      <c r="L54" s="30"/>
+      <c r="M54" s="31"/>
+      <c r="N54" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="O54" s="24"/>
-      <c r="P54" s="18" t="s">
+      <c r="O54" s="23"/>
+      <c r="P54" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="Q54" s="18"/>
-      <c r="R54" s="18"/>
-      <c r="S54" s="18"/>
+      <c r="Q54" s="29"/>
+      <c r="R54" s="29"/>
+      <c r="S54" s="29"/>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A55" s="17"/>
-      <c r="B55" s="17"/>
-      <c r="C55" s="17"/>
-      <c r="D55" s="17"/>
-      <c r="E55" s="17"/>
-      <c r="F55" s="17"/>
-      <c r="G55" s="17"/>
-      <c r="H55" s="17"/>
-      <c r="I55" s="17"/>
+      <c r="A55" s="33"/>
+      <c r="B55" s="33"/>
+      <c r="C55" s="33"/>
+      <c r="D55" s="33"/>
+      <c r="E55" s="33"/>
+      <c r="F55" s="33"/>
+      <c r="G55" s="33"/>
+      <c r="H55" s="33"/>
+      <c r="I55" s="33"/>
       <c r="K55" s="1">
         <v>53</v>
       </c>
-      <c r="L55" s="25"/>
-      <c r="M55" s="26"/>
-      <c r="N55" s="25"/>
-      <c r="O55" s="26"/>
-      <c r="P55" s="18" t="s">
+      <c r="L55" s="30"/>
+      <c r="M55" s="31"/>
+      <c r="N55" s="30"/>
+      <c r="O55" s="31"/>
+      <c r="P55" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="Q55" s="18"/>
-      <c r="R55" s="18"/>
-      <c r="S55" s="18"/>
+      <c r="Q55" s="29"/>
+      <c r="R55" s="29"/>
+      <c r="S55" s="29"/>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A56" s="17"/>
-      <c r="B56" s="17"/>
-      <c r="C56" s="17"/>
-      <c r="D56" s="17"/>
-      <c r="E56" s="17"/>
-      <c r="F56" s="17"/>
-      <c r="G56" s="17"/>
-      <c r="H56" s="17"/>
-      <c r="I56" s="17"/>
+      <c r="A56" s="33"/>
+      <c r="B56" s="33"/>
+      <c r="C56" s="33"/>
+      <c r="D56" s="33"/>
+      <c r="E56" s="33"/>
+      <c r="F56" s="33"/>
+      <c r="G56" s="33"/>
+      <c r="H56" s="33"/>
+      <c r="I56" s="33"/>
       <c r="K56" s="1">
         <v>54</v>
       </c>
-      <c r="L56" s="25"/>
-      <c r="M56" s="26"/>
-      <c r="N56" s="25"/>
-      <c r="O56" s="26"/>
-      <c r="P56" s="19" t="s">
+      <c r="L56" s="30"/>
+      <c r="M56" s="31"/>
+      <c r="N56" s="30"/>
+      <c r="O56" s="31"/>
+      <c r="P56" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="Q56" s="20"/>
-      <c r="R56" s="20"/>
-      <c r="S56" s="21"/>
+      <c r="Q56" s="27"/>
+      <c r="R56" s="27"/>
+      <c r="S56" s="28"/>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A57" s="17"/>
-      <c r="B57" s="17"/>
-      <c r="C57" s="17"/>
-      <c r="D57" s="17"/>
-      <c r="E57" s="17"/>
-      <c r="F57" s="17"/>
-      <c r="G57" s="17"/>
-      <c r="H57" s="17"/>
-      <c r="I57" s="17"/>
+      <c r="A57" s="33"/>
+      <c r="B57" s="33"/>
+      <c r="C57" s="33"/>
+      <c r="D57" s="33"/>
+      <c r="E57" s="33"/>
+      <c r="F57" s="33"/>
+      <c r="G57" s="33"/>
+      <c r="H57" s="33"/>
+      <c r="I57" s="33"/>
       <c r="K57" s="1">
         <v>55</v>
       </c>
-      <c r="L57" s="25"/>
-      <c r="M57" s="26"/>
-      <c r="N57" s="27"/>
-      <c r="O57" s="28"/>
-      <c r="P57" s="18" t="s">
+      <c r="L57" s="30"/>
+      <c r="M57" s="31"/>
+      <c r="N57" s="24"/>
+      <c r="O57" s="25"/>
+      <c r="P57" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="Q57" s="18"/>
-      <c r="R57" s="18"/>
-      <c r="S57" s="18"/>
+      <c r="Q57" s="29"/>
+      <c r="R57" s="29"/>
+      <c r="S57" s="29"/>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A58" s="17"/>
-      <c r="B58" s="17"/>
-      <c r="C58" s="17"/>
-      <c r="D58" s="17"/>
-      <c r="E58" s="17"/>
-      <c r="F58" s="17"/>
-      <c r="G58" s="17"/>
-      <c r="H58" s="17"/>
-      <c r="I58" s="17"/>
+      <c r="A58" s="33"/>
+      <c r="B58" s="33"/>
+      <c r="C58" s="33"/>
+      <c r="D58" s="33"/>
+      <c r="E58" s="33"/>
+      <c r="F58" s="33"/>
+      <c r="G58" s="33"/>
+      <c r="H58" s="33"/>
+      <c r="I58" s="33"/>
       <c r="K58" s="1">
         <v>56</v>
       </c>
-      <c r="L58" s="25"/>
-      <c r="M58" s="26"/>
-      <c r="N58" s="23" t="s">
+      <c r="L58" s="30"/>
+      <c r="M58" s="31"/>
+      <c r="N58" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="O58" s="24"/>
-      <c r="P58" s="18" t="s">
+      <c r="O58" s="23"/>
+      <c r="P58" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="Q58" s="18"/>
-      <c r="R58" s="18"/>
-      <c r="S58" s="18"/>
+      <c r="Q58" s="29"/>
+      <c r="R58" s="29"/>
+      <c r="S58" s="29"/>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A59" s="17"/>
-      <c r="B59" s="17"/>
-      <c r="C59" s="17"/>
-      <c r="D59" s="17"/>
-      <c r="E59" s="17"/>
-      <c r="F59" s="17"/>
-      <c r="G59" s="17"/>
-      <c r="H59" s="17"/>
-      <c r="I59" s="17"/>
+      <c r="A59" s="33"/>
+      <c r="B59" s="33"/>
+      <c r="C59" s="33"/>
+      <c r="D59" s="33"/>
+      <c r="E59" s="33"/>
+      <c r="F59" s="33"/>
+      <c r="G59" s="33"/>
+      <c r="H59" s="33"/>
+      <c r="I59" s="33"/>
       <c r="K59" s="1">
         <v>57</v>
       </c>
-      <c r="L59" s="25"/>
-      <c r="M59" s="26"/>
-      <c r="N59" s="25"/>
-      <c r="O59" s="26"/>
+      <c r="L59" s="30"/>
+      <c r="M59" s="31"/>
+      <c r="N59" s="30"/>
+      <c r="O59" s="31"/>
       <c r="P59" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="Q59" s="19"/>
-      <c r="R59" s="20"/>
-      <c r="S59" s="21"/>
+      <c r="Q59" s="26"/>
+      <c r="R59" s="27"/>
+      <c r="S59" s="28"/>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A60" s="17"/>
-      <c r="B60" s="17"/>
-      <c r="C60" s="17"/>
-      <c r="D60" s="17"/>
-      <c r="E60" s="17"/>
-      <c r="F60" s="17"/>
-      <c r="G60" s="17"/>
-      <c r="H60" s="17"/>
-      <c r="I60" s="17"/>
+      <c r="A60" s="33"/>
+      <c r="B60" s="33"/>
+      <c r="C60" s="33"/>
+      <c r="D60" s="33"/>
+      <c r="E60" s="33"/>
+      <c r="F60" s="33"/>
+      <c r="G60" s="33"/>
+      <c r="H60" s="33"/>
+      <c r="I60" s="33"/>
       <c r="K60" s="1">
         <v>58</v>
       </c>
-      <c r="L60" s="27"/>
-      <c r="M60" s="28"/>
-      <c r="N60" s="27"/>
-      <c r="O60" s="28"/>
-      <c r="P60" s="19" t="s">
+      <c r="L60" s="24"/>
+      <c r="M60" s="25"/>
+      <c r="N60" s="24"/>
+      <c r="O60" s="25"/>
+      <c r="P60" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="Q60" s="20"/>
-      <c r="R60" s="20"/>
-      <c r="S60" s="21"/>
+      <c r="Q60" s="27"/>
+      <c r="R60" s="27"/>
+      <c r="S60" s="28"/>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A61" s="17"/>
-      <c r="B61" s="17"/>
-      <c r="C61" s="17"/>
-      <c r="D61" s="17"/>
-      <c r="E61" s="17"/>
-      <c r="F61" s="17"/>
-      <c r="G61" s="17"/>
-      <c r="H61" s="17"/>
-      <c r="I61" s="17"/>
+      <c r="A61" s="33"/>
+      <c r="B61" s="33"/>
+      <c r="C61" s="33"/>
+      <c r="D61" s="33"/>
+      <c r="E61" s="33"/>
+      <c r="F61" s="33"/>
+      <c r="G61" s="33"/>
+      <c r="H61" s="33"/>
+      <c r="I61" s="33"/>
       <c r="J61" s="4"/>
       <c r="K61" s="1">
         <v>59</v>
       </c>
-      <c r="L61" s="23" t="s">
+      <c r="L61" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="M61" s="24"/>
+      <c r="M61" s="23"/>
       <c r="N61" s="3" t="s">
         <v>29</v>
       </c>
       <c r="O61" s="2"/>
-      <c r="P61" s="18" t="s">
+      <c r="P61" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="Q61" s="18"/>
-      <c r="R61" s="18"/>
-      <c r="S61" s="18"/>
+      <c r="Q61" s="29"/>
+      <c r="R61" s="29"/>
+      <c r="S61" s="29"/>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A62" s="17"/>
-      <c r="B62" s="17"/>
-      <c r="C62" s="17"/>
-      <c r="D62" s="17"/>
-      <c r="E62" s="17"/>
-      <c r="F62" s="17"/>
-      <c r="G62" s="17"/>
-      <c r="H62" s="17"/>
-      <c r="I62" s="17"/>
+      <c r="A62" s="33"/>
+      <c r="B62" s="33"/>
+      <c r="C62" s="33"/>
+      <c r="D62" s="33"/>
+      <c r="E62" s="33"/>
+      <c r="F62" s="33"/>
+      <c r="G62" s="33"/>
+      <c r="H62" s="33"/>
+      <c r="I62" s="33"/>
       <c r="K62" s="1">
         <v>60</v>
       </c>
-      <c r="L62" s="25"/>
-      <c r="M62" s="26"/>
-      <c r="N62" s="22" t="s">
+      <c r="L62" s="30"/>
+      <c r="M62" s="31"/>
+      <c r="N62" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="O62" s="22"/>
-      <c r="P62" s="19" t="s">
+      <c r="O62" s="32"/>
+      <c r="P62" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="Q62" s="20"/>
-      <c r="R62" s="20"/>
-      <c r="S62" s="21"/>
+      <c r="Q62" s="27"/>
+      <c r="R62" s="27"/>
+      <c r="S62" s="28"/>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A63" s="17"/>
-      <c r="B63" s="17"/>
-      <c r="C63" s="17"/>
-      <c r="D63" s="17"/>
-      <c r="E63" s="17"/>
-      <c r="F63" s="17"/>
-      <c r="G63" s="17"/>
-      <c r="H63" s="17"/>
-      <c r="I63" s="17"/>
+      <c r="A63" s="33"/>
+      <c r="B63" s="33"/>
+      <c r="C63" s="33"/>
+      <c r="D63" s="33"/>
+      <c r="E63" s="33"/>
+      <c r="F63" s="33"/>
+      <c r="G63" s="33"/>
+      <c r="H63" s="33"/>
+      <c r="I63" s="33"/>
       <c r="K63" s="1">
         <v>61</v>
       </c>
-      <c r="L63" s="25"/>
-      <c r="M63" s="26"/>
-      <c r="N63" s="22"/>
-      <c r="O63" s="22"/>
-      <c r="P63" s="19" t="s">
+      <c r="L63" s="30"/>
+      <c r="M63" s="31"/>
+      <c r="N63" s="32"/>
+      <c r="O63" s="32"/>
+      <c r="P63" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="Q63" s="20"/>
-      <c r="R63" s="20"/>
-      <c r="S63" s="21"/>
+      <c r="Q63" s="27"/>
+      <c r="R63" s="27"/>
+      <c r="S63" s="28"/>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A64" s="17"/>
-      <c r="B64" s="17"/>
-      <c r="C64" s="17"/>
-      <c r="D64" s="17"/>
-      <c r="E64" s="17"/>
-      <c r="F64" s="17"/>
-      <c r="G64" s="17"/>
-      <c r="H64" s="17"/>
-      <c r="I64" s="17"/>
+      <c r="A64" s="33"/>
+      <c r="B64" s="33"/>
+      <c r="C64" s="33"/>
+      <c r="D64" s="33"/>
+      <c r="E64" s="33"/>
+      <c r="F64" s="33"/>
+      <c r="G64" s="33"/>
+      <c r="H64" s="33"/>
+      <c r="I64" s="33"/>
       <c r="K64" s="1">
         <v>62</v>
       </c>
-      <c r="L64" s="25"/>
-      <c r="M64" s="26"/>
+      <c r="L64" s="30"/>
+      <c r="M64" s="31"/>
       <c r="N64" s="3" t="s">
         <v>15</v>
       </c>
       <c r="O64" s="2"/>
-      <c r="P64" s="18" t="s">
+      <c r="P64" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="Q64" s="18"/>
-      <c r="R64" s="18"/>
-      <c r="S64" s="18"/>
+      <c r="Q64" s="29"/>
+      <c r="R64" s="29"/>
+      <c r="S64" s="29"/>
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A65" s="17"/>
-      <c r="B65" s="17"/>
-      <c r="C65" s="17"/>
-      <c r="D65" s="17"/>
-      <c r="E65" s="17"/>
-      <c r="F65" s="17"/>
-      <c r="G65" s="17"/>
-      <c r="H65" s="17"/>
-      <c r="I65" s="17"/>
+      <c r="A65" s="33"/>
+      <c r="B65" s="33"/>
+      <c r="C65" s="33"/>
+      <c r="D65" s="33"/>
+      <c r="E65" s="33"/>
+      <c r="F65" s="33"/>
+      <c r="G65" s="33"/>
+      <c r="H65" s="33"/>
+      <c r="I65" s="33"/>
       <c r="K65" s="1">
         <v>63</v>
       </c>
-      <c r="L65" s="27"/>
-      <c r="M65" s="28"/>
+      <c r="L65" s="24"/>
+      <c r="M65" s="25"/>
       <c r="N65" s="3" t="s">
         <v>30</v>
       </c>
       <c r="O65" s="2"/>
-      <c r="P65" s="18" t="s">
+      <c r="P65" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="Q65" s="18"/>
-      <c r="R65" s="18"/>
-      <c r="S65" s="18"/>
+      <c r="Q65" s="29"/>
+      <c r="R65" s="29"/>
+      <c r="S65" s="29"/>
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A66" s="17"/>
-      <c r="B66" s="17"/>
-      <c r="C66" s="17"/>
-      <c r="D66" s="17"/>
-      <c r="E66" s="17"/>
-      <c r="F66" s="17"/>
-      <c r="G66" s="17"/>
-      <c r="H66" s="17"/>
-      <c r="I66" s="17"/>
+      <c r="A66" s="33"/>
+      <c r="B66" s="33"/>
+      <c r="C66" s="33"/>
+      <c r="D66" s="33"/>
+      <c r="E66" s="33"/>
+      <c r="F66" s="33"/>
+      <c r="G66" s="33"/>
+      <c r="H66" s="33"/>
+      <c r="I66" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="81">
-    <mergeCell ref="N30:O31"/>
-    <mergeCell ref="P30:S30"/>
-    <mergeCell ref="P31:S31"/>
-    <mergeCell ref="P36:S36"/>
-    <mergeCell ref="P41:S41"/>
-    <mergeCell ref="P38:S38"/>
-    <mergeCell ref="P39:S39"/>
-    <mergeCell ref="P32:S32"/>
-    <mergeCell ref="P35:S35"/>
-    <mergeCell ref="P34:S34"/>
-    <mergeCell ref="P63:S63"/>
-    <mergeCell ref="P62:S62"/>
-    <mergeCell ref="P60:S60"/>
-    <mergeCell ref="Q59:S59"/>
-    <mergeCell ref="P56:S56"/>
-    <mergeCell ref="P61:S61"/>
-    <mergeCell ref="P53:S53"/>
-    <mergeCell ref="P52:S52"/>
-    <mergeCell ref="P51:S51"/>
-    <mergeCell ref="P47:S47"/>
-    <mergeCell ref="P40:S40"/>
-    <mergeCell ref="P45:S45"/>
-    <mergeCell ref="P46:S46"/>
-    <mergeCell ref="P48:S48"/>
-    <mergeCell ref="P49:S49"/>
-    <mergeCell ref="P50:S50"/>
-    <mergeCell ref="P43:S43"/>
-    <mergeCell ref="P44:S44"/>
-    <mergeCell ref="P20:S20"/>
-    <mergeCell ref="P21:S21"/>
-    <mergeCell ref="P22:S22"/>
-    <mergeCell ref="P27:S27"/>
-    <mergeCell ref="P29:S29"/>
+    <mergeCell ref="A2:I66"/>
+    <mergeCell ref="P25:S25"/>
+    <mergeCell ref="P26:S26"/>
+    <mergeCell ref="P28:S28"/>
+    <mergeCell ref="P33:S33"/>
+    <mergeCell ref="P37:S37"/>
+    <mergeCell ref="P3:S3"/>
+    <mergeCell ref="P4:S4"/>
+    <mergeCell ref="P5:S5"/>
+    <mergeCell ref="P7:S7"/>
+    <mergeCell ref="P8:S8"/>
+    <mergeCell ref="P6:S6"/>
+    <mergeCell ref="P9:S9"/>
+    <mergeCell ref="P13:S13"/>
+    <mergeCell ref="P14:S14"/>
+    <mergeCell ref="P12:S12"/>
+    <mergeCell ref="P10:S10"/>
+    <mergeCell ref="P11:S11"/>
+    <mergeCell ref="N62:O63"/>
+    <mergeCell ref="P64:S64"/>
+    <mergeCell ref="N58:O60"/>
+    <mergeCell ref="P54:S54"/>
+    <mergeCell ref="P55:S55"/>
+    <mergeCell ref="P57:S57"/>
+    <mergeCell ref="P58:S58"/>
+    <mergeCell ref="P23:S23"/>
+    <mergeCell ref="P24:S24"/>
+    <mergeCell ref="P18:S18"/>
+    <mergeCell ref="P19:S19"/>
+    <mergeCell ref="P15:S15"/>
+    <mergeCell ref="P17:S17"/>
+    <mergeCell ref="P16:S16"/>
     <mergeCell ref="P65:S65"/>
     <mergeCell ref="L3:M19"/>
     <mergeCell ref="N3:O8"/>
@@ -2554,38 +2591,39 @@
     <mergeCell ref="N48:O50"/>
     <mergeCell ref="N54:O57"/>
     <mergeCell ref="L61:M65"/>
-    <mergeCell ref="P10:S10"/>
-    <mergeCell ref="P11:S11"/>
-    <mergeCell ref="N62:O63"/>
-    <mergeCell ref="P64:S64"/>
-    <mergeCell ref="N58:O60"/>
-    <mergeCell ref="P54:S54"/>
-    <mergeCell ref="P55:S55"/>
-    <mergeCell ref="P57:S57"/>
-    <mergeCell ref="P58:S58"/>
-    <mergeCell ref="P23:S23"/>
-    <mergeCell ref="P24:S24"/>
-    <mergeCell ref="P18:S18"/>
-    <mergeCell ref="P19:S19"/>
-    <mergeCell ref="P15:S15"/>
-    <mergeCell ref="P17:S17"/>
-    <mergeCell ref="P16:S16"/>
-    <mergeCell ref="A2:I66"/>
-    <mergeCell ref="P25:S25"/>
-    <mergeCell ref="P26:S26"/>
-    <mergeCell ref="P28:S28"/>
-    <mergeCell ref="P33:S33"/>
-    <mergeCell ref="P37:S37"/>
-    <mergeCell ref="P3:S3"/>
-    <mergeCell ref="P4:S4"/>
-    <mergeCell ref="P5:S5"/>
-    <mergeCell ref="P7:S7"/>
-    <mergeCell ref="P8:S8"/>
-    <mergeCell ref="P6:S6"/>
-    <mergeCell ref="P9:S9"/>
-    <mergeCell ref="P13:S13"/>
-    <mergeCell ref="P14:S14"/>
-    <mergeCell ref="P12:S12"/>
+    <mergeCell ref="P20:S20"/>
+    <mergeCell ref="P21:S21"/>
+    <mergeCell ref="P22:S22"/>
+    <mergeCell ref="P27:S27"/>
+    <mergeCell ref="P29:S29"/>
+    <mergeCell ref="P53:S53"/>
+    <mergeCell ref="P52:S52"/>
+    <mergeCell ref="P51:S51"/>
+    <mergeCell ref="P47:S47"/>
+    <mergeCell ref="P40:S40"/>
+    <mergeCell ref="P45:S45"/>
+    <mergeCell ref="P46:S46"/>
+    <mergeCell ref="P48:S48"/>
+    <mergeCell ref="P49:S49"/>
+    <mergeCell ref="P50:S50"/>
+    <mergeCell ref="P43:S43"/>
+    <mergeCell ref="P44:S44"/>
+    <mergeCell ref="P63:S63"/>
+    <mergeCell ref="P62:S62"/>
+    <mergeCell ref="P60:S60"/>
+    <mergeCell ref="Q59:S59"/>
+    <mergeCell ref="P56:S56"/>
+    <mergeCell ref="P61:S61"/>
+    <mergeCell ref="N30:O31"/>
+    <mergeCell ref="P30:S30"/>
+    <mergeCell ref="P31:S31"/>
+    <mergeCell ref="P36:S36"/>
+    <mergeCell ref="P41:S41"/>
+    <mergeCell ref="P38:S38"/>
+    <mergeCell ref="P39:S39"/>
+    <mergeCell ref="P32:S32"/>
+    <mergeCell ref="P35:S35"/>
+    <mergeCell ref="P34:S34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2594,10 +2632,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K72"/>
+  <dimension ref="A1:K73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="L63" sqref="L63"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="M61" sqref="M61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2609,20 +2647,20 @@
       <c r="A1" s="1">
         <v>1</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="23" t="s">
+      <c r="C1" s="23"/>
+      <c r="D1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="24"/>
-      <c r="F1" s="18" t="s">
+      <c r="E1" s="23"/>
+      <c r="F1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
       <c r="J1" s="7">
         <v>1</v>
       </c>
@@ -2634,16 +2672,16 @@
       <c r="A2" s="1">
         <v>2</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="18" t="s">
+      <c r="B2" s="30"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
       <c r="J2" s="7">
         <v>2</v>
       </c>
@@ -2655,16 +2693,16 @@
       <c r="A3" s="1">
         <v>3</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="34" t="s">
+      <c r="B3" s="30"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
       <c r="J3" s="7">
         <v>3</v>
       </c>
@@ -2676,16 +2714,16 @@
       <c r="A4" s="1">
         <v>4</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="19" t="s">
+      <c r="B4" s="30"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="21"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="28"/>
       <c r="J4" s="7">
         <v>4</v>
       </c>
@@ -2697,32 +2735,32 @@
       <c r="A5" s="1">
         <v>5</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="19" t="s">
+      <c r="B5" s="30"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="21"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="28"/>
       <c r="J5" s="7"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>6</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="19" t="s">
+      <c r="B6" s="30"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="21"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="28"/>
       <c r="J6" s="7">
         <v>5</v>
       </c>
@@ -2734,16 +2772,16 @@
       <c r="A7" s="1">
         <v>7</v>
       </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="19" t="s">
+      <c r="B7" s="30"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="21"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="28"/>
       <c r="J7" s="7">
         <v>6</v>
       </c>
@@ -2755,18 +2793,18 @@
       <c r="A8" s="1">
         <v>8</v>
       </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="23" t="s">
+      <c r="B8" s="30"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="24"/>
-      <c r="F8" s="19" t="s">
+      <c r="E8" s="23"/>
+      <c r="F8" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="21"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="28"/>
       <c r="J8" s="7">
         <v>7</v>
       </c>
@@ -2778,16 +2816,16 @@
       <c r="A9" s="1">
         <v>9</v>
       </c>
-      <c r="B9" s="25"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="19" t="s">
+      <c r="B9" s="30"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="21"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="28"/>
       <c r="J9" s="7">
         <v>10</v>
       </c>
@@ -2799,16 +2837,16 @@
       <c r="A10" s="1">
         <v>10</v>
       </c>
-      <c r="B10" s="25"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="19" t="s">
+      <c r="B10" s="30"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="21"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="28"/>
       <c r="J10" s="7">
         <v>9</v>
       </c>
@@ -2817,16 +2855,16 @@
       <c r="A11" s="1">
         <v>11</v>
       </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="19" t="s">
+      <c r="B11" s="30"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="21"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="28"/>
       <c r="J11" s="7">
         <v>8</v>
       </c>
@@ -2835,18 +2873,18 @@
       <c r="A12" s="1">
         <v>12</v>
       </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="23" t="s">
+      <c r="B12" s="30"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="24"/>
-      <c r="F12" s="18" t="s">
+      <c r="E12" s="23"/>
+      <c r="F12" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
       <c r="J12" s="7">
         <v>11</v>
       </c>
@@ -2858,32 +2896,32 @@
       <c r="A13" s="1">
         <v>13</v>
       </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="29" t="s">
+      <c r="B13" s="30"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="36"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="38"/>
       <c r="J13" s="7"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>14</v>
       </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="18" t="s">
+      <c r="B14" s="30"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
       <c r="J14" s="7">
         <v>12</v>
       </c>
@@ -2895,18 +2933,18 @@
       <c r="A15" s="1">
         <v>15</v>
       </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="23" t="s">
+      <c r="B15" s="30"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="E15" s="24"/>
-      <c r="F15" s="29" t="s">
+      <c r="E15" s="23"/>
+      <c r="F15" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="21"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="28"/>
       <c r="J15" s="7">
         <v>13</v>
       </c>
@@ -2915,16 +2953,16 @@
       <c r="A16" s="1">
         <v>16</v>
       </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="18" t="s">
+      <c r="B16" s="30"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
       <c r="J16" s="7">
         <v>14</v>
       </c>
@@ -2933,36 +2971,36 @@
       <c r="A17" s="1">
         <v>17</v>
       </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="26"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="31"/>
       <c r="D17" s="13" t="s">
         <v>60</v>
       </c>
       <c r="E17" s="9"/>
-      <c r="F17" s="29" t="s">
+      <c r="F17" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="36"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="38"/>
       <c r="J17" s="7"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>18</v>
       </c>
-      <c r="B18" s="25"/>
-      <c r="C18" s="26"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="31"/>
       <c r="D18" s="6" t="s">
         <v>45</v>
       </c>
       <c r="E18" s="5"/>
-      <c r="F18" s="19" t="s">
+      <c r="F18" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="21"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="28"/>
       <c r="J18" s="7">
         <v>15</v>
       </c>
@@ -2971,18 +3009,18 @@
       <c r="A19" s="1">
         <v>19</v>
       </c>
-      <c r="B19" s="25"/>
-      <c r="C19" s="26"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="31"/>
       <c r="D19" s="6" t="s">
         <v>46</v>
       </c>
       <c r="E19" s="6"/>
-      <c r="F19" s="19" t="s">
+      <c r="F19" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="21"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="28"/>
       <c r="J19" s="7">
         <v>16</v>
       </c>
@@ -2994,36 +3032,36 @@
       <c r="A20" s="1">
         <v>20</v>
       </c>
-      <c r="B20" s="25"/>
-      <c r="C20" s="26"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="31"/>
       <c r="D20" s="8" t="s">
         <v>57</v>
       </c>
       <c r="E20" s="8"/>
-      <c r="F20" s="19" t="s">
+      <c r="F20" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="21"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="28"/>
       <c r="J20" s="7"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>21</v>
       </c>
-      <c r="B21" s="27"/>
-      <c r="C21" s="28"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="25"/>
       <c r="D21" s="6" t="s">
         <v>47</v>
       </c>
       <c r="E21" s="6"/>
-      <c r="F21" s="19" t="s">
+      <c r="F21" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="21"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="28"/>
       <c r="J21" s="7">
         <v>17</v>
       </c>
@@ -3035,20 +3073,20 @@
       <c r="A22" s="1">
         <v>22</v>
       </c>
-      <c r="B22" s="23" t="s">
+      <c r="B22" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="24"/>
-      <c r="D22" s="23" t="s">
+      <c r="C22" s="23"/>
+      <c r="D22" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="E22" s="24"/>
-      <c r="F22" s="18" t="s">
+      <c r="E22" s="23"/>
+      <c r="F22" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="18"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="29"/>
       <c r="J22" s="7">
         <v>1</v>
       </c>
@@ -3060,32 +3098,32 @@
       <c r="A23" s="1">
         <v>23</v>
       </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="19" t="s">
+      <c r="B23" s="30"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="21"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="28"/>
       <c r="J23" s="7"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>24</v>
       </c>
-      <c r="B24" s="25"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="18" t="s">
+      <c r="B24" s="30"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="G24" s="18"/>
-      <c r="H24" s="18"/>
-      <c r="I24" s="18"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="29"/>
       <c r="J24" s="7">
         <v>2</v>
       </c>
@@ -3097,16 +3135,16 @@
       <c r="A25" s="1">
         <v>25</v>
       </c>
-      <c r="B25" s="25"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="18" t="s">
+      <c r="B25" s="30"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="G25" s="18"/>
-      <c r="H25" s="18"/>
-      <c r="I25" s="18"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="29"/>
       <c r="J25" s="7">
         <v>29</v>
       </c>
@@ -3118,16 +3156,16 @@
       <c r="A26" s="1">
         <v>26</v>
       </c>
-      <c r="B26" s="25"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="19" t="s">
+      <c r="B26" s="30"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="G26" s="20"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="21"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="28"/>
       <c r="J26" s="7">
         <v>30</v>
       </c>
@@ -3139,16 +3177,16 @@
       <c r="A27" s="1">
         <v>27</v>
       </c>
-      <c r="B27" s="25"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="19" t="s">
+      <c r="B27" s="30"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="G27" s="20"/>
-      <c r="H27" s="20"/>
-      <c r="I27" s="21"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="28"/>
       <c r="J27" s="7">
         <v>3</v>
       </c>
@@ -3160,16 +3198,16 @@
       <c r="A28" s="1">
         <v>28</v>
       </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="26"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="18" t="s">
+      <c r="B28" s="30"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="G28" s="18"/>
-      <c r="H28" s="18"/>
-      <c r="I28" s="18"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="29"/>
       <c r="J28" s="7">
         <v>6</v>
       </c>
@@ -3181,18 +3219,18 @@
       <c r="A29" s="1">
         <v>29</v>
       </c>
-      <c r="B29" s="25"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="23" t="s">
+      <c r="B29" s="30"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="E29" s="24"/>
-      <c r="F29" s="18" t="s">
+      <c r="E29" s="23"/>
+      <c r="F29" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="18"/>
-      <c r="H29" s="18"/>
-      <c r="I29" s="18"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="29"/>
       <c r="J29" s="7">
         <v>7</v>
       </c>
@@ -3204,16 +3242,16 @@
       <c r="A30" s="1">
         <v>30</v>
       </c>
-      <c r="B30" s="25"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="19" t="s">
+      <c r="B30" s="30"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="G30" s="20"/>
-      <c r="H30" s="20"/>
-      <c r="I30" s="21"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="28"/>
       <c r="J30" s="7">
         <v>10</v>
       </c>
@@ -3225,16 +3263,16 @@
       <c r="A31" s="1">
         <v>31</v>
       </c>
-      <c r="B31" s="25"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="25"/>
-      <c r="E31" s="26"/>
-      <c r="F31" s="18" t="s">
+      <c r="B31" s="30"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="G31" s="18"/>
-      <c r="H31" s="18"/>
-      <c r="I31" s="18"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="29"/>
+      <c r="I31" s="29"/>
       <c r="J31" s="7">
         <v>9</v>
       </c>
@@ -3243,16 +3281,16 @@
       <c r="A32" s="1">
         <v>32</v>
       </c>
-      <c r="B32" s="25"/>
-      <c r="C32" s="26"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="19" t="s">
+      <c r="B32" s="30"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="G32" s="20"/>
-      <c r="H32" s="20"/>
-      <c r="I32" s="21"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="27"/>
+      <c r="I32" s="28"/>
       <c r="J32" s="7">
         <v>8</v>
       </c>
@@ -3261,18 +3299,18 @@
       <c r="A33" s="1">
         <v>33</v>
       </c>
-      <c r="B33" s="25"/>
-      <c r="C33" s="26"/>
-      <c r="D33" s="23" t="s">
+      <c r="B33" s="30"/>
+      <c r="C33" s="31"/>
+      <c r="D33" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="E33" s="24"/>
-      <c r="F33" s="19" t="s">
+      <c r="E33" s="23"/>
+      <c r="F33" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="G33" s="20"/>
-      <c r="H33" s="20"/>
-      <c r="I33" s="21"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="27"/>
+      <c r="I33" s="28"/>
       <c r="J33" s="7">
         <v>12</v>
       </c>
@@ -3284,10 +3322,10 @@
       <c r="A34" s="1">
         <v>34</v>
       </c>
-      <c r="B34" s="25"/>
-      <c r="C34" s="26"/>
-      <c r="D34" s="25"/>
-      <c r="E34" s="26"/>
+      <c r="B34" s="30"/>
+      <c r="C34" s="31"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="31"/>
       <c r="F34" s="12" t="s">
         <v>61</v>
       </c>
@@ -3300,16 +3338,16 @@
       <c r="A35" s="1">
         <v>35</v>
       </c>
-      <c r="B35" s="25"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="28"/>
-      <c r="F35" s="19" t="s">
+      <c r="B35" s="30"/>
+      <c r="C35" s="31"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="25"/>
+      <c r="F35" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="G35" s="20"/>
-      <c r="H35" s="20"/>
-      <c r="I35" s="21"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="27"/>
+      <c r="I35" s="28"/>
       <c r="J35" s="7">
         <v>11</v>
       </c>
@@ -3321,18 +3359,18 @@
       <c r="A36" s="1">
         <v>36</v>
       </c>
-      <c r="B36" s="25"/>
-      <c r="C36" s="26"/>
-      <c r="D36" s="23" t="s">
+      <c r="B36" s="30"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="E36" s="24"/>
-      <c r="F36" s="29" t="s">
+      <c r="E36" s="23"/>
+      <c r="F36" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="G36" s="20"/>
-      <c r="H36" s="20"/>
-      <c r="I36" s="21"/>
+      <c r="G36" s="27"/>
+      <c r="H36" s="27"/>
+      <c r="I36" s="28"/>
       <c r="J36" s="7">
         <v>13</v>
       </c>
@@ -3341,16 +3379,16 @@
       <c r="A37" s="1">
         <v>37</v>
       </c>
-      <c r="B37" s="25"/>
-      <c r="C37" s="26"/>
-      <c r="D37" s="27"/>
-      <c r="E37" s="28"/>
-      <c r="F37" s="18" t="s">
+      <c r="B37" s="30"/>
+      <c r="C37" s="31"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="25"/>
+      <c r="F37" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="G37" s="18"/>
-      <c r="H37" s="18"/>
-      <c r="I37" s="18"/>
+      <c r="G37" s="29"/>
+      <c r="H37" s="29"/>
+      <c r="I37" s="29"/>
       <c r="J37" s="7">
         <v>14</v>
       </c>
@@ -3359,18 +3397,18 @@
       <c r="A38" s="1">
         <v>38</v>
       </c>
-      <c r="B38" s="25"/>
-      <c r="C38" s="26"/>
+      <c r="B38" s="30"/>
+      <c r="C38" s="31"/>
       <c r="D38" s="6" t="s">
         <v>45</v>
       </c>
       <c r="E38" s="5"/>
-      <c r="F38" s="19" t="s">
+      <c r="F38" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="G38" s="20"/>
-      <c r="H38" s="20"/>
-      <c r="I38" s="21"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="27"/>
+      <c r="I38" s="28"/>
       <c r="J38" s="7">
         <v>15</v>
       </c>
@@ -3379,18 +3417,18 @@
       <c r="A39" s="1">
         <v>39</v>
       </c>
-      <c r="B39" s="25"/>
-      <c r="C39" s="26"/>
+      <c r="B39" s="30"/>
+      <c r="C39" s="31"/>
       <c r="D39" s="6" t="s">
         <v>46</v>
       </c>
       <c r="E39" s="6"/>
-      <c r="F39" s="19" t="s">
+      <c r="F39" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="G39" s="20"/>
-      <c r="H39" s="20"/>
-      <c r="I39" s="21"/>
+      <c r="G39" s="27"/>
+      <c r="H39" s="27"/>
+      <c r="I39" s="28"/>
       <c r="J39" s="7">
         <v>16</v>
       </c>
@@ -3402,36 +3440,36 @@
       <c r="A40" s="1">
         <v>40</v>
       </c>
-      <c r="B40" s="25"/>
-      <c r="C40" s="26"/>
+      <c r="B40" s="30"/>
+      <c r="C40" s="31"/>
       <c r="D40" s="8" t="s">
         <v>58</v>
       </c>
       <c r="E40" s="8"/>
-      <c r="F40" s="19" t="s">
+      <c r="F40" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="G40" s="20"/>
-      <c r="H40" s="20"/>
-      <c r="I40" s="21"/>
+      <c r="G40" s="27"/>
+      <c r="H40" s="27"/>
+      <c r="I40" s="28"/>
       <c r="J40" s="7"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>41</v>
       </c>
-      <c r="B41" s="27"/>
-      <c r="C41" s="28"/>
+      <c r="B41" s="24"/>
+      <c r="C41" s="25"/>
       <c r="D41" s="6" t="s">
         <v>47</v>
       </c>
       <c r="E41" s="6"/>
-      <c r="F41" s="19" t="s">
+      <c r="F41" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="G41" s="20"/>
-      <c r="H41" s="20"/>
-      <c r="I41" s="21"/>
+      <c r="G41" s="27"/>
+      <c r="H41" s="27"/>
+      <c r="I41" s="28"/>
       <c r="J41" s="7">
         <v>17</v>
       </c>
@@ -3443,20 +3481,20 @@
       <c r="A42" s="1">
         <v>42</v>
       </c>
-      <c r="B42" s="23" t="s">
+      <c r="B42" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C42" s="24"/>
-      <c r="D42" s="23" t="s">
+      <c r="C42" s="23"/>
+      <c r="D42" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="E42" s="24"/>
-      <c r="F42" s="18" t="s">
+      <c r="E42" s="23"/>
+      <c r="F42" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="G42" s="18"/>
-      <c r="H42" s="18"/>
-      <c r="I42" s="18"/>
+      <c r="G42" s="29"/>
+      <c r="H42" s="29"/>
+      <c r="I42" s="29"/>
       <c r="J42" s="7">
         <v>2</v>
       </c>
@@ -3468,16 +3506,16 @@
       <c r="A43" s="1">
         <v>43</v>
       </c>
-      <c r="B43" s="25"/>
-      <c r="C43" s="26"/>
-      <c r="D43" s="25"/>
-      <c r="E43" s="26"/>
-      <c r="F43" s="18" t="s">
+      <c r="B43" s="30"/>
+      <c r="C43" s="31"/>
+      <c r="D43" s="30"/>
+      <c r="E43" s="31"/>
+      <c r="F43" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="G43" s="18"/>
-      <c r="H43" s="18"/>
-      <c r="I43" s="18"/>
+      <c r="G43" s="29"/>
+      <c r="H43" s="29"/>
+      <c r="I43" s="29"/>
       <c r="J43" s="7">
         <v>1</v>
       </c>
@@ -3489,16 +3527,16 @@
       <c r="A44" s="1">
         <v>44</v>
       </c>
-      <c r="B44" s="25"/>
-      <c r="C44" s="26"/>
-      <c r="D44" s="25"/>
-      <c r="E44" s="26"/>
-      <c r="F44" s="18" t="s">
+      <c r="B44" s="30"/>
+      <c r="C44" s="31"/>
+      <c r="D44" s="30"/>
+      <c r="E44" s="31"/>
+      <c r="F44" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="G44" s="18"/>
-      <c r="H44" s="18"/>
-      <c r="I44" s="18"/>
+      <c r="G44" s="29"/>
+      <c r="H44" s="29"/>
+      <c r="I44" s="29"/>
       <c r="J44" s="7">
         <v>3</v>
       </c>
@@ -3510,16 +3548,16 @@
       <c r="A45" s="1">
         <v>45</v>
       </c>
-      <c r="B45" s="25"/>
-      <c r="C45" s="26"/>
-      <c r="D45" s="25"/>
-      <c r="E45" s="26"/>
-      <c r="F45" s="19" t="s">
+      <c r="B45" s="30"/>
+      <c r="C45" s="31"/>
+      <c r="D45" s="30"/>
+      <c r="E45" s="31"/>
+      <c r="F45" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="G45" s="20"/>
-      <c r="H45" s="20"/>
-      <c r="I45" s="21"/>
+      <c r="G45" s="27"/>
+      <c r="H45" s="27"/>
+      <c r="I45" s="28"/>
       <c r="J45" s="7">
         <v>4</v>
       </c>
@@ -3531,16 +3569,16 @@
       <c r="A46" s="1">
         <v>46</v>
       </c>
-      <c r="B46" s="25"/>
-      <c r="C46" s="26"/>
-      <c r="D46" s="25"/>
-      <c r="E46" s="26"/>
-      <c r="F46" s="19" t="s">
+      <c r="B46" s="30"/>
+      <c r="C46" s="31"/>
+      <c r="D46" s="30"/>
+      <c r="E46" s="31"/>
+      <c r="F46" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="G46" s="20"/>
-      <c r="H46" s="20"/>
-      <c r="I46" s="21"/>
+      <c r="G46" s="27"/>
+      <c r="H46" s="27"/>
+      <c r="I46" s="28"/>
       <c r="J46" s="7">
         <v>18</v>
       </c>
@@ -3552,10 +3590,10 @@
       <c r="A47" s="1">
         <v>47</v>
       </c>
-      <c r="B47" s="25"/>
-      <c r="C47" s="26"/>
-      <c r="D47" s="27"/>
-      <c r="E47" s="28"/>
+      <c r="B47" s="30"/>
+      <c r="C47" s="31"/>
+      <c r="D47" s="24"/>
+      <c r="E47" s="25"/>
       <c r="F47" s="5" t="s">
         <v>16</v>
       </c>
@@ -3573,18 +3611,18 @@
       <c r="A48" s="1">
         <v>48</v>
       </c>
-      <c r="B48" s="25"/>
-      <c r="C48" s="26"/>
-      <c r="D48" s="23" t="s">
+      <c r="B48" s="30"/>
+      <c r="C48" s="31"/>
+      <c r="D48" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="E48" s="24"/>
-      <c r="F48" s="18" t="s">
+      <c r="E48" s="23"/>
+      <c r="F48" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="G48" s="18"/>
-      <c r="H48" s="18"/>
-      <c r="I48" s="18"/>
+      <c r="G48" s="29"/>
+      <c r="H48" s="29"/>
+      <c r="I48" s="29"/>
       <c r="J48" s="7">
         <v>20</v>
       </c>
@@ -3596,16 +3634,16 @@
       <c r="A49" s="1">
         <v>49</v>
       </c>
-      <c r="B49" s="25"/>
-      <c r="C49" s="26"/>
-      <c r="D49" s="25"/>
-      <c r="E49" s="26"/>
-      <c r="F49" s="18" t="s">
+      <c r="B49" s="30"/>
+      <c r="C49" s="31"/>
+      <c r="D49" s="30"/>
+      <c r="E49" s="31"/>
+      <c r="F49" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="G49" s="18"/>
-      <c r="H49" s="18"/>
-      <c r="I49" s="18"/>
+      <c r="G49" s="29"/>
+      <c r="H49" s="29"/>
+      <c r="I49" s="29"/>
       <c r="J49" s="7">
         <v>21</v>
       </c>
@@ -3617,16 +3655,16 @@
       <c r="A50" s="1">
         <v>50</v>
       </c>
-      <c r="B50" s="25"/>
-      <c r="C50" s="26"/>
-      <c r="D50" s="25"/>
-      <c r="E50" s="26"/>
-      <c r="F50" s="18" t="s">
+      <c r="B50" s="30"/>
+      <c r="C50" s="31"/>
+      <c r="D50" s="30"/>
+      <c r="E50" s="31"/>
+      <c r="F50" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="G50" s="18"/>
-      <c r="H50" s="18"/>
-      <c r="I50" s="18"/>
+      <c r="G50" s="29"/>
+      <c r="H50" s="29"/>
+      <c r="I50" s="29"/>
       <c r="J50" s="7">
         <v>22</v>
       </c>
@@ -3638,16 +3676,16 @@
       <c r="A51" s="1">
         <v>51</v>
       </c>
-      <c r="B51" s="25"/>
-      <c r="C51" s="26"/>
-      <c r="D51" s="25"/>
-      <c r="E51" s="26"/>
-      <c r="F51" s="18" t="s">
+      <c r="B51" s="30"/>
+      <c r="C51" s="31"/>
+      <c r="D51" s="30"/>
+      <c r="E51" s="31"/>
+      <c r="F51" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="G51" s="18"/>
-      <c r="H51" s="18"/>
-      <c r="I51" s="18"/>
+      <c r="G51" s="29"/>
+      <c r="H51" s="29"/>
+      <c r="I51" s="29"/>
       <c r="J51" s="7">
         <v>23</v>
       </c>
@@ -3659,16 +3697,16 @@
       <c r="A52" s="1">
         <v>52</v>
       </c>
-      <c r="B52" s="25"/>
-      <c r="C52" s="26"/>
-      <c r="D52" s="27"/>
-      <c r="E52" s="28"/>
-      <c r="F52" s="19" t="s">
+      <c r="B52" s="30"/>
+      <c r="C52" s="31"/>
+      <c r="D52" s="24"/>
+      <c r="E52" s="25"/>
+      <c r="F52" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="G52" s="20"/>
-      <c r="H52" s="20"/>
-      <c r="I52" s="21"/>
+      <c r="G52" s="27"/>
+      <c r="H52" s="27"/>
+      <c r="I52" s="28"/>
       <c r="J52" s="7">
         <v>24</v>
       </c>
@@ -3680,18 +3718,18 @@
       <c r="A53" s="1">
         <v>53</v>
       </c>
-      <c r="B53" s="25"/>
-      <c r="C53" s="26"/>
-      <c r="D53" s="23" t="s">
+      <c r="B53" s="30"/>
+      <c r="C53" s="31"/>
+      <c r="D53" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="E53" s="24"/>
-      <c r="F53" s="18" t="s">
+      <c r="E53" s="23"/>
+      <c r="F53" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="G53" s="18"/>
-      <c r="H53" s="18"/>
-      <c r="I53" s="18"/>
+      <c r="G53" s="29"/>
+      <c r="H53" s="29"/>
+      <c r="I53" s="29"/>
       <c r="J53" s="7">
         <v>14</v>
       </c>
@@ -3700,32 +3738,32 @@
       <c r="A54" s="1">
         <v>54</v>
       </c>
-      <c r="B54" s="25"/>
-      <c r="C54" s="26"/>
-      <c r="D54" s="25"/>
-      <c r="E54" s="26"/>
-      <c r="F54" s="19" t="s">
+      <c r="B54" s="30"/>
+      <c r="C54" s="31"/>
+      <c r="D54" s="30"/>
+      <c r="E54" s="31"/>
+      <c r="F54" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="G54" s="20"/>
-      <c r="H54" s="20"/>
-      <c r="I54" s="21"/>
+      <c r="G54" s="27"/>
+      <c r="H54" s="27"/>
+      <c r="I54" s="28"/>
       <c r="J54" s="7"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>55</v>
       </c>
-      <c r="B55" s="25"/>
-      <c r="C55" s="26"/>
-      <c r="D55" s="25"/>
-      <c r="E55" s="26"/>
-      <c r="F55" s="18" t="s">
+      <c r="B55" s="30"/>
+      <c r="C55" s="31"/>
+      <c r="D55" s="30"/>
+      <c r="E55" s="31"/>
+      <c r="F55" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="G55" s="18"/>
-      <c r="H55" s="18"/>
-      <c r="I55" s="18"/>
+      <c r="G55" s="29"/>
+      <c r="H55" s="29"/>
+      <c r="I55" s="29"/>
       <c r="J55" s="7">
         <v>25</v>
       </c>
@@ -3734,16 +3772,16 @@
       <c r="A56" s="1">
         <v>56</v>
       </c>
-      <c r="B56" s="25"/>
-      <c r="C56" s="26"/>
-      <c r="D56" s="27"/>
-      <c r="E56" s="28"/>
-      <c r="F56" s="29" t="s">
+      <c r="B56" s="30"/>
+      <c r="C56" s="31"/>
+      <c r="D56" s="24"/>
+      <c r="E56" s="25"/>
+      <c r="F56" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="G56" s="20"/>
-      <c r="H56" s="20"/>
-      <c r="I56" s="21"/>
+      <c r="G56" s="27"/>
+      <c r="H56" s="27"/>
+      <c r="I56" s="28"/>
       <c r="J56" s="7">
         <v>13</v>
       </c>
@@ -3752,18 +3790,18 @@
       <c r="A57" s="1">
         <v>57</v>
       </c>
-      <c r="B57" s="25"/>
-      <c r="C57" s="26"/>
+      <c r="B57" s="30"/>
+      <c r="C57" s="31"/>
       <c r="D57" s="6" t="s">
         <v>45</v>
       </c>
       <c r="E57" s="5"/>
-      <c r="F57" s="19" t="s">
+      <c r="F57" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="G57" s="20"/>
-      <c r="H57" s="20"/>
-      <c r="I57" s="21"/>
+      <c r="G57" s="27"/>
+      <c r="H57" s="27"/>
+      <c r="I57" s="28"/>
       <c r="J57" s="7">
         <v>15</v>
       </c>
@@ -3772,18 +3810,18 @@
       <c r="A58" s="1">
         <v>58</v>
       </c>
-      <c r="B58" s="25"/>
-      <c r="C58" s="26"/>
-      <c r="D58" s="37" t="s">
+      <c r="B58" s="30"/>
+      <c r="C58" s="31"/>
+      <c r="D58" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="E58" s="38"/>
-      <c r="F58" s="19" t="s">
+      <c r="E58" s="35"/>
+      <c r="F58" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="G58" s="20"/>
-      <c r="H58" s="20"/>
-      <c r="I58" s="21"/>
+      <c r="G58" s="27"/>
+      <c r="H58" s="27"/>
+      <c r="I58" s="28"/>
       <c r="J58" s="7">
         <v>16</v>
       </c>
@@ -3791,38 +3829,38 @@
         <v>55</v>
       </c>
     </row>
-    <row r="59" spans="1:11" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="39"/>
-      <c r="B59" s="25"/>
-      <c r="C59" s="26"/>
-      <c r="D59" s="40" t="s">
+    <row r="59" spans="1:11" s="51" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="45"/>
+      <c r="B59" s="30"/>
+      <c r="C59" s="31"/>
+      <c r="D59" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="E59" s="41"/>
-      <c r="F59" s="42" t="s">
+      <c r="E59" s="47"/>
+      <c r="F59" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="G59" s="43"/>
-      <c r="H59" s="43"/>
-      <c r="I59" s="44"/>
-      <c r="J59" s="45"/>
+      <c r="G59" s="48"/>
+      <c r="H59" s="48"/>
+      <c r="I59" s="49"/>
+      <c r="J59" s="50"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>59</v>
       </c>
-      <c r="B60" s="25"/>
-      <c r="C60" s="26"/>
+      <c r="B60" s="30"/>
+      <c r="C60" s="31"/>
       <c r="D60" s="6" t="s">
         <v>47</v>
       </c>
       <c r="E60" s="6"/>
-      <c r="F60" s="19" t="s">
+      <c r="F60" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="G60" s="20"/>
-      <c r="H60" s="20"/>
-      <c r="I60" s="21"/>
+      <c r="G60" s="27"/>
+      <c r="H60" s="27"/>
+      <c r="I60" s="28"/>
       <c r="J60" s="7">
         <v>17</v>
       </c>
@@ -3834,18 +3872,18 @@
       <c r="A61" s="1">
         <v>60</v>
       </c>
-      <c r="B61" s="25"/>
-      <c r="C61" s="26"/>
-      <c r="D61" s="23" t="s">
+      <c r="B61" s="30"/>
+      <c r="C61" s="31"/>
+      <c r="D61" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="E61" s="24"/>
-      <c r="F61" s="18" t="s">
+      <c r="E61" s="23"/>
+      <c r="F61" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="G61" s="18"/>
-      <c r="H61" s="18"/>
-      <c r="I61" s="18"/>
+      <c r="G61" s="29"/>
+      <c r="H61" s="29"/>
+      <c r="I61" s="29"/>
       <c r="J61" s="7">
         <v>26</v>
       </c>
@@ -3857,16 +3895,16 @@
       <c r="A62" s="1">
         <v>61</v>
       </c>
-      <c r="B62" s="25"/>
-      <c r="C62" s="26"/>
-      <c r="D62" s="25"/>
-      <c r="E62" s="26"/>
-      <c r="F62" s="19" t="s">
+      <c r="B62" s="30"/>
+      <c r="C62" s="31"/>
+      <c r="D62" s="30"/>
+      <c r="E62" s="31"/>
+      <c r="F62" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="G62" s="20"/>
-      <c r="H62" s="20"/>
-      <c r="I62" s="21"/>
+      <c r="G62" s="27"/>
+      <c r="H62" s="27"/>
+      <c r="I62" s="28"/>
       <c r="J62" s="7">
         <v>27</v>
       </c>
@@ -3878,16 +3916,16 @@
       <c r="A63" s="1">
         <v>62</v>
       </c>
-      <c r="B63" s="25"/>
-      <c r="C63" s="26"/>
-      <c r="D63" s="27"/>
-      <c r="E63" s="28"/>
-      <c r="F63" s="18" t="s">
+      <c r="B63" s="30"/>
+      <c r="C63" s="31"/>
+      <c r="D63" s="24"/>
+      <c r="E63" s="25"/>
+      <c r="F63" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="G63" s="18"/>
-      <c r="H63" s="18"/>
-      <c r="I63" s="18"/>
+      <c r="G63" s="29"/>
+      <c r="H63" s="29"/>
+      <c r="I63" s="29"/>
       <c r="J63" s="7">
         <v>12</v>
       </c>
@@ -3899,18 +3937,18 @@
       <c r="A64" s="1">
         <v>63</v>
       </c>
-      <c r="B64" s="25"/>
-      <c r="C64" s="26"/>
-      <c r="D64" s="23" t="s">
+      <c r="B64" s="30"/>
+      <c r="C64" s="31"/>
+      <c r="D64" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="E64" s="24"/>
-      <c r="F64" s="19" t="s">
+      <c r="E64" s="23"/>
+      <c r="F64" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="G64" s="20"/>
-      <c r="H64" s="20"/>
-      <c r="I64" s="21"/>
+      <c r="G64" s="27"/>
+      <c r="H64" s="27"/>
+      <c r="I64" s="28"/>
       <c r="J64" s="7">
         <v>10</v>
       </c>
@@ -3922,16 +3960,16 @@
       <c r="A65" s="1">
         <v>64</v>
       </c>
-      <c r="B65" s="25"/>
-      <c r="C65" s="26"/>
-      <c r="D65" s="25"/>
-      <c r="E65" s="26"/>
-      <c r="F65" s="18" t="s">
+      <c r="B65" s="30"/>
+      <c r="C65" s="31"/>
+      <c r="D65" s="30"/>
+      <c r="E65" s="31"/>
+      <c r="F65" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="G65" s="18"/>
-      <c r="H65" s="18"/>
-      <c r="I65" s="18"/>
+      <c r="G65" s="29"/>
+      <c r="H65" s="29"/>
+      <c r="I65" s="29"/>
       <c r="J65" s="7">
         <v>7</v>
       </c>
@@ -3943,16 +3981,16 @@
       <c r="A66" s="1">
         <v>65</v>
       </c>
-      <c r="B66" s="25"/>
-      <c r="C66" s="26"/>
-      <c r="D66" s="25"/>
-      <c r="E66" s="26"/>
-      <c r="F66" s="19" t="s">
+      <c r="B66" s="30"/>
+      <c r="C66" s="31"/>
+      <c r="D66" s="30"/>
+      <c r="E66" s="31"/>
+      <c r="F66" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="G66" s="20"/>
-      <c r="H66" s="20"/>
-      <c r="I66" s="21"/>
+      <c r="G66" s="27"/>
+      <c r="H66" s="27"/>
+      <c r="I66" s="28"/>
       <c r="J66" s="7">
         <v>8</v>
       </c>
@@ -3961,127 +3999,193 @@
       <c r="A67" s="1">
         <v>66</v>
       </c>
-      <c r="B67" s="27"/>
-      <c r="C67" s="28"/>
-      <c r="D67" s="27"/>
-      <c r="E67" s="28"/>
-      <c r="F67" s="19" t="s">
+      <c r="B67" s="24"/>
+      <c r="C67" s="25"/>
+      <c r="D67" s="24"/>
+      <c r="E67" s="25"/>
+      <c r="F67" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="G67" s="20"/>
-      <c r="H67" s="20"/>
-      <c r="I67" s="21"/>
+      <c r="G67" s="27"/>
+      <c r="H67" s="27"/>
+      <c r="I67" s="28"/>
       <c r="J67" s="7">
         <v>9</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A68" s="1">
-        <v>67</v>
-      </c>
-      <c r="B68" s="25"/>
-      <c r="C68" s="26"/>
+      <c r="A68" s="1"/>
+      <c r="B68" s="17"/>
+      <c r="C68" s="18"/>
       <c r="D68" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="E68" s="22"/>
+      <c r="E68" s="23"/>
       <c r="F68" s="19" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="G68" s="20"/>
       <c r="H68" s="20"/>
       <c r="I68" s="21"/>
-      <c r="J68" s="7">
-        <v>14</v>
-      </c>
+      <c r="J68" s="7"/>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>68</v>
-      </c>
-      <c r="B69" s="25"/>
-      <c r="C69" s="26"/>
-      <c r="D69" s="22"/>
-      <c r="E69" s="22"/>
-      <c r="F69" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="G69" s="20"/>
-      <c r="H69" s="20"/>
-      <c r="I69" s="21"/>
+        <v>67</v>
+      </c>
+      <c r="B69" s="30"/>
+      <c r="C69" s="31"/>
+      <c r="D69" s="30"/>
+      <c r="E69" s="31"/>
+      <c r="F69" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="G69" s="27"/>
+      <c r="H69" s="27"/>
+      <c r="I69" s="28"/>
       <c r="J69" s="7">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>69</v>
-      </c>
-      <c r="B70" s="25"/>
-      <c r="C70" s="26"/>
-      <c r="D70" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="E70" s="31"/>
-      <c r="F70" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="G70" s="14"/>
-      <c r="H70" s="14"/>
-      <c r="I70" s="15"/>
-      <c r="J70" s="7"/>
+        <v>68</v>
+      </c>
+      <c r="B70" s="30"/>
+      <c r="C70" s="31"/>
+      <c r="D70" s="24"/>
+      <c r="E70" s="25"/>
+      <c r="F70" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="G70" s="27"/>
+      <c r="H70" s="27"/>
+      <c r="I70" s="28"/>
+      <c r="J70" s="7">
+        <v>13</v>
+      </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>70</v>
-      </c>
-      <c r="B71" s="25"/>
-      <c r="C71" s="26"/>
-      <c r="D71" s="32"/>
-      <c r="E71" s="33"/>
-      <c r="F71" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="G71" s="18"/>
-      <c r="H71" s="18"/>
-      <c r="I71" s="18"/>
-      <c r="J71" s="7">
+        <v>69</v>
+      </c>
+      <c r="B71" s="30"/>
+      <c r="C71" s="31"/>
+      <c r="D71" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="E71" s="41"/>
+      <c r="F71" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="K71" t="s">
-        <v>55</v>
-      </c>
+      <c r="G71" s="14"/>
+      <c r="H71" s="14"/>
+      <c r="I71" s="15"/>
+      <c r="J71" s="7"/>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>71</v>
-      </c>
-      <c r="B72" s="27"/>
-      <c r="C72" s="28"/>
-      <c r="D72" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E72" s="5"/>
-      <c r="F72" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="G72" s="20"/>
-      <c r="H72" s="20"/>
-      <c r="I72" s="21"/>
+        <v>70</v>
+      </c>
+      <c r="B72" s="30"/>
+      <c r="C72" s="31"/>
+      <c r="D72" s="42"/>
+      <c r="E72" s="43"/>
+      <c r="F72" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="G72" s="29"/>
+      <c r="H72" s="29"/>
+      <c r="I72" s="29"/>
       <c r="J72" s="7">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="K72" t="s">
         <v>55</v>
       </c>
     </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73" s="24"/>
+      <c r="C73" s="25"/>
+      <c r="D73" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E73" s="5"/>
+      <c r="F73" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="G73" s="27"/>
+      <c r="H73" s="27"/>
+      <c r="I73" s="28"/>
+      <c r="J73" s="7">
+        <v>28</v>
+      </c>
+      <c r="K73" t="s">
+        <v>55</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="89">
-    <mergeCell ref="F35:I35"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="F63:I63"/>
+    <mergeCell ref="B69:C73"/>
+    <mergeCell ref="F69:I69"/>
+    <mergeCell ref="F70:I70"/>
+    <mergeCell ref="F72:I72"/>
+    <mergeCell ref="F73:I73"/>
+    <mergeCell ref="D71:E72"/>
+    <mergeCell ref="F66:I66"/>
+    <mergeCell ref="F64:I64"/>
+    <mergeCell ref="D64:E67"/>
+    <mergeCell ref="F65:I65"/>
+    <mergeCell ref="F67:I67"/>
+    <mergeCell ref="D68:E70"/>
+    <mergeCell ref="B42:C67"/>
+    <mergeCell ref="D42:E47"/>
+    <mergeCell ref="F42:I42"/>
+    <mergeCell ref="F43:I43"/>
+    <mergeCell ref="F44:I44"/>
+    <mergeCell ref="F45:I45"/>
+    <mergeCell ref="F46:I46"/>
+    <mergeCell ref="D48:E52"/>
+    <mergeCell ref="F48:I48"/>
+    <mergeCell ref="F49:I49"/>
+    <mergeCell ref="F50:I50"/>
+    <mergeCell ref="F51:I51"/>
+    <mergeCell ref="F60:I60"/>
+    <mergeCell ref="D61:E63"/>
+    <mergeCell ref="F61:I61"/>
+    <mergeCell ref="F62:I62"/>
+    <mergeCell ref="F40:I40"/>
+    <mergeCell ref="F56:I56"/>
+    <mergeCell ref="F57:I57"/>
+    <mergeCell ref="F58:I58"/>
+    <mergeCell ref="F54:I54"/>
+    <mergeCell ref="B22:C41"/>
+    <mergeCell ref="D22:E28"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="D29:E32"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="F41:I41"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="D33:E35"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="D12:E14"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="D15:E16"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="F16:I16"/>
     <mergeCell ref="F5:I5"/>
     <mergeCell ref="F17:I17"/>
     <mergeCell ref="F20:I20"/>
@@ -4098,31 +4202,13 @@
     <mergeCell ref="F8:I8"/>
     <mergeCell ref="F21:I21"/>
     <mergeCell ref="F9:I9"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="D12:E14"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="D15:E16"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="F35:I35"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="F13:I13"/>
     <mergeCell ref="F18:I18"/>
     <mergeCell ref="F19:I19"/>
-    <mergeCell ref="B22:C41"/>
-    <mergeCell ref="D22:E28"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="D29:E32"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="F41:I41"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="D33:E35"/>
-    <mergeCell ref="F33:I33"/>
     <mergeCell ref="F52:I52"/>
     <mergeCell ref="D53:E56"/>
     <mergeCell ref="F53:I53"/>
@@ -4132,40 +4218,6 @@
     <mergeCell ref="F37:I37"/>
     <mergeCell ref="F38:I38"/>
     <mergeCell ref="F39:I39"/>
-    <mergeCell ref="F40:I40"/>
-    <mergeCell ref="F56:I56"/>
-    <mergeCell ref="F57:I57"/>
-    <mergeCell ref="F58:I58"/>
-    <mergeCell ref="F54:I54"/>
-    <mergeCell ref="B42:C67"/>
-    <mergeCell ref="D42:E47"/>
-    <mergeCell ref="F42:I42"/>
-    <mergeCell ref="F43:I43"/>
-    <mergeCell ref="F44:I44"/>
-    <mergeCell ref="F45:I45"/>
-    <mergeCell ref="F46:I46"/>
-    <mergeCell ref="D48:E52"/>
-    <mergeCell ref="F48:I48"/>
-    <mergeCell ref="F49:I49"/>
-    <mergeCell ref="F50:I50"/>
-    <mergeCell ref="F51:I51"/>
-    <mergeCell ref="F60:I60"/>
-    <mergeCell ref="D61:E63"/>
-    <mergeCell ref="F61:I61"/>
-    <mergeCell ref="F62:I62"/>
-    <mergeCell ref="F63:I63"/>
-    <mergeCell ref="B68:C72"/>
-    <mergeCell ref="D68:E69"/>
-    <mergeCell ref="F68:I68"/>
-    <mergeCell ref="F69:I69"/>
-    <mergeCell ref="F71:I71"/>
-    <mergeCell ref="F72:I72"/>
-    <mergeCell ref="D70:E71"/>
-    <mergeCell ref="F66:I66"/>
-    <mergeCell ref="F64:I64"/>
-    <mergeCell ref="D64:E67"/>
-    <mergeCell ref="F65:I65"/>
-    <mergeCell ref="F67:I67"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/WIP/Users/QuyetTD/Function List/FunctionList.xlsx
+++ b/WIP/Users/QuyetTD/Function List/FunctionList.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="69">
   <si>
     <t>List function</t>
   </si>
@@ -222,13 +222,16 @@
     <t>Manage bill of lading</t>
   </si>
   <si>
-    <t>Manage Price</t>
-  </si>
-  <si>
     <t>Recharge for user</t>
   </si>
   <si>
     <t>View price table history</t>
+  </si>
+  <si>
+    <t>Account recharge for User</t>
+  </si>
+  <si>
+    <t>Add company</t>
   </si>
 </sst>
 </file>
@@ -436,7 +439,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -484,12 +487,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -499,58 +496,59 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -565,26 +563,51 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -947,1005 +970,1005 @@
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="33"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="33"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
+      <c r="A3" s="26"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
       <c r="K3" s="1">
         <v>1</v>
       </c>
-      <c r="L3" s="22" t="s">
+      <c r="L3" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="23"/>
-      <c r="N3" s="22" t="s">
+      <c r="M3" s="33"/>
+      <c r="N3" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="O3" s="23"/>
-      <c r="P3" s="29" t="s">
+      <c r="O3" s="33"/>
+      <c r="P3" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="Q3" s="29"/>
-      <c r="R3" s="29"/>
-      <c r="S3" s="29"/>
+      <c r="Q3" s="27"/>
+      <c r="R3" s="27"/>
+      <c r="S3" s="27"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="33"/>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
+      <c r="A4" s="26"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
       <c r="K4" s="1">
         <v>2</v>
       </c>
-      <c r="L4" s="30"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="30"/>
-      <c r="O4" s="31"/>
-      <c r="P4" s="29" t="s">
+      <c r="L4" s="34"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="34"/>
+      <c r="O4" s="35"/>
+      <c r="P4" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="Q4" s="29"/>
-      <c r="R4" s="29"/>
-      <c r="S4" s="29"/>
+      <c r="Q4" s="27"/>
+      <c r="R4" s="27"/>
+      <c r="S4" s="27"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="33"/>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
+      <c r="A5" s="26"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
       <c r="K5" s="1">
         <v>3</v>
       </c>
-      <c r="L5" s="30"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="30"/>
-      <c r="O5" s="31"/>
-      <c r="P5" s="29" t="s">
+      <c r="L5" s="34"/>
+      <c r="M5" s="35"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="35"/>
+      <c r="P5" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="Q5" s="29"/>
-      <c r="R5" s="29"/>
-      <c r="S5" s="29"/>
+      <c r="Q5" s="27"/>
+      <c r="R5" s="27"/>
+      <c r="S5" s="27"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="33"/>
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="33"/>
+      <c r="A6" s="26"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
       <c r="K6" s="1">
         <v>4</v>
       </c>
-      <c r="L6" s="30"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="30"/>
-      <c r="O6" s="31"/>
-      <c r="P6" s="26" t="s">
+      <c r="L6" s="34"/>
+      <c r="M6" s="35"/>
+      <c r="N6" s="34"/>
+      <c r="O6" s="35"/>
+      <c r="P6" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="Q6" s="27"/>
-      <c r="R6" s="27"/>
-      <c r="S6" s="28"/>
+      <c r="Q6" s="29"/>
+      <c r="R6" s="29"/>
+      <c r="S6" s="30"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="33"/>
-      <c r="B7" s="33"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="33"/>
+      <c r="A7" s="26"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
       <c r="K7" s="1">
         <v>5</v>
       </c>
-      <c r="L7" s="30"/>
-      <c r="M7" s="31"/>
-      <c r="N7" s="30"/>
-      <c r="O7" s="31"/>
-      <c r="P7" s="26" t="s">
+      <c r="L7" s="34"/>
+      <c r="M7" s="35"/>
+      <c r="N7" s="34"/>
+      <c r="O7" s="35"/>
+      <c r="P7" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="Q7" s="27"/>
-      <c r="R7" s="27"/>
-      <c r="S7" s="28"/>
+      <c r="Q7" s="29"/>
+      <c r="R7" s="29"/>
+      <c r="S7" s="30"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="33"/>
-      <c r="B8" s="33"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="33"/>
+      <c r="A8" s="26"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
       <c r="K8" s="1">
         <v>6</v>
       </c>
-      <c r="L8" s="30"/>
-      <c r="M8" s="31"/>
-      <c r="N8" s="24"/>
-      <c r="O8" s="25"/>
-      <c r="P8" s="26" t="s">
+      <c r="L8" s="34"/>
+      <c r="M8" s="35"/>
+      <c r="N8" s="36"/>
+      <c r="O8" s="37"/>
+      <c r="P8" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="Q8" s="27"/>
-      <c r="R8" s="27"/>
-      <c r="S8" s="28"/>
+      <c r="Q8" s="29"/>
+      <c r="R8" s="29"/>
+      <c r="S8" s="30"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="33"/>
-      <c r="B9" s="33"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="33"/>
-      <c r="I9" s="33"/>
+      <c r="A9" s="26"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
       <c r="K9" s="1">
         <v>7</v>
       </c>
-      <c r="L9" s="30"/>
-      <c r="M9" s="31"/>
-      <c r="N9" s="22" t="s">
+      <c r="L9" s="34"/>
+      <c r="M9" s="35"/>
+      <c r="N9" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="O9" s="23"/>
-      <c r="P9" s="26" t="s">
+      <c r="O9" s="33"/>
+      <c r="P9" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="Q9" s="27"/>
-      <c r="R9" s="27"/>
-      <c r="S9" s="28"/>
+      <c r="Q9" s="29"/>
+      <c r="R9" s="29"/>
+      <c r="S9" s="30"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="33"/>
-      <c r="B10" s="33"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="33"/>
+      <c r="A10" s="26"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
       <c r="K10" s="1">
         <v>8</v>
       </c>
-      <c r="L10" s="30"/>
-      <c r="M10" s="31"/>
-      <c r="N10" s="30"/>
-      <c r="O10" s="31"/>
-      <c r="P10" s="26" t="s">
+      <c r="L10" s="34"/>
+      <c r="M10" s="35"/>
+      <c r="N10" s="34"/>
+      <c r="O10" s="35"/>
+      <c r="P10" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="Q10" s="27"/>
-      <c r="R10" s="27"/>
-      <c r="S10" s="28"/>
+      <c r="Q10" s="29"/>
+      <c r="R10" s="29"/>
+      <c r="S10" s="30"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="33"/>
-      <c r="B11" s="33"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="33"/>
+      <c r="A11" s="26"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
       <c r="K11" s="1">
         <v>9</v>
       </c>
-      <c r="L11" s="30"/>
-      <c r="M11" s="31"/>
-      <c r="N11" s="30"/>
-      <c r="O11" s="31"/>
-      <c r="P11" s="26" t="s">
+      <c r="L11" s="34"/>
+      <c r="M11" s="35"/>
+      <c r="N11" s="34"/>
+      <c r="O11" s="35"/>
+      <c r="P11" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="Q11" s="27"/>
-      <c r="R11" s="27"/>
-      <c r="S11" s="28"/>
+      <c r="Q11" s="29"/>
+      <c r="R11" s="29"/>
+      <c r="S11" s="30"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="33"/>
-      <c r="B12" s="33"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="33"/>
-      <c r="I12" s="33"/>
+      <c r="A12" s="26"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
       <c r="K12" s="1">
         <v>10</v>
       </c>
-      <c r="L12" s="30"/>
-      <c r="M12" s="31"/>
-      <c r="N12" s="24"/>
-      <c r="O12" s="25"/>
-      <c r="P12" s="26" t="s">
+      <c r="L12" s="34"/>
+      <c r="M12" s="35"/>
+      <c r="N12" s="36"/>
+      <c r="O12" s="37"/>
+      <c r="P12" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="Q12" s="27"/>
-      <c r="R12" s="27"/>
-      <c r="S12" s="28"/>
+      <c r="Q12" s="29"/>
+      <c r="R12" s="29"/>
+      <c r="S12" s="30"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="33"/>
-      <c r="B13" s="33"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="33"/>
-      <c r="I13" s="33"/>
+      <c r="A13" s="26"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
       <c r="K13" s="1">
         <v>11</v>
       </c>
-      <c r="L13" s="30"/>
-      <c r="M13" s="31"/>
-      <c r="N13" s="22" t="s">
+      <c r="L13" s="34"/>
+      <c r="M13" s="35"/>
+      <c r="N13" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="O13" s="23"/>
-      <c r="P13" s="29" t="s">
+      <c r="O13" s="33"/>
+      <c r="P13" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="Q13" s="29"/>
-      <c r="R13" s="29"/>
-      <c r="S13" s="29"/>
+      <c r="Q13" s="27"/>
+      <c r="R13" s="27"/>
+      <c r="S13" s="27"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="33"/>
-      <c r="B14" s="33"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="33"/>
-      <c r="I14" s="33"/>
+      <c r="A14" s="26"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
       <c r="K14" s="1">
         <v>12</v>
       </c>
-      <c r="L14" s="30"/>
-      <c r="M14" s="31"/>
-      <c r="N14" s="24"/>
-      <c r="O14" s="25"/>
-      <c r="P14" s="29" t="s">
+      <c r="L14" s="34"/>
+      <c r="M14" s="35"/>
+      <c r="N14" s="36"/>
+      <c r="O14" s="37"/>
+      <c r="P14" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="Q14" s="29"/>
-      <c r="R14" s="29"/>
-      <c r="S14" s="29"/>
+      <c r="Q14" s="27"/>
+      <c r="R14" s="27"/>
+      <c r="S14" s="27"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="33"/>
-      <c r="B15" s="33"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="33"/>
-      <c r="I15" s="33"/>
+      <c r="A15" s="26"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
       <c r="K15" s="1">
         <v>13</v>
       </c>
-      <c r="L15" s="30"/>
-      <c r="M15" s="31"/>
-      <c r="N15" s="22" t="s">
+      <c r="L15" s="34"/>
+      <c r="M15" s="35"/>
+      <c r="N15" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="O15" s="23"/>
-      <c r="P15" s="26" t="s">
+      <c r="O15" s="33"/>
+      <c r="P15" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="Q15" s="27"/>
-      <c r="R15" s="27"/>
-      <c r="S15" s="28"/>
+      <c r="Q15" s="29"/>
+      <c r="R15" s="29"/>
+      <c r="S15" s="30"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="33"/>
-      <c r="B16" s="33"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="33"/>
-      <c r="I16" s="33"/>
+      <c r="A16" s="26"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
       <c r="K16" s="1">
         <v>14</v>
       </c>
-      <c r="L16" s="30"/>
-      <c r="M16" s="31"/>
-      <c r="N16" s="24"/>
-      <c r="O16" s="25"/>
-      <c r="P16" s="29" t="s">
+      <c r="L16" s="34"/>
+      <c r="M16" s="35"/>
+      <c r="N16" s="36"/>
+      <c r="O16" s="37"/>
+      <c r="P16" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="Q16" s="29"/>
-      <c r="R16" s="29"/>
-      <c r="S16" s="29"/>
+      <c r="Q16" s="27"/>
+      <c r="R16" s="27"/>
+      <c r="S16" s="27"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="33"/>
-      <c r="B17" s="33"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="33"/>
-      <c r="I17" s="33"/>
+      <c r="A17" s="26"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
       <c r="K17" s="1">
         <v>15</v>
       </c>
-      <c r="L17" s="30"/>
-      <c r="M17" s="31"/>
+      <c r="L17" s="34"/>
+      <c r="M17" s="35"/>
       <c r="N17" s="3" t="s">
         <v>45</v>
       </c>
       <c r="O17" s="2"/>
-      <c r="P17" s="26" t="s">
+      <c r="P17" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="Q17" s="27"/>
-      <c r="R17" s="27"/>
-      <c r="S17" s="28"/>
+      <c r="Q17" s="29"/>
+      <c r="R17" s="29"/>
+      <c r="S17" s="30"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="33"/>
-      <c r="B18" s="33"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="33"/>
-      <c r="I18" s="33"/>
+      <c r="A18" s="26"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
       <c r="K18" s="1">
         <v>16</v>
       </c>
-      <c r="L18" s="30"/>
-      <c r="M18" s="31"/>
+      <c r="L18" s="34"/>
+      <c r="M18" s="35"/>
       <c r="N18" s="3" t="s">
         <v>46</v>
       </c>
       <c r="O18" s="3"/>
-      <c r="P18" s="26" t="s">
+      <c r="P18" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="Q18" s="27"/>
-      <c r="R18" s="27"/>
-      <c r="S18" s="28"/>
+      <c r="Q18" s="29"/>
+      <c r="R18" s="29"/>
+      <c r="S18" s="30"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="33"/>
-      <c r="B19" s="33"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="33"/>
-      <c r="I19" s="33"/>
+      <c r="A19" s="26"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="26"/>
       <c r="K19" s="1">
         <v>17</v>
       </c>
-      <c r="L19" s="24"/>
-      <c r="M19" s="25"/>
+      <c r="L19" s="36"/>
+      <c r="M19" s="37"/>
       <c r="N19" s="3" t="s">
         <v>47</v>
       </c>
       <c r="O19" s="3"/>
-      <c r="P19" s="26" t="s">
+      <c r="P19" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="Q19" s="27"/>
-      <c r="R19" s="27"/>
-      <c r="S19" s="28"/>
+      <c r="Q19" s="29"/>
+      <c r="R19" s="29"/>
+      <c r="S19" s="30"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="33"/>
-      <c r="B20" s="33"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="33"/>
-      <c r="I20" s="33"/>
+      <c r="A20" s="26"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="26"/>
       <c r="K20" s="1">
         <v>18</v>
       </c>
-      <c r="L20" s="22" t="s">
+      <c r="L20" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="M20" s="23"/>
-      <c r="N20" s="22" t="s">
+      <c r="M20" s="33"/>
+      <c r="N20" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="O20" s="23"/>
-      <c r="P20" s="29" t="s">
+      <c r="O20" s="33"/>
+      <c r="P20" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="Q20" s="29"/>
-      <c r="R20" s="29"/>
-      <c r="S20" s="29"/>
+      <c r="Q20" s="27"/>
+      <c r="R20" s="27"/>
+      <c r="S20" s="27"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="33"/>
-      <c r="B21" s="33"/>
-      <c r="C21" s="33"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="33"/>
-      <c r="G21" s="33"/>
-      <c r="H21" s="33"/>
-      <c r="I21" s="33"/>
+      <c r="A21" s="26"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="26"/>
       <c r="K21" s="1">
         <v>19</v>
       </c>
-      <c r="L21" s="30"/>
-      <c r="M21" s="31"/>
-      <c r="N21" s="30"/>
-      <c r="O21" s="31"/>
-      <c r="P21" s="29" t="s">
+      <c r="L21" s="34"/>
+      <c r="M21" s="35"/>
+      <c r="N21" s="34"/>
+      <c r="O21" s="35"/>
+      <c r="P21" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="Q21" s="29"/>
-      <c r="R21" s="29"/>
-      <c r="S21" s="29"/>
+      <c r="Q21" s="27"/>
+      <c r="R21" s="27"/>
+      <c r="S21" s="27"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="33"/>
-      <c r="B22" s="33"/>
-      <c r="C22" s="33"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="33"/>
-      <c r="I22" s="33"/>
+      <c r="A22" s="26"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="26"/>
       <c r="K22" s="1">
         <v>20</v>
       </c>
-      <c r="L22" s="30"/>
-      <c r="M22" s="31"/>
-      <c r="N22" s="30"/>
-      <c r="O22" s="31"/>
-      <c r="P22" s="29" t="s">
+      <c r="L22" s="34"/>
+      <c r="M22" s="35"/>
+      <c r="N22" s="34"/>
+      <c r="O22" s="35"/>
+      <c r="P22" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="Q22" s="29"/>
-      <c r="R22" s="29"/>
-      <c r="S22" s="29"/>
+      <c r="Q22" s="27"/>
+      <c r="R22" s="27"/>
+      <c r="S22" s="27"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="33"/>
-      <c r="B23" s="33"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="33"/>
-      <c r="I23" s="33"/>
+      <c r="A23" s="26"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="26"/>
       <c r="K23" s="1">
         <v>21</v>
       </c>
-      <c r="L23" s="30"/>
-      <c r="M23" s="31"/>
-      <c r="N23" s="30"/>
-      <c r="O23" s="31"/>
-      <c r="P23" s="26" t="s">
+      <c r="L23" s="34"/>
+      <c r="M23" s="35"/>
+      <c r="N23" s="34"/>
+      <c r="O23" s="35"/>
+      <c r="P23" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="Q23" s="27"/>
-      <c r="R23" s="27"/>
-      <c r="S23" s="28"/>
+      <c r="Q23" s="29"/>
+      <c r="R23" s="29"/>
+      <c r="S23" s="30"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="33"/>
-      <c r="B24" s="33"/>
-      <c r="C24" s="33"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="33"/>
-      <c r="I24" s="33"/>
+      <c r="A24" s="26"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="26"/>
       <c r="K24" s="1">
         <v>22</v>
       </c>
-      <c r="L24" s="30"/>
-      <c r="M24" s="31"/>
-      <c r="N24" s="30"/>
-      <c r="O24" s="31"/>
-      <c r="P24" s="26" t="s">
+      <c r="L24" s="34"/>
+      <c r="M24" s="35"/>
+      <c r="N24" s="34"/>
+      <c r="O24" s="35"/>
+      <c r="P24" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="Q24" s="27"/>
-      <c r="R24" s="27"/>
-      <c r="S24" s="28"/>
+      <c r="Q24" s="29"/>
+      <c r="R24" s="29"/>
+      <c r="S24" s="30"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25" s="33"/>
-      <c r="B25" s="33"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="33"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="33"/>
-      <c r="I25" s="33"/>
+      <c r="A25" s="26"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="26"/>
       <c r="K25" s="1">
         <v>23</v>
       </c>
-      <c r="L25" s="30"/>
-      <c r="M25" s="31"/>
-      <c r="N25" s="24"/>
-      <c r="O25" s="25"/>
-      <c r="P25" s="29" t="s">
+      <c r="L25" s="34"/>
+      <c r="M25" s="35"/>
+      <c r="N25" s="36"/>
+      <c r="O25" s="37"/>
+      <c r="P25" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="Q25" s="29"/>
-      <c r="R25" s="29"/>
-      <c r="S25" s="29"/>
+      <c r="Q25" s="27"/>
+      <c r="R25" s="27"/>
+      <c r="S25" s="27"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26" s="33"/>
-      <c r="B26" s="33"/>
-      <c r="C26" s="33"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="33"/>
-      <c r="F26" s="33"/>
-      <c r="G26" s="33"/>
-      <c r="H26" s="33"/>
-      <c r="I26" s="33"/>
+      <c r="A26" s="26"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="26"/>
       <c r="K26" s="1">
         <v>24</v>
       </c>
-      <c r="L26" s="30"/>
-      <c r="M26" s="31"/>
-      <c r="N26" s="22" t="s">
+      <c r="L26" s="34"/>
+      <c r="M26" s="35"/>
+      <c r="N26" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="O26" s="23"/>
-      <c r="P26" s="29" t="s">
+      <c r="O26" s="33"/>
+      <c r="P26" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="Q26" s="29"/>
-      <c r="R26" s="29"/>
-      <c r="S26" s="29"/>
+      <c r="Q26" s="27"/>
+      <c r="R26" s="27"/>
+      <c r="S26" s="27"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A27" s="33"/>
-      <c r="B27" s="33"/>
-      <c r="C27" s="33"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="33"/>
-      <c r="F27" s="33"/>
-      <c r="G27" s="33"/>
-      <c r="H27" s="33"/>
-      <c r="I27" s="33"/>
+      <c r="A27" s="26"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="26"/>
       <c r="K27" s="1">
         <v>25</v>
       </c>
-      <c r="L27" s="30"/>
-      <c r="M27" s="31"/>
-      <c r="N27" s="30"/>
-      <c r="O27" s="31"/>
-      <c r="P27" s="26" t="s">
+      <c r="L27" s="34"/>
+      <c r="M27" s="35"/>
+      <c r="N27" s="34"/>
+      <c r="O27" s="35"/>
+      <c r="P27" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="Q27" s="27"/>
-      <c r="R27" s="27"/>
-      <c r="S27" s="28"/>
+      <c r="Q27" s="29"/>
+      <c r="R27" s="29"/>
+      <c r="S27" s="30"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A28" s="33"/>
-      <c r="B28" s="33"/>
-      <c r="C28" s="33"/>
-      <c r="D28" s="33"/>
-      <c r="E28" s="33"/>
-      <c r="F28" s="33"/>
-      <c r="G28" s="33"/>
-      <c r="H28" s="33"/>
-      <c r="I28" s="33"/>
+      <c r="A28" s="26"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="26"/>
       <c r="K28" s="1">
         <v>26</v>
       </c>
-      <c r="L28" s="30"/>
-      <c r="M28" s="31"/>
-      <c r="N28" s="30"/>
-      <c r="O28" s="31"/>
-      <c r="P28" s="29" t="s">
+      <c r="L28" s="34"/>
+      <c r="M28" s="35"/>
+      <c r="N28" s="34"/>
+      <c r="O28" s="35"/>
+      <c r="P28" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="Q28" s="29"/>
-      <c r="R28" s="29"/>
-      <c r="S28" s="29"/>
+      <c r="Q28" s="27"/>
+      <c r="R28" s="27"/>
+      <c r="S28" s="27"/>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A29" s="33"/>
-      <c r="B29" s="33"/>
-      <c r="C29" s="33"/>
-      <c r="D29" s="33"/>
-      <c r="E29" s="33"/>
-      <c r="F29" s="33"/>
-      <c r="G29" s="33"/>
-      <c r="H29" s="33"/>
-      <c r="I29" s="33"/>
+      <c r="A29" s="26"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="26"/>
       <c r="K29" s="1">
         <v>27</v>
       </c>
-      <c r="L29" s="30"/>
-      <c r="M29" s="31"/>
-      <c r="N29" s="24"/>
-      <c r="O29" s="25"/>
-      <c r="P29" s="26" t="s">
+      <c r="L29" s="34"/>
+      <c r="M29" s="35"/>
+      <c r="N29" s="36"/>
+      <c r="O29" s="37"/>
+      <c r="P29" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="Q29" s="27"/>
-      <c r="R29" s="27"/>
-      <c r="S29" s="28"/>
+      <c r="Q29" s="29"/>
+      <c r="R29" s="29"/>
+      <c r="S29" s="30"/>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A30" s="33"/>
-      <c r="B30" s="33"/>
-      <c r="C30" s="33"/>
-      <c r="D30" s="33"/>
-      <c r="E30" s="33"/>
-      <c r="F30" s="33"/>
-      <c r="G30" s="33"/>
-      <c r="H30" s="33"/>
-      <c r="I30" s="33"/>
+      <c r="A30" s="26"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="26"/>
+      <c r="I30" s="26"/>
       <c r="K30" s="1">
         <v>28</v>
       </c>
-      <c r="L30" s="30"/>
-      <c r="M30" s="31"/>
-      <c r="N30" s="22" t="s">
+      <c r="L30" s="34"/>
+      <c r="M30" s="35"/>
+      <c r="N30" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="O30" s="23"/>
-      <c r="P30" s="26" t="s">
+      <c r="O30" s="33"/>
+      <c r="P30" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="Q30" s="27"/>
-      <c r="R30" s="27"/>
-      <c r="S30" s="28"/>
+      <c r="Q30" s="29"/>
+      <c r="R30" s="29"/>
+      <c r="S30" s="30"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A31" s="33"/>
-      <c r="B31" s="33"/>
-      <c r="C31" s="33"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="33"/>
-      <c r="F31" s="33"/>
-      <c r="G31" s="33"/>
-      <c r="H31" s="33"/>
-      <c r="I31" s="33"/>
+      <c r="A31" s="26"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="26"/>
+      <c r="I31" s="26"/>
       <c r="K31" s="1">
         <v>29</v>
       </c>
-      <c r="L31" s="30"/>
-      <c r="M31" s="31"/>
-      <c r="N31" s="24"/>
-      <c r="O31" s="25"/>
-      <c r="P31" s="26" t="s">
+      <c r="L31" s="34"/>
+      <c r="M31" s="35"/>
+      <c r="N31" s="36"/>
+      <c r="O31" s="37"/>
+      <c r="P31" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="Q31" s="27"/>
-      <c r="R31" s="27"/>
-      <c r="S31" s="28"/>
+      <c r="Q31" s="29"/>
+      <c r="R31" s="29"/>
+      <c r="S31" s="30"/>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A32" s="33"/>
-      <c r="B32" s="33"/>
-      <c r="C32" s="33"/>
-      <c r="D32" s="33"/>
-      <c r="E32" s="33"/>
-      <c r="F32" s="33"/>
-      <c r="G32" s="33"/>
-      <c r="H32" s="33"/>
-      <c r="I32" s="33"/>
+      <c r="A32" s="26"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="26"/>
+      <c r="I32" s="26"/>
       <c r="K32" s="1">
         <v>30</v>
       </c>
-      <c r="L32" s="30"/>
-      <c r="M32" s="31"/>
-      <c r="N32" s="22" t="s">
+      <c r="L32" s="34"/>
+      <c r="M32" s="35"/>
+      <c r="N32" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="O32" s="23"/>
-      <c r="P32" s="26" t="s">
+      <c r="O32" s="33"/>
+      <c r="P32" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="Q32" s="27"/>
-      <c r="R32" s="27"/>
-      <c r="S32" s="28"/>
+      <c r="Q32" s="29"/>
+      <c r="R32" s="29"/>
+      <c r="S32" s="30"/>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A33" s="33"/>
-      <c r="B33" s="33"/>
-      <c r="C33" s="33"/>
-      <c r="D33" s="33"/>
-      <c r="E33" s="33"/>
-      <c r="F33" s="33"/>
-      <c r="G33" s="33"/>
-      <c r="H33" s="33"/>
-      <c r="I33" s="33"/>
+      <c r="A33" s="26"/>
+      <c r="B33" s="26"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="26"/>
+      <c r="I33" s="26"/>
       <c r="K33" s="1">
         <v>31</v>
       </c>
-      <c r="L33" s="30"/>
-      <c r="M33" s="31"/>
-      <c r="N33" s="24"/>
-      <c r="O33" s="25"/>
-      <c r="P33" s="29" t="s">
+      <c r="L33" s="34"/>
+      <c r="M33" s="35"/>
+      <c r="N33" s="36"/>
+      <c r="O33" s="37"/>
+      <c r="P33" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="Q33" s="29"/>
-      <c r="R33" s="29"/>
-      <c r="S33" s="29"/>
+      <c r="Q33" s="27"/>
+      <c r="R33" s="27"/>
+      <c r="S33" s="27"/>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A34" s="33"/>
-      <c r="B34" s="33"/>
-      <c r="C34" s="33"/>
-      <c r="D34" s="33"/>
-      <c r="E34" s="33"/>
-      <c r="F34" s="33"/>
-      <c r="G34" s="33"/>
-      <c r="H34" s="33"/>
-      <c r="I34" s="33"/>
+      <c r="A34" s="26"/>
+      <c r="B34" s="26"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="26"/>
+      <c r="G34" s="26"/>
+      <c r="H34" s="26"/>
+      <c r="I34" s="26"/>
       <c r="K34" s="1">
         <v>32</v>
       </c>
-      <c r="L34" s="30"/>
-      <c r="M34" s="31"/>
+      <c r="L34" s="34"/>
+      <c r="M34" s="35"/>
       <c r="N34" s="3" t="s">
         <v>45</v>
       </c>
       <c r="O34" s="2"/>
-      <c r="P34" s="26" t="s">
+      <c r="P34" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="Q34" s="27"/>
-      <c r="R34" s="27"/>
-      <c r="S34" s="28"/>
+      <c r="Q34" s="29"/>
+      <c r="R34" s="29"/>
+      <c r="S34" s="30"/>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A35" s="33"/>
-      <c r="B35" s="33"/>
-      <c r="C35" s="33"/>
-      <c r="D35" s="33"/>
-      <c r="E35" s="33"/>
-      <c r="F35" s="33"/>
-      <c r="G35" s="33"/>
-      <c r="H35" s="33"/>
-      <c r="I35" s="33"/>
+      <c r="A35" s="26"/>
+      <c r="B35" s="26"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="26"/>
+      <c r="I35" s="26"/>
       <c r="K35" s="1">
         <v>33</v>
       </c>
-      <c r="L35" s="30"/>
-      <c r="M35" s="31"/>
+      <c r="L35" s="34"/>
+      <c r="M35" s="35"/>
       <c r="N35" s="3" t="s">
         <v>46</v>
       </c>
       <c r="O35" s="3"/>
-      <c r="P35" s="26" t="s">
+      <c r="P35" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="Q35" s="27"/>
-      <c r="R35" s="27"/>
-      <c r="S35" s="28"/>
+      <c r="Q35" s="29"/>
+      <c r="R35" s="29"/>
+      <c r="S35" s="30"/>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A36" s="33"/>
-      <c r="B36" s="33"/>
-      <c r="C36" s="33"/>
-      <c r="D36" s="33"/>
-      <c r="E36" s="33"/>
-      <c r="F36" s="33"/>
-      <c r="G36" s="33"/>
-      <c r="H36" s="33"/>
-      <c r="I36" s="33"/>
+      <c r="A36" s="26"/>
+      <c r="B36" s="26"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="26"/>
+      <c r="G36" s="26"/>
+      <c r="H36" s="26"/>
+      <c r="I36" s="26"/>
       <c r="K36" s="1">
         <v>34</v>
       </c>
-      <c r="L36" s="24"/>
-      <c r="M36" s="25"/>
+      <c r="L36" s="36"/>
+      <c r="M36" s="37"/>
       <c r="N36" s="3" t="s">
         <v>47</v>
       </c>
       <c r="O36" s="3"/>
-      <c r="P36" s="26" t="s">
+      <c r="P36" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="Q36" s="27"/>
-      <c r="R36" s="27"/>
-      <c r="S36" s="28"/>
+      <c r="Q36" s="29"/>
+      <c r="R36" s="29"/>
+      <c r="S36" s="30"/>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A37" s="33"/>
-      <c r="B37" s="33"/>
-      <c r="C37" s="33"/>
-      <c r="D37" s="33"/>
-      <c r="E37" s="33"/>
-      <c r="F37" s="33"/>
-      <c r="G37" s="33"/>
-      <c r="H37" s="33"/>
-      <c r="I37" s="33"/>
+      <c r="A37" s="26"/>
+      <c r="B37" s="26"/>
+      <c r="C37" s="26"/>
+      <c r="D37" s="26"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="26"/>
+      <c r="G37" s="26"/>
+      <c r="H37" s="26"/>
+      <c r="I37" s="26"/>
       <c r="K37" s="1">
         <v>35</v>
       </c>
-      <c r="L37" s="22" t="s">
+      <c r="L37" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="M37" s="23"/>
-      <c r="N37" s="22" t="s">
+      <c r="M37" s="33"/>
+      <c r="N37" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="O37" s="23"/>
-      <c r="P37" s="29" t="s">
+      <c r="O37" s="33"/>
+      <c r="P37" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="Q37" s="29"/>
-      <c r="R37" s="29"/>
-      <c r="S37" s="29"/>
+      <c r="Q37" s="27"/>
+      <c r="R37" s="27"/>
+      <c r="S37" s="27"/>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A38" s="33"/>
-      <c r="B38" s="33"/>
-      <c r="C38" s="33"/>
-      <c r="D38" s="33"/>
-      <c r="E38" s="33"/>
-      <c r="F38" s="33"/>
-      <c r="G38" s="33"/>
-      <c r="H38" s="33"/>
-      <c r="I38" s="33"/>
+      <c r="A38" s="26"/>
+      <c r="B38" s="26"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="26"/>
+      <c r="G38" s="26"/>
+      <c r="H38" s="26"/>
+      <c r="I38" s="26"/>
       <c r="K38" s="1">
         <v>36</v>
       </c>
-      <c r="L38" s="30"/>
-      <c r="M38" s="31"/>
-      <c r="N38" s="30"/>
-      <c r="O38" s="31"/>
-      <c r="P38" s="29" t="s">
+      <c r="L38" s="34"/>
+      <c r="M38" s="35"/>
+      <c r="N38" s="34"/>
+      <c r="O38" s="35"/>
+      <c r="P38" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="Q38" s="29"/>
-      <c r="R38" s="29"/>
-      <c r="S38" s="29"/>
+      <c r="Q38" s="27"/>
+      <c r="R38" s="27"/>
+      <c r="S38" s="27"/>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A39" s="33"/>
-      <c r="B39" s="33"/>
-      <c r="C39" s="33"/>
-      <c r="D39" s="33"/>
-      <c r="E39" s="33"/>
-      <c r="F39" s="33"/>
-      <c r="G39" s="33"/>
-      <c r="H39" s="33"/>
-      <c r="I39" s="33"/>
+      <c r="A39" s="26"/>
+      <c r="B39" s="26"/>
+      <c r="C39" s="26"/>
+      <c r="D39" s="26"/>
+      <c r="E39" s="26"/>
+      <c r="F39" s="26"/>
+      <c r="G39" s="26"/>
+      <c r="H39" s="26"/>
+      <c r="I39" s="26"/>
       <c r="K39" s="1">
         <v>37</v>
       </c>
-      <c r="L39" s="30"/>
-      <c r="M39" s="31"/>
-      <c r="N39" s="30"/>
-      <c r="O39" s="31"/>
-      <c r="P39" s="29" t="s">
+      <c r="L39" s="34"/>
+      <c r="M39" s="35"/>
+      <c r="N39" s="34"/>
+      <c r="O39" s="35"/>
+      <c r="P39" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="Q39" s="29"/>
-      <c r="R39" s="29"/>
-      <c r="S39" s="29"/>
+      <c r="Q39" s="27"/>
+      <c r="R39" s="27"/>
+      <c r="S39" s="27"/>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A40" s="33"/>
-      <c r="B40" s="33"/>
-      <c r="C40" s="33"/>
-      <c r="D40" s="33"/>
-      <c r="E40" s="33"/>
-      <c r="F40" s="33"/>
-      <c r="G40" s="33"/>
-      <c r="H40" s="33"/>
-      <c r="I40" s="33"/>
+      <c r="A40" s="26"/>
+      <c r="B40" s="26"/>
+      <c r="C40" s="26"/>
+      <c r="D40" s="26"/>
+      <c r="E40" s="26"/>
+      <c r="F40" s="26"/>
+      <c r="G40" s="26"/>
+      <c r="H40" s="26"/>
+      <c r="I40" s="26"/>
       <c r="K40" s="1">
         <v>38</v>
       </c>
-      <c r="L40" s="30"/>
-      <c r="M40" s="31"/>
-      <c r="N40" s="30"/>
-      <c r="O40" s="31"/>
-      <c r="P40" s="26" t="s">
+      <c r="L40" s="34"/>
+      <c r="M40" s="35"/>
+      <c r="N40" s="34"/>
+      <c r="O40" s="35"/>
+      <c r="P40" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="Q40" s="27"/>
-      <c r="R40" s="27"/>
-      <c r="S40" s="28"/>
+      <c r="Q40" s="29"/>
+      <c r="R40" s="29"/>
+      <c r="S40" s="30"/>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A41" s="33"/>
-      <c r="B41" s="33"/>
-      <c r="C41" s="33"/>
-      <c r="D41" s="33"/>
-      <c r="E41" s="33"/>
-      <c r="F41" s="33"/>
-      <c r="G41" s="33"/>
-      <c r="H41" s="33"/>
-      <c r="I41" s="33"/>
+      <c r="A41" s="26"/>
+      <c r="B41" s="26"/>
+      <c r="C41" s="26"/>
+      <c r="D41" s="26"/>
+      <c r="E41" s="26"/>
+      <c r="F41" s="26"/>
+      <c r="G41" s="26"/>
+      <c r="H41" s="26"/>
+      <c r="I41" s="26"/>
       <c r="K41" s="1">
         <v>39</v>
       </c>
-      <c r="L41" s="30"/>
-      <c r="M41" s="31"/>
-      <c r="N41" s="30"/>
-      <c r="O41" s="31"/>
-      <c r="P41" s="26" t="s">
+      <c r="L41" s="34"/>
+      <c r="M41" s="35"/>
+      <c r="N41" s="34"/>
+      <c r="O41" s="35"/>
+      <c r="P41" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="Q41" s="27"/>
-      <c r="R41" s="27"/>
-      <c r="S41" s="28"/>
+      <c r="Q41" s="29"/>
+      <c r="R41" s="29"/>
+      <c r="S41" s="30"/>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A42" s="33"/>
-      <c r="B42" s="33"/>
-      <c r="C42" s="33"/>
-      <c r="D42" s="33"/>
-      <c r="E42" s="33"/>
-      <c r="F42" s="33"/>
-      <c r="G42" s="33"/>
-      <c r="H42" s="33"/>
-      <c r="I42" s="33"/>
+      <c r="A42" s="26"/>
+      <c r="B42" s="26"/>
+      <c r="C42" s="26"/>
+      <c r="D42" s="26"/>
+      <c r="E42" s="26"/>
+      <c r="F42" s="26"/>
+      <c r="G42" s="26"/>
+      <c r="H42" s="26"/>
+      <c r="I42" s="26"/>
       <c r="K42" s="1">
         <v>40</v>
       </c>
-      <c r="L42" s="30"/>
-      <c r="M42" s="31"/>
-      <c r="N42" s="24"/>
-      <c r="O42" s="25"/>
+      <c r="L42" s="34"/>
+      <c r="M42" s="35"/>
+      <c r="N42" s="36"/>
+      <c r="O42" s="37"/>
       <c r="P42" s="2" t="s">
         <v>16</v>
       </c>
@@ -1954,595 +1977,660 @@
       <c r="S42" s="2"/>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A43" s="33"/>
-      <c r="B43" s="33"/>
-      <c r="C43" s="33"/>
-      <c r="D43" s="33"/>
-      <c r="E43" s="33"/>
-      <c r="F43" s="33"/>
-      <c r="G43" s="33"/>
-      <c r="H43" s="33"/>
-      <c r="I43" s="33"/>
+      <c r="A43" s="26"/>
+      <c r="B43" s="26"/>
+      <c r="C43" s="26"/>
+      <c r="D43" s="26"/>
+      <c r="E43" s="26"/>
+      <c r="F43" s="26"/>
+      <c r="G43" s="26"/>
+      <c r="H43" s="26"/>
+      <c r="I43" s="26"/>
       <c r="K43" s="1">
         <v>41</v>
       </c>
-      <c r="L43" s="30"/>
-      <c r="M43" s="31"/>
-      <c r="N43" s="22" t="s">
+      <c r="L43" s="34"/>
+      <c r="M43" s="35"/>
+      <c r="N43" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="O43" s="23"/>
-      <c r="P43" s="29" t="s">
+      <c r="O43" s="33"/>
+      <c r="P43" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="Q43" s="29"/>
-      <c r="R43" s="29"/>
-      <c r="S43" s="29"/>
+      <c r="Q43" s="27"/>
+      <c r="R43" s="27"/>
+      <c r="S43" s="27"/>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A44" s="33"/>
-      <c r="B44" s="33"/>
-      <c r="C44" s="33"/>
-      <c r="D44" s="33"/>
-      <c r="E44" s="33"/>
-      <c r="F44" s="33"/>
-      <c r="G44" s="33"/>
-      <c r="H44" s="33"/>
-      <c r="I44" s="33"/>
+      <c r="A44" s="26"/>
+      <c r="B44" s="26"/>
+      <c r="C44" s="26"/>
+      <c r="D44" s="26"/>
+      <c r="E44" s="26"/>
+      <c r="F44" s="26"/>
+      <c r="G44" s="26"/>
+      <c r="H44" s="26"/>
+      <c r="I44" s="26"/>
       <c r="K44" s="1">
         <v>42</v>
       </c>
-      <c r="L44" s="30"/>
-      <c r="M44" s="31"/>
-      <c r="N44" s="30"/>
-      <c r="O44" s="31"/>
-      <c r="P44" s="29" t="s">
+      <c r="L44" s="34"/>
+      <c r="M44" s="35"/>
+      <c r="N44" s="34"/>
+      <c r="O44" s="35"/>
+      <c r="P44" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="Q44" s="29"/>
-      <c r="R44" s="29"/>
-      <c r="S44" s="29"/>
+      <c r="Q44" s="27"/>
+      <c r="R44" s="27"/>
+      <c r="S44" s="27"/>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A45" s="33"/>
-      <c r="B45" s="33"/>
-      <c r="C45" s="33"/>
-      <c r="D45" s="33"/>
-      <c r="E45" s="33"/>
-      <c r="F45" s="33"/>
-      <c r="G45" s="33"/>
-      <c r="H45" s="33"/>
-      <c r="I45" s="33"/>
+      <c r="A45" s="26"/>
+      <c r="B45" s="26"/>
+      <c r="C45" s="26"/>
+      <c r="D45" s="26"/>
+      <c r="E45" s="26"/>
+      <c r="F45" s="26"/>
+      <c r="G45" s="26"/>
+      <c r="H45" s="26"/>
+      <c r="I45" s="26"/>
       <c r="K45" s="1">
         <v>43</v>
       </c>
-      <c r="L45" s="30"/>
-      <c r="M45" s="31"/>
-      <c r="N45" s="30"/>
-      <c r="O45" s="31"/>
-      <c r="P45" s="29" t="s">
+      <c r="L45" s="34"/>
+      <c r="M45" s="35"/>
+      <c r="N45" s="34"/>
+      <c r="O45" s="35"/>
+      <c r="P45" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="Q45" s="29"/>
-      <c r="R45" s="29"/>
-      <c r="S45" s="29"/>
+      <c r="Q45" s="27"/>
+      <c r="R45" s="27"/>
+      <c r="S45" s="27"/>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A46" s="33"/>
-      <c r="B46" s="33"/>
-      <c r="C46" s="33"/>
-      <c r="D46" s="33"/>
-      <c r="E46" s="33"/>
-      <c r="F46" s="33"/>
-      <c r="G46" s="33"/>
-      <c r="H46" s="33"/>
-      <c r="I46" s="33"/>
+      <c r="A46" s="26"/>
+      <c r="B46" s="26"/>
+      <c r="C46" s="26"/>
+      <c r="D46" s="26"/>
+      <c r="E46" s="26"/>
+      <c r="F46" s="26"/>
+      <c r="G46" s="26"/>
+      <c r="H46" s="26"/>
+      <c r="I46" s="26"/>
       <c r="K46" s="1">
         <v>44</v>
       </c>
-      <c r="L46" s="30"/>
-      <c r="M46" s="31"/>
-      <c r="N46" s="30"/>
-      <c r="O46" s="31"/>
-      <c r="P46" s="29" t="s">
+      <c r="L46" s="34"/>
+      <c r="M46" s="35"/>
+      <c r="N46" s="34"/>
+      <c r="O46" s="35"/>
+      <c r="P46" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="Q46" s="29"/>
-      <c r="R46" s="29"/>
-      <c r="S46" s="29"/>
+      <c r="Q46" s="27"/>
+      <c r="R46" s="27"/>
+      <c r="S46" s="27"/>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A47" s="33"/>
-      <c r="B47" s="33"/>
-      <c r="C47" s="33"/>
-      <c r="D47" s="33"/>
-      <c r="E47" s="33"/>
-      <c r="F47" s="33"/>
-      <c r="G47" s="33"/>
-      <c r="H47" s="33"/>
-      <c r="I47" s="33"/>
+      <c r="A47" s="26"/>
+      <c r="B47" s="26"/>
+      <c r="C47" s="26"/>
+      <c r="D47" s="26"/>
+      <c r="E47" s="26"/>
+      <c r="F47" s="26"/>
+      <c r="G47" s="26"/>
+      <c r="H47" s="26"/>
+      <c r="I47" s="26"/>
       <c r="K47" s="1">
         <v>45</v>
       </c>
-      <c r="L47" s="30"/>
-      <c r="M47" s="31"/>
-      <c r="N47" s="24"/>
-      <c r="O47" s="25"/>
-      <c r="P47" s="26" t="s">
+      <c r="L47" s="34"/>
+      <c r="M47" s="35"/>
+      <c r="N47" s="36"/>
+      <c r="O47" s="37"/>
+      <c r="P47" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="Q47" s="27"/>
-      <c r="R47" s="27"/>
-      <c r="S47" s="28"/>
+      <c r="Q47" s="29"/>
+      <c r="R47" s="29"/>
+      <c r="S47" s="30"/>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A48" s="33"/>
-      <c r="B48" s="33"/>
-      <c r="C48" s="33"/>
-      <c r="D48" s="33"/>
-      <c r="E48" s="33"/>
-      <c r="F48" s="33"/>
-      <c r="G48" s="33"/>
-      <c r="H48" s="33"/>
-      <c r="I48" s="33"/>
+      <c r="A48" s="26"/>
+      <c r="B48" s="26"/>
+      <c r="C48" s="26"/>
+      <c r="D48" s="26"/>
+      <c r="E48" s="26"/>
+      <c r="F48" s="26"/>
+      <c r="G48" s="26"/>
+      <c r="H48" s="26"/>
+      <c r="I48" s="26"/>
       <c r="K48" s="1">
         <v>46</v>
       </c>
-      <c r="L48" s="30"/>
-      <c r="M48" s="31"/>
-      <c r="N48" s="22" t="s">
+      <c r="L48" s="34"/>
+      <c r="M48" s="35"/>
+      <c r="N48" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="O48" s="23"/>
-      <c r="P48" s="29" t="s">
+      <c r="O48" s="33"/>
+      <c r="P48" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="Q48" s="29"/>
-      <c r="R48" s="29"/>
-      <c r="S48" s="29"/>
+      <c r="Q48" s="27"/>
+      <c r="R48" s="27"/>
+      <c r="S48" s="27"/>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A49" s="33"/>
-      <c r="B49" s="33"/>
-      <c r="C49" s="33"/>
-      <c r="D49" s="33"/>
-      <c r="E49" s="33"/>
-      <c r="F49" s="33"/>
-      <c r="G49" s="33"/>
-      <c r="H49" s="33"/>
-      <c r="I49" s="33"/>
+      <c r="A49" s="26"/>
+      <c r="B49" s="26"/>
+      <c r="C49" s="26"/>
+      <c r="D49" s="26"/>
+      <c r="E49" s="26"/>
+      <c r="F49" s="26"/>
+      <c r="G49" s="26"/>
+      <c r="H49" s="26"/>
+      <c r="I49" s="26"/>
       <c r="K49" s="1">
         <v>47</v>
       </c>
-      <c r="L49" s="30"/>
-      <c r="M49" s="31"/>
-      <c r="N49" s="30"/>
-      <c r="O49" s="31"/>
-      <c r="P49" s="29" t="s">
+      <c r="L49" s="34"/>
+      <c r="M49" s="35"/>
+      <c r="N49" s="34"/>
+      <c r="O49" s="35"/>
+      <c r="P49" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="Q49" s="29"/>
-      <c r="R49" s="29"/>
-      <c r="S49" s="29"/>
+      <c r="Q49" s="27"/>
+      <c r="R49" s="27"/>
+      <c r="S49" s="27"/>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A50" s="33"/>
-      <c r="B50" s="33"/>
-      <c r="C50" s="33"/>
-      <c r="D50" s="33"/>
-      <c r="E50" s="33"/>
-      <c r="F50" s="33"/>
-      <c r="G50" s="33"/>
-      <c r="H50" s="33"/>
-      <c r="I50" s="33"/>
+      <c r="A50" s="26"/>
+      <c r="B50" s="26"/>
+      <c r="C50" s="26"/>
+      <c r="D50" s="26"/>
+      <c r="E50" s="26"/>
+      <c r="F50" s="26"/>
+      <c r="G50" s="26"/>
+      <c r="H50" s="26"/>
+      <c r="I50" s="26"/>
       <c r="K50" s="1">
         <v>48</v>
       </c>
-      <c r="L50" s="30"/>
-      <c r="M50" s="31"/>
-      <c r="N50" s="24"/>
-      <c r="O50" s="25"/>
-      <c r="P50" s="29" t="s">
+      <c r="L50" s="34"/>
+      <c r="M50" s="35"/>
+      <c r="N50" s="36"/>
+      <c r="O50" s="37"/>
+      <c r="P50" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="Q50" s="29"/>
-      <c r="R50" s="29"/>
-      <c r="S50" s="29"/>
+      <c r="Q50" s="27"/>
+      <c r="R50" s="27"/>
+      <c r="S50" s="27"/>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A51" s="33"/>
-      <c r="B51" s="33"/>
-      <c r="C51" s="33"/>
-      <c r="D51" s="33"/>
-      <c r="E51" s="33"/>
-      <c r="F51" s="33"/>
-      <c r="G51" s="33"/>
-      <c r="H51" s="33"/>
-      <c r="I51" s="33"/>
+      <c r="A51" s="26"/>
+      <c r="B51" s="26"/>
+      <c r="C51" s="26"/>
+      <c r="D51" s="26"/>
+      <c r="E51" s="26"/>
+      <c r="F51" s="26"/>
+      <c r="G51" s="26"/>
+      <c r="H51" s="26"/>
+      <c r="I51" s="26"/>
       <c r="K51" s="1">
         <v>49</v>
       </c>
-      <c r="L51" s="30"/>
-      <c r="M51" s="31"/>
+      <c r="L51" s="34"/>
+      <c r="M51" s="35"/>
       <c r="N51" s="3" t="s">
         <v>45</v>
       </c>
       <c r="O51" s="2"/>
-      <c r="P51" s="26" t="s">
+      <c r="P51" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="Q51" s="27"/>
-      <c r="R51" s="27"/>
-      <c r="S51" s="28"/>
+      <c r="Q51" s="29"/>
+      <c r="R51" s="29"/>
+      <c r="S51" s="30"/>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A52" s="33"/>
-      <c r="B52" s="33"/>
-      <c r="C52" s="33"/>
-      <c r="D52" s="33"/>
-      <c r="E52" s="33"/>
-      <c r="F52" s="33"/>
-      <c r="G52" s="33"/>
-      <c r="H52" s="33"/>
-      <c r="I52" s="33"/>
+      <c r="A52" s="26"/>
+      <c r="B52" s="26"/>
+      <c r="C52" s="26"/>
+      <c r="D52" s="26"/>
+      <c r="E52" s="26"/>
+      <c r="F52" s="26"/>
+      <c r="G52" s="26"/>
+      <c r="H52" s="26"/>
+      <c r="I52" s="26"/>
       <c r="K52" s="1">
         <v>50</v>
       </c>
-      <c r="L52" s="30"/>
-      <c r="M52" s="31"/>
+      <c r="L52" s="34"/>
+      <c r="M52" s="35"/>
       <c r="N52" s="3" t="s">
         <v>46</v>
       </c>
       <c r="O52" s="3"/>
-      <c r="P52" s="26" t="s">
+      <c r="P52" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="Q52" s="27"/>
-      <c r="R52" s="27"/>
-      <c r="S52" s="28"/>
+      <c r="Q52" s="29"/>
+      <c r="R52" s="29"/>
+      <c r="S52" s="30"/>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A53" s="33"/>
-      <c r="B53" s="33"/>
-      <c r="C53" s="33"/>
-      <c r="D53" s="33"/>
-      <c r="E53" s="33"/>
-      <c r="F53" s="33"/>
-      <c r="G53" s="33"/>
-      <c r="H53" s="33"/>
-      <c r="I53" s="33"/>
+      <c r="A53" s="26"/>
+      <c r="B53" s="26"/>
+      <c r="C53" s="26"/>
+      <c r="D53" s="26"/>
+      <c r="E53" s="26"/>
+      <c r="F53" s="26"/>
+      <c r="G53" s="26"/>
+      <c r="H53" s="26"/>
+      <c r="I53" s="26"/>
       <c r="K53" s="1">
         <v>51</v>
       </c>
-      <c r="L53" s="30"/>
-      <c r="M53" s="31"/>
+      <c r="L53" s="34"/>
+      <c r="M53" s="35"/>
       <c r="N53" s="3" t="s">
         <v>47</v>
       </c>
       <c r="O53" s="3"/>
-      <c r="P53" s="26" t="s">
+      <c r="P53" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="Q53" s="27"/>
-      <c r="R53" s="27"/>
-      <c r="S53" s="28"/>
+      <c r="Q53" s="29"/>
+      <c r="R53" s="29"/>
+      <c r="S53" s="30"/>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A54" s="33"/>
-      <c r="B54" s="33"/>
-      <c r="C54" s="33"/>
-      <c r="D54" s="33"/>
-      <c r="E54" s="33"/>
-      <c r="F54" s="33"/>
-      <c r="G54" s="33"/>
-      <c r="H54" s="33"/>
-      <c r="I54" s="33"/>
+      <c r="A54" s="26"/>
+      <c r="B54" s="26"/>
+      <c r="C54" s="26"/>
+      <c r="D54" s="26"/>
+      <c r="E54" s="26"/>
+      <c r="F54" s="26"/>
+      <c r="G54" s="26"/>
+      <c r="H54" s="26"/>
+      <c r="I54" s="26"/>
       <c r="K54" s="1">
         <v>52</v>
       </c>
-      <c r="L54" s="30"/>
-      <c r="M54" s="31"/>
-      <c r="N54" s="22" t="s">
+      <c r="L54" s="34"/>
+      <c r="M54" s="35"/>
+      <c r="N54" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="O54" s="23"/>
-      <c r="P54" s="29" t="s">
+      <c r="O54" s="33"/>
+      <c r="P54" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="Q54" s="29"/>
-      <c r="R54" s="29"/>
-      <c r="S54" s="29"/>
+      <c r="Q54" s="27"/>
+      <c r="R54" s="27"/>
+      <c r="S54" s="27"/>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A55" s="33"/>
-      <c r="B55" s="33"/>
-      <c r="C55" s="33"/>
-      <c r="D55" s="33"/>
-      <c r="E55" s="33"/>
-      <c r="F55" s="33"/>
-      <c r="G55" s="33"/>
-      <c r="H55" s="33"/>
-      <c r="I55" s="33"/>
+      <c r="A55" s="26"/>
+      <c r="B55" s="26"/>
+      <c r="C55" s="26"/>
+      <c r="D55" s="26"/>
+      <c r="E55" s="26"/>
+      <c r="F55" s="26"/>
+      <c r="G55" s="26"/>
+      <c r="H55" s="26"/>
+      <c r="I55" s="26"/>
       <c r="K55" s="1">
         <v>53</v>
       </c>
-      <c r="L55" s="30"/>
-      <c r="M55" s="31"/>
-      <c r="N55" s="30"/>
-      <c r="O55" s="31"/>
-      <c r="P55" s="29" t="s">
+      <c r="L55" s="34"/>
+      <c r="M55" s="35"/>
+      <c r="N55" s="34"/>
+      <c r="O55" s="35"/>
+      <c r="P55" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="Q55" s="29"/>
-      <c r="R55" s="29"/>
-      <c r="S55" s="29"/>
+      <c r="Q55" s="27"/>
+      <c r="R55" s="27"/>
+      <c r="S55" s="27"/>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A56" s="33"/>
-      <c r="B56" s="33"/>
-      <c r="C56" s="33"/>
-      <c r="D56" s="33"/>
-      <c r="E56" s="33"/>
-      <c r="F56" s="33"/>
-      <c r="G56" s="33"/>
-      <c r="H56" s="33"/>
-      <c r="I56" s="33"/>
+      <c r="A56" s="26"/>
+      <c r="B56" s="26"/>
+      <c r="C56" s="26"/>
+      <c r="D56" s="26"/>
+      <c r="E56" s="26"/>
+      <c r="F56" s="26"/>
+      <c r="G56" s="26"/>
+      <c r="H56" s="26"/>
+      <c r="I56" s="26"/>
       <c r="K56" s="1">
         <v>54</v>
       </c>
-      <c r="L56" s="30"/>
-      <c r="M56" s="31"/>
-      <c r="N56" s="30"/>
-      <c r="O56" s="31"/>
-      <c r="P56" s="26" t="s">
+      <c r="L56" s="34"/>
+      <c r="M56" s="35"/>
+      <c r="N56" s="34"/>
+      <c r="O56" s="35"/>
+      <c r="P56" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="Q56" s="27"/>
-      <c r="R56" s="27"/>
-      <c r="S56" s="28"/>
+      <c r="Q56" s="29"/>
+      <c r="R56" s="29"/>
+      <c r="S56" s="30"/>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A57" s="33"/>
-      <c r="B57" s="33"/>
-      <c r="C57" s="33"/>
-      <c r="D57" s="33"/>
-      <c r="E57" s="33"/>
-      <c r="F57" s="33"/>
-      <c r="G57" s="33"/>
-      <c r="H57" s="33"/>
-      <c r="I57" s="33"/>
+      <c r="A57" s="26"/>
+      <c r="B57" s="26"/>
+      <c r="C57" s="26"/>
+      <c r="D57" s="26"/>
+      <c r="E57" s="26"/>
+      <c r="F57" s="26"/>
+      <c r="G57" s="26"/>
+      <c r="H57" s="26"/>
+      <c r="I57" s="26"/>
       <c r="K57" s="1">
         <v>55</v>
       </c>
-      <c r="L57" s="30"/>
-      <c r="M57" s="31"/>
-      <c r="N57" s="24"/>
-      <c r="O57" s="25"/>
-      <c r="P57" s="29" t="s">
+      <c r="L57" s="34"/>
+      <c r="M57" s="35"/>
+      <c r="N57" s="36"/>
+      <c r="O57" s="37"/>
+      <c r="P57" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="Q57" s="29"/>
-      <c r="R57" s="29"/>
-      <c r="S57" s="29"/>
+      <c r="Q57" s="27"/>
+      <c r="R57" s="27"/>
+      <c r="S57" s="27"/>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A58" s="33"/>
-      <c r="B58" s="33"/>
-      <c r="C58" s="33"/>
-      <c r="D58" s="33"/>
-      <c r="E58" s="33"/>
-      <c r="F58" s="33"/>
-      <c r="G58" s="33"/>
-      <c r="H58" s="33"/>
-      <c r="I58" s="33"/>
+      <c r="A58" s="26"/>
+      <c r="B58" s="26"/>
+      <c r="C58" s="26"/>
+      <c r="D58" s="26"/>
+      <c r="E58" s="26"/>
+      <c r="F58" s="26"/>
+      <c r="G58" s="26"/>
+      <c r="H58" s="26"/>
+      <c r="I58" s="26"/>
       <c r="K58" s="1">
         <v>56</v>
       </c>
-      <c r="L58" s="30"/>
-      <c r="M58" s="31"/>
-      <c r="N58" s="22" t="s">
+      <c r="L58" s="34"/>
+      <c r="M58" s="35"/>
+      <c r="N58" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="O58" s="23"/>
-      <c r="P58" s="29" t="s">
+      <c r="O58" s="33"/>
+      <c r="P58" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="Q58" s="29"/>
-      <c r="R58" s="29"/>
-      <c r="S58" s="29"/>
+      <c r="Q58" s="27"/>
+      <c r="R58" s="27"/>
+      <c r="S58" s="27"/>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A59" s="33"/>
-      <c r="B59" s="33"/>
-      <c r="C59" s="33"/>
-      <c r="D59" s="33"/>
-      <c r="E59" s="33"/>
-      <c r="F59" s="33"/>
-      <c r="G59" s="33"/>
-      <c r="H59" s="33"/>
-      <c r="I59" s="33"/>
+      <c r="A59" s="26"/>
+      <c r="B59" s="26"/>
+      <c r="C59" s="26"/>
+      <c r="D59" s="26"/>
+      <c r="E59" s="26"/>
+      <c r="F59" s="26"/>
+      <c r="G59" s="26"/>
+      <c r="H59" s="26"/>
+      <c r="I59" s="26"/>
       <c r="K59" s="1">
         <v>57</v>
       </c>
-      <c r="L59" s="30"/>
-      <c r="M59" s="31"/>
-      <c r="N59" s="30"/>
-      <c r="O59" s="31"/>
+      <c r="L59" s="34"/>
+      <c r="M59" s="35"/>
+      <c r="N59" s="34"/>
+      <c r="O59" s="35"/>
       <c r="P59" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="Q59" s="26"/>
-      <c r="R59" s="27"/>
-      <c r="S59" s="28"/>
+      <c r="Q59" s="28"/>
+      <c r="R59" s="29"/>
+      <c r="S59" s="30"/>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A60" s="33"/>
-      <c r="B60" s="33"/>
-      <c r="C60" s="33"/>
-      <c r="D60" s="33"/>
-      <c r="E60" s="33"/>
-      <c r="F60" s="33"/>
-      <c r="G60" s="33"/>
-      <c r="H60" s="33"/>
-      <c r="I60" s="33"/>
+      <c r="A60" s="26"/>
+      <c r="B60" s="26"/>
+      <c r="C60" s="26"/>
+      <c r="D60" s="26"/>
+      <c r="E60" s="26"/>
+      <c r="F60" s="26"/>
+      <c r="G60" s="26"/>
+      <c r="H60" s="26"/>
+      <c r="I60" s="26"/>
       <c r="K60" s="1">
         <v>58</v>
       </c>
-      <c r="L60" s="24"/>
-      <c r="M60" s="25"/>
-      <c r="N60" s="24"/>
-      <c r="O60" s="25"/>
-      <c r="P60" s="26" t="s">
+      <c r="L60" s="36"/>
+      <c r="M60" s="37"/>
+      <c r="N60" s="36"/>
+      <c r="O60" s="37"/>
+      <c r="P60" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="Q60" s="27"/>
-      <c r="R60" s="27"/>
-      <c r="S60" s="28"/>
+      <c r="Q60" s="29"/>
+      <c r="R60" s="29"/>
+      <c r="S60" s="30"/>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A61" s="33"/>
-      <c r="B61" s="33"/>
-      <c r="C61" s="33"/>
-      <c r="D61" s="33"/>
-      <c r="E61" s="33"/>
-      <c r="F61" s="33"/>
-      <c r="G61" s="33"/>
-      <c r="H61" s="33"/>
-      <c r="I61" s="33"/>
+      <c r="A61" s="26"/>
+      <c r="B61" s="26"/>
+      <c r="C61" s="26"/>
+      <c r="D61" s="26"/>
+      <c r="E61" s="26"/>
+      <c r="F61" s="26"/>
+      <c r="G61" s="26"/>
+      <c r="H61" s="26"/>
+      <c r="I61" s="26"/>
       <c r="J61" s="4"/>
       <c r="K61" s="1">
         <v>59</v>
       </c>
-      <c r="L61" s="22" t="s">
+      <c r="L61" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="M61" s="23"/>
+      <c r="M61" s="33"/>
       <c r="N61" s="3" t="s">
         <v>29</v>
       </c>
       <c r="O61" s="2"/>
-      <c r="P61" s="29" t="s">
+      <c r="P61" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="Q61" s="29"/>
-      <c r="R61" s="29"/>
-      <c r="S61" s="29"/>
+      <c r="Q61" s="27"/>
+      <c r="R61" s="27"/>
+      <c r="S61" s="27"/>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A62" s="33"/>
-      <c r="B62" s="33"/>
-      <c r="C62" s="33"/>
-      <c r="D62" s="33"/>
-      <c r="E62" s="33"/>
-      <c r="F62" s="33"/>
-      <c r="G62" s="33"/>
-      <c r="H62" s="33"/>
-      <c r="I62" s="33"/>
+      <c r="A62" s="26"/>
+      <c r="B62" s="26"/>
+      <c r="C62" s="26"/>
+      <c r="D62" s="26"/>
+      <c r="E62" s="26"/>
+      <c r="F62" s="26"/>
+      <c r="G62" s="26"/>
+      <c r="H62" s="26"/>
+      <c r="I62" s="26"/>
       <c r="K62" s="1">
         <v>60</v>
       </c>
-      <c r="L62" s="30"/>
-      <c r="M62" s="31"/>
-      <c r="N62" s="32" t="s">
+      <c r="L62" s="34"/>
+      <c r="M62" s="35"/>
+      <c r="N62" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="O62" s="32"/>
-      <c r="P62" s="26" t="s">
+      <c r="O62" s="31"/>
+      <c r="P62" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="Q62" s="27"/>
-      <c r="R62" s="27"/>
-      <c r="S62" s="28"/>
+      <c r="Q62" s="29"/>
+      <c r="R62" s="29"/>
+      <c r="S62" s="30"/>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A63" s="33"/>
-      <c r="B63" s="33"/>
-      <c r="C63" s="33"/>
-      <c r="D63" s="33"/>
-      <c r="E63" s="33"/>
-      <c r="F63" s="33"/>
-      <c r="G63" s="33"/>
-      <c r="H63" s="33"/>
-      <c r="I63" s="33"/>
+      <c r="A63" s="26"/>
+      <c r="B63" s="26"/>
+      <c r="C63" s="26"/>
+      <c r="D63" s="26"/>
+      <c r="E63" s="26"/>
+      <c r="F63" s="26"/>
+      <c r="G63" s="26"/>
+      <c r="H63" s="26"/>
+      <c r="I63" s="26"/>
       <c r="K63" s="1">
         <v>61</v>
       </c>
-      <c r="L63" s="30"/>
-      <c r="M63" s="31"/>
-      <c r="N63" s="32"/>
-      <c r="O63" s="32"/>
-      <c r="P63" s="26" t="s">
+      <c r="L63" s="34"/>
+      <c r="M63" s="35"/>
+      <c r="N63" s="31"/>
+      <c r="O63" s="31"/>
+      <c r="P63" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="Q63" s="27"/>
-      <c r="R63" s="27"/>
-      <c r="S63" s="28"/>
+      <c r="Q63" s="29"/>
+      <c r="R63" s="29"/>
+      <c r="S63" s="30"/>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A64" s="33"/>
-      <c r="B64" s="33"/>
-      <c r="C64" s="33"/>
-      <c r="D64" s="33"/>
-      <c r="E64" s="33"/>
-      <c r="F64" s="33"/>
-      <c r="G64" s="33"/>
-      <c r="H64" s="33"/>
-      <c r="I64" s="33"/>
+      <c r="A64" s="26"/>
+      <c r="B64" s="26"/>
+      <c r="C64" s="26"/>
+      <c r="D64" s="26"/>
+      <c r="E64" s="26"/>
+      <c r="F64" s="26"/>
+      <c r="G64" s="26"/>
+      <c r="H64" s="26"/>
+      <c r="I64" s="26"/>
       <c r="K64" s="1">
         <v>62</v>
       </c>
-      <c r="L64" s="30"/>
-      <c r="M64" s="31"/>
+      <c r="L64" s="34"/>
+      <c r="M64" s="35"/>
       <c r="N64" s="3" t="s">
         <v>15</v>
       </c>
       <c r="O64" s="2"/>
-      <c r="P64" s="29" t="s">
+      <c r="P64" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="Q64" s="29"/>
-      <c r="R64" s="29"/>
-      <c r="S64" s="29"/>
+      <c r="Q64" s="27"/>
+      <c r="R64" s="27"/>
+      <c r="S64" s="27"/>
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A65" s="33"/>
-      <c r="B65" s="33"/>
-      <c r="C65" s="33"/>
-      <c r="D65" s="33"/>
-      <c r="E65" s="33"/>
-      <c r="F65" s="33"/>
-      <c r="G65" s="33"/>
-      <c r="H65" s="33"/>
-      <c r="I65" s="33"/>
+      <c r="A65" s="26"/>
+      <c r="B65" s="26"/>
+      <c r="C65" s="26"/>
+      <c r="D65" s="26"/>
+      <c r="E65" s="26"/>
+      <c r="F65" s="26"/>
+      <c r="G65" s="26"/>
+      <c r="H65" s="26"/>
+      <c r="I65" s="26"/>
       <c r="K65" s="1">
         <v>63</v>
       </c>
-      <c r="L65" s="24"/>
-      <c r="M65" s="25"/>
+      <c r="L65" s="36"/>
+      <c r="M65" s="37"/>
       <c r="N65" s="3" t="s">
         <v>30</v>
       </c>
       <c r="O65" s="2"/>
-      <c r="P65" s="29" t="s">
+      <c r="P65" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="Q65" s="29"/>
-      <c r="R65" s="29"/>
-      <c r="S65" s="29"/>
+      <c r="Q65" s="27"/>
+      <c r="R65" s="27"/>
+      <c r="S65" s="27"/>
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A66" s="33"/>
-      <c r="B66" s="33"/>
-      <c r="C66" s="33"/>
-      <c r="D66" s="33"/>
-      <c r="E66" s="33"/>
-      <c r="F66" s="33"/>
-      <c r="G66" s="33"/>
-      <c r="H66" s="33"/>
-      <c r="I66" s="33"/>
+      <c r="A66" s="26"/>
+      <c r="B66" s="26"/>
+      <c r="C66" s="26"/>
+      <c r="D66" s="26"/>
+      <c r="E66" s="26"/>
+      <c r="F66" s="26"/>
+      <c r="G66" s="26"/>
+      <c r="H66" s="26"/>
+      <c r="I66" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="81">
+    <mergeCell ref="N30:O31"/>
+    <mergeCell ref="P30:S30"/>
+    <mergeCell ref="P31:S31"/>
+    <mergeCell ref="P36:S36"/>
+    <mergeCell ref="P41:S41"/>
+    <mergeCell ref="P38:S38"/>
+    <mergeCell ref="P39:S39"/>
+    <mergeCell ref="P32:S32"/>
+    <mergeCell ref="P35:S35"/>
+    <mergeCell ref="P34:S34"/>
+    <mergeCell ref="P63:S63"/>
+    <mergeCell ref="P62:S62"/>
+    <mergeCell ref="P60:S60"/>
+    <mergeCell ref="Q59:S59"/>
+    <mergeCell ref="P56:S56"/>
+    <mergeCell ref="P61:S61"/>
+    <mergeCell ref="P53:S53"/>
+    <mergeCell ref="P52:S52"/>
+    <mergeCell ref="P51:S51"/>
+    <mergeCell ref="P47:S47"/>
+    <mergeCell ref="P40:S40"/>
+    <mergeCell ref="P45:S45"/>
+    <mergeCell ref="P46:S46"/>
+    <mergeCell ref="P48:S48"/>
+    <mergeCell ref="P49:S49"/>
+    <mergeCell ref="P50:S50"/>
+    <mergeCell ref="P43:S43"/>
+    <mergeCell ref="P44:S44"/>
+    <mergeCell ref="P20:S20"/>
+    <mergeCell ref="P21:S21"/>
+    <mergeCell ref="P22:S22"/>
+    <mergeCell ref="P27:S27"/>
+    <mergeCell ref="P29:S29"/>
+    <mergeCell ref="P65:S65"/>
+    <mergeCell ref="L3:M19"/>
+    <mergeCell ref="N3:O8"/>
+    <mergeCell ref="N9:O12"/>
+    <mergeCell ref="N13:O14"/>
+    <mergeCell ref="N15:O16"/>
+    <mergeCell ref="L20:M36"/>
+    <mergeCell ref="N20:O25"/>
+    <mergeCell ref="N26:O29"/>
+    <mergeCell ref="N32:O33"/>
+    <mergeCell ref="L37:M60"/>
+    <mergeCell ref="N37:O42"/>
+    <mergeCell ref="N43:O47"/>
+    <mergeCell ref="N48:O50"/>
+    <mergeCell ref="N54:O57"/>
+    <mergeCell ref="L61:M65"/>
+    <mergeCell ref="P10:S10"/>
+    <mergeCell ref="P11:S11"/>
+    <mergeCell ref="N62:O63"/>
+    <mergeCell ref="P64:S64"/>
+    <mergeCell ref="N58:O60"/>
+    <mergeCell ref="P54:S54"/>
+    <mergeCell ref="P55:S55"/>
+    <mergeCell ref="P57:S57"/>
+    <mergeCell ref="P58:S58"/>
+    <mergeCell ref="P23:S23"/>
+    <mergeCell ref="P24:S24"/>
+    <mergeCell ref="P18:S18"/>
+    <mergeCell ref="P19:S19"/>
+    <mergeCell ref="P15:S15"/>
+    <mergeCell ref="P17:S17"/>
+    <mergeCell ref="P16:S16"/>
     <mergeCell ref="A2:I66"/>
     <mergeCell ref="P25:S25"/>
     <mergeCell ref="P26:S26"/>
@@ -2559,71 +2647,6 @@
     <mergeCell ref="P13:S13"/>
     <mergeCell ref="P14:S14"/>
     <mergeCell ref="P12:S12"/>
-    <mergeCell ref="P10:S10"/>
-    <mergeCell ref="P11:S11"/>
-    <mergeCell ref="N62:O63"/>
-    <mergeCell ref="P64:S64"/>
-    <mergeCell ref="N58:O60"/>
-    <mergeCell ref="P54:S54"/>
-    <mergeCell ref="P55:S55"/>
-    <mergeCell ref="P57:S57"/>
-    <mergeCell ref="P58:S58"/>
-    <mergeCell ref="P23:S23"/>
-    <mergeCell ref="P24:S24"/>
-    <mergeCell ref="P18:S18"/>
-    <mergeCell ref="P19:S19"/>
-    <mergeCell ref="P15:S15"/>
-    <mergeCell ref="P17:S17"/>
-    <mergeCell ref="P16:S16"/>
-    <mergeCell ref="P65:S65"/>
-    <mergeCell ref="L3:M19"/>
-    <mergeCell ref="N3:O8"/>
-    <mergeCell ref="N9:O12"/>
-    <mergeCell ref="N13:O14"/>
-    <mergeCell ref="N15:O16"/>
-    <mergeCell ref="L20:M36"/>
-    <mergeCell ref="N20:O25"/>
-    <mergeCell ref="N26:O29"/>
-    <mergeCell ref="N32:O33"/>
-    <mergeCell ref="L37:M60"/>
-    <mergeCell ref="N37:O42"/>
-    <mergeCell ref="N43:O47"/>
-    <mergeCell ref="N48:O50"/>
-    <mergeCell ref="N54:O57"/>
-    <mergeCell ref="L61:M65"/>
-    <mergeCell ref="P20:S20"/>
-    <mergeCell ref="P21:S21"/>
-    <mergeCell ref="P22:S22"/>
-    <mergeCell ref="P27:S27"/>
-    <mergeCell ref="P29:S29"/>
-    <mergeCell ref="P53:S53"/>
-    <mergeCell ref="P52:S52"/>
-    <mergeCell ref="P51:S51"/>
-    <mergeCell ref="P47:S47"/>
-    <mergeCell ref="P40:S40"/>
-    <mergeCell ref="P45:S45"/>
-    <mergeCell ref="P46:S46"/>
-    <mergeCell ref="P48:S48"/>
-    <mergeCell ref="P49:S49"/>
-    <mergeCell ref="P50:S50"/>
-    <mergeCell ref="P43:S43"/>
-    <mergeCell ref="P44:S44"/>
-    <mergeCell ref="P63:S63"/>
-    <mergeCell ref="P62:S62"/>
-    <mergeCell ref="P60:S60"/>
-    <mergeCell ref="Q59:S59"/>
-    <mergeCell ref="P56:S56"/>
-    <mergeCell ref="P61:S61"/>
-    <mergeCell ref="N30:O31"/>
-    <mergeCell ref="P30:S30"/>
-    <mergeCell ref="P31:S31"/>
-    <mergeCell ref="P36:S36"/>
-    <mergeCell ref="P41:S41"/>
-    <mergeCell ref="P38:S38"/>
-    <mergeCell ref="P39:S39"/>
-    <mergeCell ref="P32:S32"/>
-    <mergeCell ref="P35:S35"/>
-    <mergeCell ref="P34:S34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2632,10 +2655,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K73"/>
+  <dimension ref="A1:K75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="M61" sqref="M61"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection sqref="A1:A75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2647,20 +2670,20 @@
       <c r="A1" s="1">
         <v>1</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="22" t="s">
+      <c r="C1" s="33"/>
+      <c r="D1" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="23"/>
-      <c r="F1" s="29" t="s">
+      <c r="E1" s="33"/>
+      <c r="F1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
       <c r="J1" s="7">
         <v>1</v>
       </c>
@@ -2672,16 +2695,16 @@
       <c r="A2" s="1">
         <v>2</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="29" t="s">
+      <c r="B2" s="34"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
       <c r="J2" s="7">
         <v>2</v>
       </c>
@@ -2693,16 +2716,16 @@
       <c r="A3" s="1">
         <v>3</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="39" t="s">
+      <c r="B3" s="34"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
       <c r="J3" s="7">
         <v>3</v>
       </c>
@@ -2714,16 +2737,16 @@
       <c r="A4" s="1">
         <v>4</v>
       </c>
-      <c r="B4" s="30"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="26" t="s">
+      <c r="B4" s="34"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="28"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="30"/>
       <c r="J4" s="7">
         <v>4</v>
       </c>
@@ -2735,32 +2758,32 @@
       <c r="A5" s="1">
         <v>5</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="26" t="s">
+      <c r="B5" s="34"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="28"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="30"/>
       <c r="J5" s="7"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>6</v>
       </c>
-      <c r="B6" s="30"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="26" t="s">
+      <c r="B6" s="34"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="28"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="30"/>
       <c r="J6" s="7">
         <v>5</v>
       </c>
@@ -2772,16 +2795,16 @@
       <c r="A7" s="1">
         <v>7</v>
       </c>
-      <c r="B7" s="30"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="26" t="s">
+      <c r="B7" s="34"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="28"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="30"/>
       <c r="J7" s="7">
         <v>6</v>
       </c>
@@ -2793,18 +2816,18 @@
       <c r="A8" s="1">
         <v>8</v>
       </c>
-      <c r="B8" s="30"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="22" t="s">
+      <c r="B8" s="34"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="23"/>
-      <c r="F8" s="26" t="s">
+      <c r="E8" s="33"/>
+      <c r="F8" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="28"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="30"/>
       <c r="J8" s="7">
         <v>7</v>
       </c>
@@ -2816,16 +2839,16 @@
       <c r="A9" s="1">
         <v>9</v>
       </c>
-      <c r="B9" s="30"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="26" t="s">
+      <c r="B9" s="34"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="28"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="30"/>
       <c r="J9" s="7">
         <v>10</v>
       </c>
@@ -2837,16 +2860,16 @@
       <c r="A10" s="1">
         <v>10</v>
       </c>
-      <c r="B10" s="30"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="26" t="s">
+      <c r="B10" s="34"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="28"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="30"/>
       <c r="J10" s="7">
         <v>9</v>
       </c>
@@ -2855,16 +2878,16 @@
       <c r="A11" s="1">
         <v>11</v>
       </c>
-      <c r="B11" s="30"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="26" t="s">
+      <c r="B11" s="34"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="28"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="30"/>
       <c r="J11" s="7">
         <v>8</v>
       </c>
@@ -2873,18 +2896,18 @@
       <c r="A12" s="1">
         <v>12</v>
       </c>
-      <c r="B12" s="30"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="22" t="s">
+      <c r="B12" s="34"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="23"/>
-      <c r="F12" s="29" t="s">
+      <c r="E12" s="33"/>
+      <c r="F12" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
       <c r="J12" s="7">
         <v>11</v>
       </c>
@@ -2896,32 +2919,32 @@
       <c r="A13" s="1">
         <v>13</v>
       </c>
-      <c r="B13" s="30"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="36" t="s">
+      <c r="B13" s="34"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="G13" s="37"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="38"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="44"/>
       <c r="J13" s="7"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>14</v>
       </c>
-      <c r="B14" s="30"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="29" t="s">
+      <c r="B14" s="34"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
       <c r="J14" s="7">
         <v>12</v>
       </c>
@@ -2933,18 +2956,18 @@
       <c r="A15" s="1">
         <v>15</v>
       </c>
-      <c r="B15" s="30"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="22" t="s">
+      <c r="B15" s="34"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="E15" s="23"/>
-      <c r="F15" s="36" t="s">
+      <c r="E15" s="33"/>
+      <c r="F15" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="28"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="30"/>
       <c r="J15" s="7">
         <v>13</v>
       </c>
@@ -2953,16 +2976,16 @@
       <c r="A16" s="1">
         <v>16</v>
       </c>
-      <c r="B16" s="30"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="29" t="s">
+      <c r="B16" s="34"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
       <c r="J16" s="7">
         <v>14</v>
       </c>
@@ -2971,36 +2994,36 @@
       <c r="A17" s="1">
         <v>17</v>
       </c>
-      <c r="B17" s="30"/>
-      <c r="C17" s="31"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="35"/>
       <c r="D17" s="13" t="s">
         <v>60</v>
       </c>
       <c r="E17" s="9"/>
-      <c r="F17" s="36" t="s">
+      <c r="F17" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="G17" s="37"/>
-      <c r="H17" s="37"/>
-      <c r="I17" s="38"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="44"/>
       <c r="J17" s="7"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>18</v>
       </c>
-      <c r="B18" s="30"/>
-      <c r="C18" s="31"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="35"/>
       <c r="D18" s="6" t="s">
         <v>45</v>
       </c>
       <c r="E18" s="5"/>
-      <c r="F18" s="26" t="s">
+      <c r="F18" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="G18" s="27"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="28"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="30"/>
       <c r="J18" s="7">
         <v>15</v>
       </c>
@@ -3009,18 +3032,18 @@
       <c r="A19" s="1">
         <v>19</v>
       </c>
-      <c r="B19" s="30"/>
-      <c r="C19" s="31"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="35"/>
       <c r="D19" s="6" t="s">
         <v>46</v>
       </c>
       <c r="E19" s="6"/>
-      <c r="F19" s="26" t="s">
+      <c r="F19" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="G19" s="27"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="28"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="30"/>
       <c r="J19" s="7">
         <v>16</v>
       </c>
@@ -3032,36 +3055,36 @@
       <c r="A20" s="1">
         <v>20</v>
       </c>
-      <c r="B20" s="30"/>
-      <c r="C20" s="31"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="35"/>
       <c r="D20" s="8" t="s">
         <v>57</v>
       </c>
       <c r="E20" s="8"/>
-      <c r="F20" s="26" t="s">
+      <c r="F20" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="G20" s="27"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="28"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="30"/>
       <c r="J20" s="7"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>21</v>
       </c>
-      <c r="B21" s="24"/>
-      <c r="C21" s="25"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="37"/>
       <c r="D21" s="6" t="s">
         <v>47</v>
       </c>
       <c r="E21" s="6"/>
-      <c r="F21" s="26" t="s">
+      <c r="F21" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="28"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="30"/>
       <c r="J21" s="7">
         <v>17</v>
       </c>
@@ -3073,20 +3096,20 @@
       <c r="A22" s="1">
         <v>22</v>
       </c>
-      <c r="B22" s="22" t="s">
+      <c r="B22" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="23"/>
-      <c r="D22" s="22" t="s">
+      <c r="C22" s="33"/>
+      <c r="D22" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="E22" s="23"/>
-      <c r="F22" s="29" t="s">
+      <c r="E22" s="33"/>
+      <c r="F22" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="G22" s="29"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="29"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27"/>
       <c r="J22" s="7">
         <v>1</v>
       </c>
@@ -3098,32 +3121,32 @@
       <c r="A23" s="1">
         <v>23</v>
       </c>
-      <c r="B23" s="30"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="26" t="s">
+      <c r="B23" s="34"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="G23" s="27"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="28"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="30"/>
       <c r="J23" s="7"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>24</v>
       </c>
-      <c r="B24" s="30"/>
-      <c r="C24" s="31"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="29" t="s">
+      <c r="B24" s="34"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="G24" s="29"/>
-      <c r="H24" s="29"/>
-      <c r="I24" s="29"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="27"/>
       <c r="J24" s="7">
         <v>2</v>
       </c>
@@ -3135,16 +3158,16 @@
       <c r="A25" s="1">
         <v>25</v>
       </c>
-      <c r="B25" s="30"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="29" t="s">
+      <c r="B25" s="34"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="G25" s="29"/>
-      <c r="H25" s="29"/>
-      <c r="I25" s="29"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="27"/>
       <c r="J25" s="7">
         <v>29</v>
       </c>
@@ -3156,16 +3179,16 @@
       <c r="A26" s="1">
         <v>26</v>
       </c>
-      <c r="B26" s="30"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="31"/>
-      <c r="F26" s="26" t="s">
+      <c r="B26" s="34"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="G26" s="27"/>
-      <c r="H26" s="27"/>
-      <c r="I26" s="28"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="30"/>
       <c r="J26" s="7">
         <v>30</v>
       </c>
@@ -3177,16 +3200,16 @@
       <c r="A27" s="1">
         <v>27</v>
       </c>
-      <c r="B27" s="30"/>
-      <c r="C27" s="31"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="26" t="s">
+      <c r="B27" s="34"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="G27" s="27"/>
-      <c r="H27" s="27"/>
-      <c r="I27" s="28"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="30"/>
       <c r="J27" s="7">
         <v>3</v>
       </c>
@@ -3198,16 +3221,16 @@
       <c r="A28" s="1">
         <v>28</v>
       </c>
-      <c r="B28" s="30"/>
-      <c r="C28" s="31"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="29" t="s">
+      <c r="B28" s="34"/>
+      <c r="C28" s="35"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="G28" s="29"/>
-      <c r="H28" s="29"/>
-      <c r="I28" s="29"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="27"/>
       <c r="J28" s="7">
         <v>6</v>
       </c>
@@ -3219,18 +3242,18 @@
       <c r="A29" s="1">
         <v>29</v>
       </c>
-      <c r="B29" s="30"/>
-      <c r="C29" s="31"/>
-      <c r="D29" s="22" t="s">
+      <c r="B29" s="34"/>
+      <c r="C29" s="35"/>
+      <c r="D29" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="E29" s="23"/>
-      <c r="F29" s="29" t="s">
+      <c r="E29" s="33"/>
+      <c r="F29" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="29"/>
-      <c r="H29" s="29"/>
-      <c r="I29" s="29"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="27"/>
       <c r="J29" s="7">
         <v>7</v>
       </c>
@@ -3242,16 +3265,16 @@
       <c r="A30" s="1">
         <v>30</v>
       </c>
-      <c r="B30" s="30"/>
-      <c r="C30" s="31"/>
-      <c r="D30" s="30"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="26" t="s">
+      <c r="B30" s="34"/>
+      <c r="C30" s="35"/>
+      <c r="D30" s="34"/>
+      <c r="E30" s="35"/>
+      <c r="F30" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="G30" s="27"/>
-      <c r="H30" s="27"/>
-      <c r="I30" s="28"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="29"/>
+      <c r="I30" s="30"/>
       <c r="J30" s="7">
         <v>10</v>
       </c>
@@ -3263,16 +3286,16 @@
       <c r="A31" s="1">
         <v>31</v>
       </c>
-      <c r="B31" s="30"/>
-      <c r="C31" s="31"/>
-      <c r="D31" s="30"/>
-      <c r="E31" s="31"/>
-      <c r="F31" s="29" t="s">
+      <c r="B31" s="34"/>
+      <c r="C31" s="35"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="35"/>
+      <c r="F31" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="G31" s="29"/>
-      <c r="H31" s="29"/>
-      <c r="I31" s="29"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="27"/>
       <c r="J31" s="7">
         <v>9</v>
       </c>
@@ -3281,16 +3304,16 @@
       <c r="A32" s="1">
         <v>32</v>
       </c>
-      <c r="B32" s="30"/>
-      <c r="C32" s="31"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="26" t="s">
+      <c r="B32" s="34"/>
+      <c r="C32" s="35"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="37"/>
+      <c r="F32" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="G32" s="27"/>
-      <c r="H32" s="27"/>
-      <c r="I32" s="28"/>
+      <c r="G32" s="29"/>
+      <c r="H32" s="29"/>
+      <c r="I32" s="30"/>
       <c r="J32" s="7">
         <v>8</v>
       </c>
@@ -3299,18 +3322,18 @@
       <c r="A33" s="1">
         <v>33</v>
       </c>
-      <c r="B33" s="30"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="22" t="s">
+      <c r="B33" s="34"/>
+      <c r="C33" s="35"/>
+      <c r="D33" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="E33" s="23"/>
-      <c r="F33" s="26" t="s">
+      <c r="E33" s="33"/>
+      <c r="F33" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="G33" s="27"/>
-      <c r="H33" s="27"/>
-      <c r="I33" s="28"/>
+      <c r="G33" s="29"/>
+      <c r="H33" s="29"/>
+      <c r="I33" s="30"/>
       <c r="J33" s="7">
         <v>12</v>
       </c>
@@ -3322,10 +3345,10 @@
       <c r="A34" s="1">
         <v>34</v>
       </c>
-      <c r="B34" s="30"/>
-      <c r="C34" s="31"/>
-      <c r="D34" s="30"/>
-      <c r="E34" s="31"/>
+      <c r="B34" s="34"/>
+      <c r="C34" s="35"/>
+      <c r="D34" s="34"/>
+      <c r="E34" s="35"/>
       <c r="F34" s="12" t="s">
         <v>61</v>
       </c>
@@ -3338,16 +3361,16 @@
       <c r="A35" s="1">
         <v>35</v>
       </c>
-      <c r="B35" s="30"/>
-      <c r="C35" s="31"/>
-      <c r="D35" s="24"/>
-      <c r="E35" s="25"/>
-      <c r="F35" s="26" t="s">
+      <c r="B35" s="34"/>
+      <c r="C35" s="35"/>
+      <c r="D35" s="36"/>
+      <c r="E35" s="37"/>
+      <c r="F35" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="G35" s="27"/>
-      <c r="H35" s="27"/>
-      <c r="I35" s="28"/>
+      <c r="G35" s="29"/>
+      <c r="H35" s="29"/>
+      <c r="I35" s="30"/>
       <c r="J35" s="7">
         <v>11</v>
       </c>
@@ -3359,18 +3382,18 @@
       <c r="A36" s="1">
         <v>36</v>
       </c>
-      <c r="B36" s="30"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="22" t="s">
+      <c r="B36" s="34"/>
+      <c r="C36" s="35"/>
+      <c r="D36" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="E36" s="23"/>
-      <c r="F36" s="36" t="s">
+      <c r="E36" s="33"/>
+      <c r="F36" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="G36" s="27"/>
-      <c r="H36" s="27"/>
-      <c r="I36" s="28"/>
+      <c r="G36" s="29"/>
+      <c r="H36" s="29"/>
+      <c r="I36" s="30"/>
       <c r="J36" s="7">
         <v>13</v>
       </c>
@@ -3379,16 +3402,16 @@
       <c r="A37" s="1">
         <v>37</v>
       </c>
-      <c r="B37" s="30"/>
-      <c r="C37" s="31"/>
-      <c r="D37" s="24"/>
-      <c r="E37" s="25"/>
-      <c r="F37" s="29" t="s">
+      <c r="B37" s="34"/>
+      <c r="C37" s="35"/>
+      <c r="D37" s="36"/>
+      <c r="E37" s="37"/>
+      <c r="F37" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="G37" s="29"/>
-      <c r="H37" s="29"/>
-      <c r="I37" s="29"/>
+      <c r="G37" s="27"/>
+      <c r="H37" s="27"/>
+      <c r="I37" s="27"/>
       <c r="J37" s="7">
         <v>14</v>
       </c>
@@ -3397,18 +3420,18 @@
       <c r="A38" s="1">
         <v>38</v>
       </c>
-      <c r="B38" s="30"/>
-      <c r="C38" s="31"/>
+      <c r="B38" s="34"/>
+      <c r="C38" s="35"/>
       <c r="D38" s="6" t="s">
         <v>45</v>
       </c>
       <c r="E38" s="5"/>
-      <c r="F38" s="26" t="s">
+      <c r="F38" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="G38" s="27"/>
-      <c r="H38" s="27"/>
-      <c r="I38" s="28"/>
+      <c r="G38" s="29"/>
+      <c r="H38" s="29"/>
+      <c r="I38" s="30"/>
       <c r="J38" s="7">
         <v>15</v>
       </c>
@@ -3417,18 +3440,18 @@
       <c r="A39" s="1">
         <v>39</v>
       </c>
-      <c r="B39" s="30"/>
-      <c r="C39" s="31"/>
+      <c r="B39" s="34"/>
+      <c r="C39" s="35"/>
       <c r="D39" s="6" t="s">
         <v>46</v>
       </c>
       <c r="E39" s="6"/>
-      <c r="F39" s="26" t="s">
+      <c r="F39" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="G39" s="27"/>
-      <c r="H39" s="27"/>
-      <c r="I39" s="28"/>
+      <c r="G39" s="29"/>
+      <c r="H39" s="29"/>
+      <c r="I39" s="30"/>
       <c r="J39" s="7">
         <v>16</v>
       </c>
@@ -3440,36 +3463,36 @@
       <c r="A40" s="1">
         <v>40</v>
       </c>
-      <c r="B40" s="30"/>
-      <c r="C40" s="31"/>
+      <c r="B40" s="34"/>
+      <c r="C40" s="35"/>
       <c r="D40" s="8" t="s">
         <v>58</v>
       </c>
       <c r="E40" s="8"/>
-      <c r="F40" s="26" t="s">
+      <c r="F40" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="G40" s="27"/>
-      <c r="H40" s="27"/>
-      <c r="I40" s="28"/>
+      <c r="G40" s="29"/>
+      <c r="H40" s="29"/>
+      <c r="I40" s="30"/>
       <c r="J40" s="7"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>41</v>
       </c>
-      <c r="B41" s="24"/>
-      <c r="C41" s="25"/>
+      <c r="B41" s="36"/>
+      <c r="C41" s="37"/>
       <c r="D41" s="6" t="s">
         <v>47</v>
       </c>
       <c r="E41" s="6"/>
-      <c r="F41" s="26" t="s">
+      <c r="F41" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="G41" s="27"/>
-      <c r="H41" s="27"/>
-      <c r="I41" s="28"/>
+      <c r="G41" s="29"/>
+      <c r="H41" s="29"/>
+      <c r="I41" s="30"/>
       <c r="J41" s="7">
         <v>17</v>
       </c>
@@ -3481,20 +3504,20 @@
       <c r="A42" s="1">
         <v>42</v>
       </c>
-      <c r="B42" s="22" t="s">
+      <c r="B42" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="C42" s="23"/>
-      <c r="D42" s="22" t="s">
+      <c r="C42" s="33"/>
+      <c r="D42" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="E42" s="23"/>
-      <c r="F42" s="29" t="s">
+      <c r="E42" s="33"/>
+      <c r="F42" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="G42" s="29"/>
-      <c r="H42" s="29"/>
-      <c r="I42" s="29"/>
+      <c r="G42" s="27"/>
+      <c r="H42" s="27"/>
+      <c r="I42" s="27"/>
       <c r="J42" s="7">
         <v>2</v>
       </c>
@@ -3506,16 +3529,16 @@
       <c r="A43" s="1">
         <v>43</v>
       </c>
-      <c r="B43" s="30"/>
-      <c r="C43" s="31"/>
-      <c r="D43" s="30"/>
-      <c r="E43" s="31"/>
-      <c r="F43" s="29" t="s">
+      <c r="B43" s="34"/>
+      <c r="C43" s="35"/>
+      <c r="D43" s="34"/>
+      <c r="E43" s="35"/>
+      <c r="F43" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="G43" s="29"/>
-      <c r="H43" s="29"/>
-      <c r="I43" s="29"/>
+      <c r="G43" s="27"/>
+      <c r="H43" s="27"/>
+      <c r="I43" s="27"/>
       <c r="J43" s="7">
         <v>1</v>
       </c>
@@ -3527,16 +3550,16 @@
       <c r="A44" s="1">
         <v>44</v>
       </c>
-      <c r="B44" s="30"/>
-      <c r="C44" s="31"/>
-      <c r="D44" s="30"/>
-      <c r="E44" s="31"/>
-      <c r="F44" s="29" t="s">
+      <c r="B44" s="34"/>
+      <c r="C44" s="35"/>
+      <c r="D44" s="34"/>
+      <c r="E44" s="35"/>
+      <c r="F44" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="G44" s="29"/>
-      <c r="H44" s="29"/>
-      <c r="I44" s="29"/>
+      <c r="G44" s="27"/>
+      <c r="H44" s="27"/>
+      <c r="I44" s="27"/>
       <c r="J44" s="7">
         <v>3</v>
       </c>
@@ -3548,16 +3571,16 @@
       <c r="A45" s="1">
         <v>45</v>
       </c>
-      <c r="B45" s="30"/>
-      <c r="C45" s="31"/>
-      <c r="D45" s="30"/>
-      <c r="E45" s="31"/>
-      <c r="F45" s="26" t="s">
+      <c r="B45" s="34"/>
+      <c r="C45" s="35"/>
+      <c r="D45" s="34"/>
+      <c r="E45" s="35"/>
+      <c r="F45" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="G45" s="27"/>
-      <c r="H45" s="27"/>
-      <c r="I45" s="28"/>
+      <c r="G45" s="29"/>
+      <c r="H45" s="29"/>
+      <c r="I45" s="30"/>
       <c r="J45" s="7">
         <v>4</v>
       </c>
@@ -3569,16 +3592,16 @@
       <c r="A46" s="1">
         <v>46</v>
       </c>
-      <c r="B46" s="30"/>
-      <c r="C46" s="31"/>
-      <c r="D46" s="30"/>
-      <c r="E46" s="31"/>
-      <c r="F46" s="26" t="s">
+      <c r="B46" s="34"/>
+      <c r="C46" s="35"/>
+      <c r="D46" s="34"/>
+      <c r="E46" s="35"/>
+      <c r="F46" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="G46" s="27"/>
-      <c r="H46" s="27"/>
-      <c r="I46" s="28"/>
+      <c r="G46" s="29"/>
+      <c r="H46" s="29"/>
+      <c r="I46" s="30"/>
       <c r="J46" s="7">
         <v>18</v>
       </c>
@@ -3590,10 +3613,10 @@
       <c r="A47" s="1">
         <v>47</v>
       </c>
-      <c r="B47" s="30"/>
-      <c r="C47" s="31"/>
-      <c r="D47" s="24"/>
-      <c r="E47" s="25"/>
+      <c r="B47" s="34"/>
+      <c r="C47" s="35"/>
+      <c r="D47" s="36"/>
+      <c r="E47" s="37"/>
       <c r="F47" s="5" t="s">
         <v>16</v>
       </c>
@@ -3611,18 +3634,18 @@
       <c r="A48" s="1">
         <v>48</v>
       </c>
-      <c r="B48" s="30"/>
-      <c r="C48" s="31"/>
-      <c r="D48" s="22" t="s">
+      <c r="B48" s="34"/>
+      <c r="C48" s="35"/>
+      <c r="D48" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="E48" s="23"/>
-      <c r="F48" s="29" t="s">
+      <c r="E48" s="33"/>
+      <c r="F48" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="G48" s="29"/>
-      <c r="H48" s="29"/>
-      <c r="I48" s="29"/>
+      <c r="G48" s="27"/>
+      <c r="H48" s="27"/>
+      <c r="I48" s="27"/>
       <c r="J48" s="7">
         <v>20</v>
       </c>
@@ -3634,16 +3657,16 @@
       <c r="A49" s="1">
         <v>49</v>
       </c>
-      <c r="B49" s="30"/>
-      <c r="C49" s="31"/>
-      <c r="D49" s="30"/>
-      <c r="E49" s="31"/>
-      <c r="F49" s="29" t="s">
+      <c r="B49" s="34"/>
+      <c r="C49" s="35"/>
+      <c r="D49" s="34"/>
+      <c r="E49" s="35"/>
+      <c r="F49" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="G49" s="29"/>
-      <c r="H49" s="29"/>
-      <c r="I49" s="29"/>
+      <c r="G49" s="50"/>
+      <c r="H49" s="51"/>
+      <c r="I49" s="52"/>
       <c r="J49" s="7">
         <v>21</v>
       </c>
@@ -3655,60 +3678,50 @@
       <c r="A50" s="1">
         <v>50</v>
       </c>
-      <c r="B50" s="30"/>
-      <c r="C50" s="31"/>
-      <c r="D50" s="30"/>
-      <c r="E50" s="31"/>
-      <c r="F50" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="G50" s="29"/>
-      <c r="H50" s="29"/>
-      <c r="I50" s="29"/>
-      <c r="J50" s="7">
-        <v>22</v>
-      </c>
-      <c r="K50" t="s">
-        <v>55</v>
-      </c>
+      <c r="B50" s="34"/>
+      <c r="C50" s="35"/>
+      <c r="D50" s="34"/>
+      <c r="E50" s="35"/>
+      <c r="F50" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="G50" s="56"/>
+      <c r="H50" s="56"/>
+      <c r="I50" s="57"/>
+      <c r="J50" s="7"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>51</v>
       </c>
-      <c r="B51" s="30"/>
-      <c r="C51" s="31"/>
-      <c r="D51" s="30"/>
-      <c r="E51" s="31"/>
-      <c r="F51" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="G51" s="29"/>
-      <c r="H51" s="29"/>
-      <c r="I51" s="29"/>
-      <c r="J51" s="7">
-        <v>23</v>
-      </c>
-      <c r="K51" t="s">
-        <v>55</v>
-      </c>
+      <c r="B51" s="34"/>
+      <c r="C51" s="35"/>
+      <c r="D51" s="34"/>
+      <c r="E51" s="35"/>
+      <c r="F51" s="53" t="s">
+        <v>67</v>
+      </c>
+      <c r="G51" s="54"/>
+      <c r="H51" s="54"/>
+      <c r="I51" s="55"/>
+      <c r="J51" s="7"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>52</v>
       </c>
-      <c r="B52" s="30"/>
-      <c r="C52" s="31"/>
-      <c r="D52" s="24"/>
-      <c r="E52" s="25"/>
-      <c r="F52" s="26" t="s">
-        <v>56</v>
+      <c r="B52" s="34"/>
+      <c r="C52" s="35"/>
+      <c r="D52" s="34"/>
+      <c r="E52" s="35"/>
+      <c r="F52" s="27" t="s">
+        <v>20</v>
       </c>
       <c r="G52" s="27"/>
       <c r="H52" s="27"/>
-      <c r="I52" s="28"/>
+      <c r="I52" s="27"/>
       <c r="J52" s="7">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="K52" t="s">
         <v>55</v>
@@ -3718,216 +3731,211 @@
       <c r="A53" s="1">
         <v>53</v>
       </c>
-      <c r="B53" s="30"/>
-      <c r="C53" s="31"/>
-      <c r="D53" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="E53" s="23"/>
-      <c r="F53" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="G53" s="29"/>
-      <c r="H53" s="29"/>
-      <c r="I53" s="29"/>
+      <c r="B53" s="34"/>
+      <c r="C53" s="35"/>
+      <c r="D53" s="34"/>
+      <c r="E53" s="35"/>
+      <c r="F53" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="G53" s="27"/>
+      <c r="H53" s="27"/>
+      <c r="I53" s="27"/>
       <c r="J53" s="7">
-        <v>14</v>
+        <v>23</v>
+      </c>
+      <c r="K53" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>54</v>
       </c>
-      <c r="B54" s="30"/>
-      <c r="C54" s="31"/>
-      <c r="D54" s="30"/>
-      <c r="E54" s="31"/>
-      <c r="F54" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="G54" s="27"/>
-      <c r="H54" s="27"/>
-      <c r="I54" s="28"/>
-      <c r="J54" s="7"/>
+      <c r="B54" s="34"/>
+      <c r="C54" s="35"/>
+      <c r="D54" s="36"/>
+      <c r="E54" s="37"/>
+      <c r="F54" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="G54" s="29"/>
+      <c r="H54" s="29"/>
+      <c r="I54" s="30"/>
+      <c r="J54" s="7">
+        <v>24</v>
+      </c>
+      <c r="K54" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>55</v>
       </c>
-      <c r="B55" s="30"/>
-      <c r="C55" s="31"/>
-      <c r="D55" s="30"/>
-      <c r="E55" s="31"/>
-      <c r="F55" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="G55" s="29"/>
-      <c r="H55" s="29"/>
-      <c r="I55" s="29"/>
+      <c r="B55" s="34"/>
+      <c r="C55" s="35"/>
+      <c r="D55" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="E55" s="33"/>
+      <c r="F55" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="G55" s="27"/>
+      <c r="H55" s="27"/>
+      <c r="I55" s="27"/>
       <c r="J55" s="7">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>56</v>
       </c>
-      <c r="B56" s="30"/>
-      <c r="C56" s="31"/>
-      <c r="D56" s="24"/>
-      <c r="E56" s="25"/>
-      <c r="F56" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="G56" s="27"/>
-      <c r="H56" s="27"/>
-      <c r="I56" s="28"/>
-      <c r="J56" s="7">
-        <v>13</v>
-      </c>
+      <c r="B56" s="34"/>
+      <c r="C56" s="35"/>
+      <c r="D56" s="34"/>
+      <c r="E56" s="35"/>
+      <c r="F56" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="G56" s="18"/>
+      <c r="H56" s="18"/>
+      <c r="I56" s="19"/>
+      <c r="J56" s="7"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>57</v>
       </c>
-      <c r="B57" s="30"/>
-      <c r="C57" s="31"/>
-      <c r="D57" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E57" s="5"/>
-      <c r="F57" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="G57" s="27"/>
-      <c r="H57" s="27"/>
-      <c r="I57" s="28"/>
-      <c r="J57" s="7">
-        <v>15</v>
-      </c>
+      <c r="B57" s="34"/>
+      <c r="C57" s="35"/>
+      <c r="D57" s="34"/>
+      <c r="E57" s="35"/>
+      <c r="F57" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="G57" s="29"/>
+      <c r="H57" s="29"/>
+      <c r="I57" s="30"/>
+      <c r="J57" s="7"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>58</v>
       </c>
-      <c r="B58" s="30"/>
-      <c r="C58" s="31"/>
-      <c r="D58" s="34" t="s">
-        <v>46</v>
-      </c>
+      <c r="B58" s="34"/>
+      <c r="C58" s="35"/>
+      <c r="D58" s="34"/>
       <c r="E58" s="35"/>
-      <c r="F58" s="26" t="s">
-        <v>46</v>
+      <c r="F58" s="27" t="s">
+        <v>23</v>
       </c>
       <c r="G58" s="27"/>
       <c r="H58" s="27"/>
-      <c r="I58" s="28"/>
+      <c r="I58" s="27"/>
       <c r="J58" s="7">
-        <v>16</v>
-      </c>
-      <c r="K58" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" s="51" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="45"/>
-      <c r="B59" s="30"/>
-      <c r="C59" s="31"/>
-      <c r="D59" s="46" t="s">
-        <v>66</v>
-      </c>
-      <c r="E59" s="47"/>
-      <c r="F59" s="44" t="s">
-        <v>66</v>
-      </c>
-      <c r="G59" s="48"/>
-      <c r="H59" s="48"/>
-      <c r="I59" s="49"/>
-      <c r="J59" s="50"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>59</v>
+      </c>
+      <c r="B59" s="34"/>
+      <c r="C59" s="35"/>
+      <c r="D59" s="36"/>
+      <c r="E59" s="37"/>
+      <c r="F59" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="G59" s="29"/>
+      <c r="H59" s="29"/>
+      <c r="I59" s="30"/>
+      <c r="J59" s="7">
+        <v>13</v>
+      </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>59</v>
-      </c>
-      <c r="B60" s="30"/>
-      <c r="C60" s="31"/>
+        <v>60</v>
+      </c>
+      <c r="B60" s="34"/>
+      <c r="C60" s="35"/>
       <c r="D60" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E60" s="6"/>
-      <c r="F60" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="G60" s="27"/>
-      <c r="H60" s="27"/>
-      <c r="I60" s="28"/>
+        <v>45</v>
+      </c>
+      <c r="E60" s="5"/>
+      <c r="F60" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="G60" s="29"/>
+      <c r="H60" s="29"/>
+      <c r="I60" s="30"/>
       <c r="J60" s="7">
-        <v>17</v>
-      </c>
-      <c r="K60" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>60</v>
-      </c>
-      <c r="B61" s="30"/>
-      <c r="C61" s="31"/>
-      <c r="D61" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="E61" s="23"/>
-      <c r="F61" s="29" t="s">
-        <v>26</v>
+        <v>61</v>
+      </c>
+      <c r="B61" s="34"/>
+      <c r="C61" s="35"/>
+      <c r="D61" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="E61" s="49"/>
+      <c r="F61" s="28" t="s">
+        <v>46</v>
       </c>
       <c r="G61" s="29"/>
       <c r="H61" s="29"/>
-      <c r="I61" s="29"/>
+      <c r="I61" s="30"/>
       <c r="J61" s="7">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="K61" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>61</v>
-      </c>
-      <c r="B62" s="30"/>
-      <c r="C62" s="31"/>
-      <c r="D62" s="30"/>
-      <c r="E62" s="31"/>
-      <c r="F62" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="G62" s="27"/>
-      <c r="H62" s="27"/>
-      <c r="I62" s="28"/>
-      <c r="J62" s="7">
-        <v>27</v>
-      </c>
-      <c r="K62" t="s">
-        <v>55</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="B62" s="34"/>
+      <c r="C62" s="35"/>
+      <c r="D62" s="46" t="s">
+        <v>65</v>
+      </c>
+      <c r="E62" s="47"/>
+      <c r="F62" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="G62" s="22"/>
+      <c r="H62" s="22"/>
+      <c r="I62" s="23"/>
+      <c r="J62" s="24"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>62</v>
-      </c>
-      <c r="B63" s="30"/>
-      <c r="C63" s="31"/>
-      <c r="D63" s="24"/>
-      <c r="E63" s="25"/>
-      <c r="F63" s="29" t="s">
-        <v>12</v>
+        <v>63</v>
+      </c>
+      <c r="B63" s="34"/>
+      <c r="C63" s="35"/>
+      <c r="D63" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E63" s="6"/>
+      <c r="F63" s="28" t="s">
+        <v>48</v>
       </c>
       <c r="G63" s="29"/>
       <c r="H63" s="29"/>
-      <c r="I63" s="29"/>
+      <c r="I63" s="30"/>
       <c r="J63" s="7">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="K63" t="s">
         <v>55</v>
@@ -3935,22 +3943,22 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>63</v>
-      </c>
-      <c r="B64" s="30"/>
-      <c r="C64" s="31"/>
-      <c r="D64" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="E64" s="23"/>
-      <c r="F64" s="26" t="s">
-        <v>54</v>
+        <v>64</v>
+      </c>
+      <c r="B64" s="34"/>
+      <c r="C64" s="35"/>
+      <c r="D64" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="E64" s="33"/>
+      <c r="F64" s="27" t="s">
+        <v>26</v>
       </c>
       <c r="G64" s="27"/>
       <c r="H64" s="27"/>
-      <c r="I64" s="28"/>
+      <c r="I64" s="27"/>
       <c r="J64" s="7">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="K64" t="s">
         <v>55</v>
@@ -3958,20 +3966,20 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>64</v>
-      </c>
-      <c r="B65" s="30"/>
-      <c r="C65" s="31"/>
-      <c r="D65" s="30"/>
-      <c r="E65" s="31"/>
-      <c r="F65" s="29" t="s">
-        <v>8</v>
+        <v>65</v>
+      </c>
+      <c r="B65" s="34"/>
+      <c r="C65" s="35"/>
+      <c r="D65" s="34"/>
+      <c r="E65" s="35"/>
+      <c r="F65" s="28" t="s">
+        <v>36</v>
       </c>
       <c r="G65" s="29"/>
       <c r="H65" s="29"/>
-      <c r="I65" s="29"/>
+      <c r="I65" s="30"/>
       <c r="J65" s="7">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="K65" t="s">
         <v>55</v>
@@ -3979,190 +3987,246 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>65</v>
-      </c>
-      <c r="B66" s="30"/>
-      <c r="C66" s="31"/>
-      <c r="D66" s="30"/>
-      <c r="E66" s="31"/>
-      <c r="F66" s="26" t="s">
-        <v>44</v>
+        <v>66</v>
+      </c>
+      <c r="B66" s="34"/>
+      <c r="C66" s="35"/>
+      <c r="D66" s="36"/>
+      <c r="E66" s="37"/>
+      <c r="F66" s="27" t="s">
+        <v>12</v>
       </c>
       <c r="G66" s="27"/>
       <c r="H66" s="27"/>
-      <c r="I66" s="28"/>
+      <c r="I66" s="27"/>
       <c r="J66" s="7">
-        <v>8</v>
+        <v>12</v>
+      </c>
+      <c r="K66" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>66</v>
-      </c>
-      <c r="B67" s="24"/>
-      <c r="C67" s="25"/>
-      <c r="D67" s="24"/>
-      <c r="E67" s="25"/>
-      <c r="F67" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="G67" s="27"/>
-      <c r="H67" s="27"/>
-      <c r="I67" s="28"/>
+        <v>67</v>
+      </c>
+      <c r="B67" s="34"/>
+      <c r="C67" s="35"/>
+      <c r="D67" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="E67" s="33"/>
+      <c r="F67" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="G67" s="29"/>
+      <c r="H67" s="29"/>
+      <c r="I67" s="30"/>
       <c r="J67" s="7">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="K67" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A68" s="1"/>
-      <c r="B68" s="17"/>
-      <c r="C68" s="18"/>
-      <c r="D68" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="E68" s="23"/>
-      <c r="F68" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="G68" s="20"/>
-      <c r="H68" s="20"/>
-      <c r="I68" s="21"/>
-      <c r="J68" s="7"/>
+      <c r="A68" s="1">
+        <v>68</v>
+      </c>
+      <c r="B68" s="34"/>
+      <c r="C68" s="35"/>
+      <c r="D68" s="34"/>
+      <c r="E68" s="35"/>
+      <c r="F68" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="G68" s="27"/>
+      <c r="H68" s="27"/>
+      <c r="I68" s="27"/>
+      <c r="J68" s="7">
+        <v>7</v>
+      </c>
+      <c r="K68" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>67</v>
-      </c>
-      <c r="B69" s="30"/>
-      <c r="C69" s="31"/>
-      <c r="D69" s="30"/>
-      <c r="E69" s="31"/>
-      <c r="F69" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="G69" s="27"/>
-      <c r="H69" s="27"/>
-      <c r="I69" s="28"/>
+        <v>69</v>
+      </c>
+      <c r="B69" s="34"/>
+      <c r="C69" s="35"/>
+      <c r="D69" s="34"/>
+      <c r="E69" s="35"/>
+      <c r="F69" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="G69" s="29"/>
+      <c r="H69" s="29"/>
+      <c r="I69" s="30"/>
       <c r="J69" s="7">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>68</v>
-      </c>
-      <c r="B70" s="30"/>
-      <c r="C70" s="31"/>
-      <c r="D70" s="24"/>
-      <c r="E70" s="25"/>
-      <c r="F70" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="G70" s="27"/>
-      <c r="H70" s="27"/>
-      <c r="I70" s="28"/>
+        <v>70</v>
+      </c>
+      <c r="B70" s="36"/>
+      <c r="C70" s="37"/>
+      <c r="D70" s="36"/>
+      <c r="E70" s="37"/>
+      <c r="F70" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="G70" s="29"/>
+      <c r="H70" s="29"/>
+      <c r="I70" s="30"/>
       <c r="J70" s="7">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>69</v>
-      </c>
-      <c r="B71" s="30"/>
-      <c r="C71" s="31"/>
-      <c r="D71" s="40" t="s">
-        <v>64</v>
-      </c>
-      <c r="E71" s="41"/>
-      <c r="F71" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="G71" s="14"/>
-      <c r="H71" s="14"/>
-      <c r="I71" s="15"/>
-      <c r="J71" s="7"/>
+        <v>71</v>
+      </c>
+      <c r="B71" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="C71" s="35"/>
+      <c r="D71" s="34"/>
+      <c r="E71" s="35"/>
+      <c r="F71" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="G71" s="29"/>
+      <c r="H71" s="29"/>
+      <c r="I71" s="30"/>
+      <c r="J71" s="7">
+        <v>14</v>
+      </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>70</v>
-      </c>
-      <c r="B72" s="30"/>
-      <c r="C72" s="31"/>
-      <c r="D72" s="42"/>
-      <c r="E72" s="43"/>
-      <c r="F72" s="29" t="s">
-        <v>15</v>
+        <v>72</v>
+      </c>
+      <c r="B72" s="34"/>
+      <c r="C72" s="35"/>
+      <c r="D72" s="36"/>
+      <c r="E72" s="37"/>
+      <c r="F72" s="38" t="s">
+        <v>59</v>
       </c>
       <c r="G72" s="29"/>
       <c r="H72" s="29"/>
-      <c r="I72" s="29"/>
+      <c r="I72" s="30"/>
       <c r="J72" s="7">
-        <v>3</v>
-      </c>
-      <c r="K72" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <v>71</v>
-      </c>
-      <c r="B73" s="24"/>
-      <c r="C73" s="25"/>
-      <c r="D73" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B73" s="34"/>
+      <c r="C73" s="35"/>
+      <c r="D73" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="E73" s="40"/>
+      <c r="F73" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="G73" s="14"/>
+      <c r="H73" s="14"/>
+      <c r="I73" s="15"/>
+      <c r="J73" s="7"/>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>74</v>
+      </c>
+      <c r="B74" s="34"/>
+      <c r="C74" s="35"/>
+      <c r="D74" s="41"/>
+      <c r="E74" s="42"/>
+      <c r="F74" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="G74" s="27"/>
+      <c r="H74" s="27"/>
+      <c r="I74" s="27"/>
+      <c r="J74" s="7">
+        <v>3</v>
+      </c>
+      <c r="K74" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>75</v>
+      </c>
+      <c r="B75" s="36"/>
+      <c r="C75" s="37"/>
+      <c r="D75" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E73" s="5"/>
-      <c r="F73" s="26" t="s">
+      <c r="E75" s="5"/>
+      <c r="F75" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="G73" s="27"/>
-      <c r="H73" s="27"/>
-      <c r="I73" s="28"/>
-      <c r="J73" s="7">
+      <c r="G75" s="29"/>
+      <c r="H75" s="29"/>
+      <c r="I75" s="30"/>
+      <c r="J75" s="7">
         <v>28</v>
       </c>
-      <c r="K73" t="s">
+      <c r="K75" t="s">
         <v>55</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="89">
-    <mergeCell ref="F63:I63"/>
-    <mergeCell ref="B69:C73"/>
-    <mergeCell ref="F69:I69"/>
-    <mergeCell ref="F70:I70"/>
-    <mergeCell ref="F72:I72"/>
-    <mergeCell ref="F73:I73"/>
-    <mergeCell ref="D71:E72"/>
-    <mergeCell ref="F66:I66"/>
-    <mergeCell ref="F64:I64"/>
-    <mergeCell ref="D64:E67"/>
-    <mergeCell ref="F65:I65"/>
-    <mergeCell ref="F67:I67"/>
-    <mergeCell ref="D68:E70"/>
-    <mergeCell ref="B42:C67"/>
-    <mergeCell ref="D42:E47"/>
-    <mergeCell ref="F42:I42"/>
-    <mergeCell ref="F43:I43"/>
-    <mergeCell ref="F44:I44"/>
-    <mergeCell ref="F45:I45"/>
-    <mergeCell ref="F46:I46"/>
-    <mergeCell ref="D48:E52"/>
-    <mergeCell ref="F48:I48"/>
-    <mergeCell ref="F49:I49"/>
-    <mergeCell ref="F50:I50"/>
-    <mergeCell ref="F51:I51"/>
-    <mergeCell ref="F60:I60"/>
-    <mergeCell ref="D61:E63"/>
-    <mergeCell ref="F61:I61"/>
-    <mergeCell ref="F62:I62"/>
-    <mergeCell ref="F40:I40"/>
-    <mergeCell ref="F56:I56"/>
-    <mergeCell ref="F57:I57"/>
+    <mergeCell ref="F35:I35"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="F54:I54"/>
+    <mergeCell ref="D55:E59"/>
+    <mergeCell ref="F55:I55"/>
     <mergeCell ref="F58:I58"/>
-    <mergeCell ref="F54:I54"/>
+    <mergeCell ref="D36:E37"/>
+    <mergeCell ref="F36:I36"/>
+    <mergeCell ref="F37:I37"/>
+    <mergeCell ref="F38:I38"/>
+    <mergeCell ref="F39:I39"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="B1:C21"/>
+    <mergeCell ref="D1:E7"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="D8:E11"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="D12:E14"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="D15:E16"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="F16:I16"/>
     <mergeCell ref="B22:C41"/>
     <mergeCell ref="D22:E28"/>
     <mergeCell ref="F22:I22"/>
@@ -4179,45 +4243,40 @@
     <mergeCell ref="F32:I32"/>
     <mergeCell ref="D33:E35"/>
     <mergeCell ref="F33:I33"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="D12:E14"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="D15:E16"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="B1:C21"/>
-    <mergeCell ref="D1:E7"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="D8:E11"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="F35:I35"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="F63:I63"/>
+    <mergeCell ref="D64:E66"/>
+    <mergeCell ref="F64:I64"/>
+    <mergeCell ref="F65:I65"/>
+    <mergeCell ref="F40:I40"/>
+    <mergeCell ref="F59:I59"/>
+    <mergeCell ref="F60:I60"/>
+    <mergeCell ref="F61:I61"/>
+    <mergeCell ref="F57:I57"/>
+    <mergeCell ref="F51:I51"/>
+    <mergeCell ref="F43:I43"/>
+    <mergeCell ref="F44:I44"/>
+    <mergeCell ref="F45:I45"/>
+    <mergeCell ref="F46:I46"/>
+    <mergeCell ref="D48:E54"/>
+    <mergeCell ref="F48:I48"/>
     <mergeCell ref="F52:I52"/>
-    <mergeCell ref="D53:E56"/>
     <mergeCell ref="F53:I53"/>
-    <mergeCell ref="F55:I55"/>
-    <mergeCell ref="D36:E37"/>
-    <mergeCell ref="F36:I36"/>
-    <mergeCell ref="F37:I37"/>
-    <mergeCell ref="F38:I38"/>
-    <mergeCell ref="F39:I39"/>
+    <mergeCell ref="F66:I66"/>
+    <mergeCell ref="B71:C75"/>
+    <mergeCell ref="F71:I71"/>
+    <mergeCell ref="F72:I72"/>
+    <mergeCell ref="F74:I74"/>
+    <mergeCell ref="F75:I75"/>
+    <mergeCell ref="D73:E74"/>
+    <mergeCell ref="F69:I69"/>
+    <mergeCell ref="F67:I67"/>
+    <mergeCell ref="D67:E70"/>
+    <mergeCell ref="F68:I68"/>
+    <mergeCell ref="F70:I70"/>
+    <mergeCell ref="D71:E72"/>
+    <mergeCell ref="B42:C70"/>
+    <mergeCell ref="D42:E47"/>
+    <mergeCell ref="F42:I42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
